--- a/news_data/2021_09.xlsx
+++ b/news_data/2021_09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,61 +22,148 @@
     <t>naver_news_articles</t>
   </si>
   <si>
-    <t>제주도, 제6회 대한민국 국제 관광박람회 인기상 수상</t>
-  </si>
-  <si>
-    <t>관광객은 줄었는데 쓴 돈은 늘었다?…제주도의 속사정</t>
-  </si>
-  <si>
-    <t>제주도, 추석연휴 관광사업장 방역수칙 특별점검 실시</t>
-  </si>
-  <si>
-    <t>제주도 관광객, 코로나19 이전보다 씀씀이 더 커졌다</t>
-  </si>
-  <si>
-    <t>추석 때 관광객 몰려온다?… 제주도, 거리두기 4단계 ‘철벽방어’</t>
-  </si>
-  <si>
-    <t>제주도관광협회, 제주여행 공모전 성황리 종료</t>
-  </si>
-  <si>
-    <t>제주도관광협회, 소외계층 위한 손소독제 제주사회복지협의회에 기탁</t>
-  </si>
-  <si>
-    <t>오라관광단지 사업 변경안 제주도 제출</t>
-  </si>
-  <si>
-    <t>제주도, 추석 맞아 도내 관광사업체 방역수칙 준수 여부 점검</t>
-  </si>
-  <si>
-    <t>제주도, 제6회 대한민국 국제 관광박람회 인기상 수상 &lt; 경제/관광 &lt; 기사본문 - 제주매일 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 전체기사 뉴스 정치/행정 사회/교육 경제/관광 스포츠 문화 방송/연예 생활에 필요한 법률상식만을 콕!…콕!…콕! 기획 오피니언 국제 기획특집 포토/동영상 포토 동영상 PDF 지면보기 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 로그인 회원가입 모바일웹 RSS 최종편집 2022-10-04 11:19 (화) 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 제6회 대한민국 국제 관광박람회 인기상 수상 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제/관광 제주도, 제6회 대한민국 국제 관광박람회 인기상 수상 기자명 임아라 기자 입력 2021.09.13 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도와 제주도관광협회는 9일부터 12일까지 4일간 경기도 일산 킨텍스에서 개최된 ‘제6회 대한민국 국제 관광박람회’에서 인기상을 수상했다. 이번 박람회는 ‘코로나19 이후 국내 관광산업의 선제적 대응’이라는 주제로, 국내 지자체 97개 및 관광 유관 기업·단체 180여개가 참가했다. 제주도와 협회가 운영한 제주관광홍보관에서는 사회적 거리두기 4단계가 지속되는 상황에서도 안전하게 여행할 수 있는 제주 언택트 관광지와 온라인 제주여행 공공플랫폼 탐나오를 집중 홍보했다. 또한 관람객이 참여할 수 있는 제주 캐릭터 열쇠고리 만들기 체험과 UN기후변화협약 당사국 총회(COP28) 제주 유치 서명운동을 진행해 큰 호응을 얻었다. 협회 관계자는 “앞으로도 부산국제관광박람회(9월), 내나라여행박람회(11월) 등 권역별 개최 예정인 주요 관광박람회에 참가해 위드코로나 시대 안전 제주여행 홍보마케팅을 이어나갈 예정”이라고 밝혔다. 임아라 기자 ara4908@daum.net 다른기사 보기 저작권자 © 제주매일 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 최신뉴스 제주특산식물 세포주은행 구축 산업화 연구 ‘성과’ 제주지식재산센터 10월 무료 변리상담 지원 JDC, 내국인면세점 감정노동자 힐링 교육 대신여성의용소방대, 소화전·호스릴 비상소화장치 점검 도내 미취업청년 8365명에 42억원 재난지원금 지급 포토뉴스 제주특산식물 세포주은행 구축 산업화 연구 ‘성과’ JDC, 내국인면세점 감정노동자 힐링 교육 대신여성의용소방대, 소화전·호스릴 비상소화장치 점검 도내 미취업청년 8365명에 42억원 재난지원금 지급 인기뉴스 1 서귀포예술의전당, ‘빛이 머무는 곶’전(展) 개최 2 막바지 국비예산 확보에 더욱 진력해야 3 제주도, 중증장애인아동 돌봄 지원 960시간으로 확대 4 “제주, 누구도 가보지 않은 새로운 길 도전한다” 5 삼매봉도서관 10월 5일 재개관 6 “토지세가 너무 많이 나왔어요” 7 제주 관광 전세 버스는 달리고 싶은데… “기사가 없어요” 8 제주 4일 최대 30㎜ 비…5일 찬바람 ‘주의’ 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 월광로 37 대표전화 : 064-747-8111 팩스 : 064-747-8116 청소년보호책임자 : 이기봉 법인명 : (주)엔디소프트 제호 : 제주매일 등록번호 : 제주 가 - 00011 등록일 : 2012-05-09 발행일 : 2012-05-09 발행·편집인 : 장동훈 제주매일 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주매일. All rights reserved. mail to news@jejumaeil.net 위로 전체메뉴 전체기사 제8회 지선 전체 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 정치/행정 전체 4·13 총선을 달린다 제주정치돋보기 제주도의회 제8회 지방선거 사회/교육 전체 사회일반 교육 기획 [긴급진단] 제주산돼지고기 청정 이미지 경고등 [진단] 오라동에 비친 제주 난개발의 그림자 원도심 들여다보기 경제/관광 문화 전체 Living &amp; Life 스포츠 전체 전도축구대회 전국체전 전국장애학생체육대회 전국소년체육대회 2018 평창 동계올림픽 2018 평창 동계패럴림픽 기획특집 전체 마을공동체 사업 상생과 경제활성화를 주도한다 -제주매일 ·JDC 공동기획 범도민 바다환경보전 의식제고 프로젝트- 제주도민 생존이 걸린 바다(2021) 제주바다사랑프로젝트- 제주愛 바다愛 - 제주바다를 어떻게 지킬것인가(2020) 제주형 예비 유니콘기업 발굴 육성 - 제주매일 ·JDC 공동기획 살고 싶은 제주 다문화시대, 다양성이 존중되는 제주 만들기 생활에 필요한 법률상식만을 콕!…콕!…콕! 방송/연예 국제 기자수첩 오피니언 종교 전체 제주 순례길 따라 피플 사건사고 설왕설래 포토 Times in English news 이웃소식 만화/만평 전체 시사만화 매일만평 제주매일 포커스 6.4 지방선거 전체 도지사 교육감 도의원 교육의원 브라질월드컵 마라톤 4·13 총선을 달린다 사설 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>관광객은 줄었는데 쓴 돈은 늘었다?…제주도의 속사정 - 노컷뉴스 전체메뉴보기 노컷뉴스메인가기 관광객은 줄었는데 쓴 돈은 늘었다?…제주도의 속사정 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 요약 핵심요약제주를 찾은 관광객이 올해 상반기 1조 3천억원을 썼는데요. 코로나19 이전인 2019년 보다 20% 가까이 늘었다고 합니다. 관광객은 줄었는데도 소비는 늘어난 건데요. 개별관광객이 많아졌기 때문이라는 분석입니다.닫기 CBS 전국 네트워크 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 닫기 크리스천뉴스 노컷비즈 노컷TV 노컷뉴스 전국 최신 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 오피니언 포토 그래픽 노컷브이 핫이슈 스페셜 기획 제보 네이버 구독 다음 구독 카카오 구독 삭제 검색 자동완성 끄기 뉴스 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 지역 서울 경인 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 일반 이슈 핫이슈 스페셜 기획 딥뉴스 노컷체크 인터랙티브 타임라인 시사 김현정의 뉴스쇼 한판승부 김덕기의 아침뉴스 정다운의 뉴스톡 530 오피니언 칼럼 뒤끝작렬 기고 노컷브이 그래픽 포토 노컷TV 씨리얼 팟캐스트 닫기 전국 제주 코로나 재유행 관광객은 줄었는데 쓴 돈은 늘었다?…제주도의 속사정 제주CBS 이인 기자 메일보내기 2021-09-01 14:34 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 핵심요약제주를 찾은 관광객이 올해 상반기 1조 3천억원을 썼는데요. 코로나19 이전인 2019년 보다 20% 가까이 늘었다고 합니다. 관광객은 줄었는데도 소비는 늘어난 건데요. 개별관광객이 많아졌기 때문이라는 분석입니다. 단체관광 사라지고 개별여행 자리잡아…재방문율·체류일수·지출비용 늘어 제주올레 제공코로나19 영향이 2년 째 지속되고 있지만 제주에서 관광객의 소비는 코로나19 이전보다 훨씬 많았던 것으로 나타났다. 단체로 제주를 찾는 것보다는 개별관광객이 많아지고 체류일수와 재방문률이 늘어나면서 질적 성장을 견인했기 때문으로 분석된다.제주관광공사는 올해 1월부터 6월까지 신한카드 제주 가맹점을 대상으로 매출자료 데이터를 분석해 1일 발표했다.우선 올해 상반기 제주도 전체 소비는 3조 2649억원으로, 지난해 같은 기간(2조 7345억원)보다 19.4% 증가했고 코로나19 이전인 2019년 상반기(3조 552억원)보다도 6.9% 늘었다.특히 관광객의 소비 증가가 두드러졌는데, 올해 상반기 제주를 찾은 관광객은 모두 1조 3093억원을 써 지난해 같은 기간 8434억원보다 55.2%나 급증했다.또 코로나19 이전인 2019년 상반기 관광객이 1조 955억원을 쓴 것 보다도 19.5%가 늘었다.지난해 2월 제주에서 코로나19 확진자가 처음 나온 이후 관광객이 급감했고 올해 상반기에는 회복세가 뚜렷해졌고 소비도 늘어난 것이다. 그런데 올해 상반기 소비가 오히려 코로나19 이전보다도 늘어난 점이 눈에 뛴다.실제로 올해 1월부터 6월까지 제주를 찾은 관광객은 548만 6861명으로 지난해 상반기 453만 1881명보다 21.1%가 증가했다.그러나 지난 2019년 상반기 733만 699명이 제주를 찾은 것과 비교하면 올해 상반기 관광객은 25.1%가 감소했다.신용카드 사용으로 본 제주 관광 3년의 변화. 제주관광공사 제공코로나19 이전보다 관광객이 줄었는데도 소비가 늘어난 이유는 뭘까?제주관광공사는 단체관광객이 견인하는 양적 성장보다 개별관광객 위주의 질적 성장이 두드러졌기 때문으로 분석한다.고선영 제주관광공사 데이터 R&amp;D 그룹장은 "코로나19를 겪으며 개별여행 트렌드가 자리를 잡았고 재방문율과 체류일수, 지출비용이 늘어나는 등 질적 성장이 이뤄지면서 오히려 소비가 늘고 있다"고 말했다.제주관광공사가 지난해 제주를 방문한 내국인 관광객 3483명을 대상으로 실시해 올해 4월 발표한 '2020년 제주도 방문관광객 실태조사'에서도 그대로 드러난다.제주를 찾은 관광객의 재방문률을 보면 내국인 관광객의 80%가 2차례 이상 제주를 방문해 2019년 69.6%보다 10.4%P 증가했고 재방문 의향은 5점 만점 기준 4.27점으로 2019년에 비해 0.90점 상승했다.소비지출 조사에서는 제주 관광객 1인당 지출 경비가 50만 6344원으로 2019년 46만 9039원보다 3만 7305원 늘었다. 체류기간 조사에선 평균 4.17일 제주에 머문 것으로 나타나 2019년보다 0.62일 늘었다.스마트이미지 제공개별관광객이 소비를 주도하면서 렌터카와 특급호텔 등은 카드 소비가 급증한 반면 단체관광 시절 특수를 누렸던 전세버스와 2급호텔 등은 감소했다. 제주관광공사는 개별여행객이 주로 이용하는 렌터카와 특급호텔, 콘도미니엄은 올해 1월을 제외하면 2019년 상반기보다 두 자릿수 이상 성장률을 보였다고 밝혔다.특히 올해 4월과 5월 렌터카 소비는 2019년 보다 각각 140%, 123%의 증가율을 나타내며 렌터카 품귀현상을 빚기도 했다고 관광공사는 설명했다.반면 전세버스, 2급 호텔, 관광여행사는 2019년 소비 규모와 비교할 때 감소 추세가 뚜렷한 것으로 관광공사는 분석했다.이에 따라 단체관광객을 겨냥한 전세버스와 2급 호텔 등의 관광업계는 개별 여행 트렌드에 맞춘 체질 개선이 시급한 것으로 나타났고 제주도 역시 업계의 자구 노력을 뒷받침 할 수 있는 정책 결정이 이뤄져야 할 것으로 보인다. 더 클릭 [단독]'쌍방울, 北에 1천만불 약속' 국정원 문건 입수 조종석엔 김건희·칼 든 검사…고교생이 그린 '윤석열차' 논란 "월급 줄 돈 없어"…기증받은 인체조직 헐값에 판 공공기관 다음 정권에 '1기 신도시' 넘긴 尹정부…주민들, '항의집회' 예고 가상화폐 뒷광고 딱 걸린 킴 카다시안, 18억원 '벌금 폭탄' 尹 "北 무모한 도발, 국제사회 결연한 대응 직면할 것"(종합) 노벨 생리의학상에 스반테 페보 교수…'게놈 염기서열 분석' 성과 무면허 사고 내고 운전자 바꿔친 전직 경찰서장…재판행 올여름 부산 수돗물, 열흘 동안 6등급 폐수 원수 공급해 긴급 NSC "대북 제재 강화 등 대북 억제 방안 모색"…강력 규탄 제주CBS 이인 기자 메일 네이버 코로나 재유행 부산 최근 일주일 하루 평균 확진자 8천여명, 10.5% 줄어 신규확진 1만 6423명·'14주 만에 최저'…사망자 19명 충북서 3일 코로나19 499명…전주대비 절반 이상 줄어 0 0 이 시각 주요뉴스 오늘의 기자 많이 본 뉴스 실시간 댓글 투데이 핫포토 오늘의 핫뉴스닫기 / 이전 다음 닫기 노컷뉴스 회사소개 사업 제휴 광고안내 콘텐츠 구매 제보 이용약관 개인정보 취급방침 편집규약 지역노컷 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 인터넷신문 등록번호 : 서울 아00030 | 등록일자 : 2005.08.30(노컷뉴스), 2007.11.05(노컷TV) 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 | ISSN : 2636-0373 노컷뉴스의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷뉴스 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷스포츠 | 인터넷신문 등록번호 : 서울 아04480 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷스포츠의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷스포츠 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷연예 | 인터넷신문 등록번호 : 서울 아04479 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷연예의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2017 by CBS M&amp;C, 노컷연예 all rights reserved.</t>
-  </si>
-  <si>
-    <t>제주도, 추석연휴 관광사업장 방역수칙 특별점검 실시 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 11:19 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 추석연휴 관광사업장 방역수칙 특별점검 실시 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도, 추석연휴 관광사업장 방역수칙 특별점검 실시 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2021.09.03 13:48 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도는 추석 연휴 코로나19 확산 방지를 위해 관광사업체를 대상으로 방역수칙 준수 여부 등을 특별 점검한다고 3일 밝혔다. 제주도는 지난해 1월부터 방역수칙 준수 주요시설인 관광호텔 등 숙박시설과 관광사업체를 대상으로 특별 방역 점검 및 방역물품을 지원해 왔다. 올 2월부터 관광협회·관광공사와 함께 민·관 합동 점검체계를 구축해 방역수칙 준수 여부에 대한 현장 점검을 강화하고 있다. 특히, 비대면 위주로 영업하고 있는 여행업과 기타 편의시설업을 점검 대상에 추가하고, 방역지침 홍보와 함께 현장지도 에 나설 방침이다. 올 들어 8월말 현재 관광사업체 5363개소에 대해 점검을 벌인 것으로 집계됐다. 김승배 제주도 관광국장은 “앞으로도 다중이용시설인 관광사업체 뿐만 아니라 기타 관광사업장에 대해서도 수시 점검을 벌여 안정관광 이미지를 구축해 나가겠다”고 말했다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 "제주 보전지역 정기조사 부실투성이...도의회, 재조사 요구하라" 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 7 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 참으로 무식한 시민단체라고 할 수 밖에... 공장도 없애야 하고 자동차도 다 없애자고 주장하고. 제주도행 비행기도 운항 중단해야 한다고 주장하는 거랑 뭐가 다른지... 누가 저렇게 하라고 시민단체에게 지시하는 사람이 있나요. 2 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 3 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 4 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 5 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 6 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 7 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 8 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 9 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 10 축하합니다. 대단하십니다. 부럽습니다~~~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도 관광객, 코로나19 이전보다 씀씀이 더 커졌다 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 11:19 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 관광객, 코로나19 이전보다 씀씀이 더 커졌다 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 제주도 관광객, 코로나19 이전보다 씀씀이 더 커졌다 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2021.09.01 11:14 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주관광 신용카드 매출자료 분석 결과, 관광소비 크게 늘어고비용·개별여행 중심 전환...관광업종 간 양극화 여전 코로나19가 장기화되면서 제주도 방문 관광객 수는 줄었으나, 여행객들의 씀씀이는 코로나19 이전보다도 커진 것으로 나타났다. 제주특별자치도와 제주관광공사는 1일 신용카드 매출자료 데이터를 분석한 '올해 상반기 제주관광 소비 영향 분석' 결과를 발표했다. 분석 결과에 따르면, 올해 상반기 제주지역 소비 증가율은 지난해 같은 기간 대비 19.4% 증가했다. 또 코로나 발생 전인 2019년 상반기와 비교해서도 6.9% 늘어난 것으로 나타났다. 이는 올해 상반기 전국 평균 소비 증가율(2.1%) 및 2019년 상반기 소비 증가율(-3.7%)과 비교해서도 크게 높은 수준이다. 세부적으로 보면, 관광객들의 소비가 두드러지게 증가했다. 올해 상반기 제주도 전체 소비에서 제주를 방문한 내국인 관광객이 차지하는 비중은 38.7%로 나타났다. 전체 관광객의 소비 증가율은 지난해 대비 55.2%, 2019년 대비 19.5% 늘어난 것으로 분석됐다. 특히 내국인 관광객의 소비상승세가 코로나19 이전 수준을 크게 초과한 것으로 나타났다. 내국인 관광객은 올해 상반기 소비 증가율은 지난해 대비 무려 58.3% 증가한 것으로 나타났다. 2019년 상반기와 비교해서도 31% 늘었다. 그러나 코로나19의 4차 유행이 발생했던 5월 이후에는 증가세가 다소 주춤한 것으로 나타났으며, 외국인 관광객은 올해도 전혀 회복하지 못하고 있는 것으로 나타났다. 이러한 관광 소비 규모의 증가에도 불구하고, 관광객의 소비는 렌터카, 특급호텔, 콘도미니엄 등 고비용의 개별여행에 관련된 특정 업종에 편중된 경향을 보였다. 여행, 숙박 관련 업종 중 렌터카, 특급호텔, 콘도미니엄은 올해 1월을 제외하고는 2019년 상반기 대비 두 자릿수 이상 성장률을 보인 것으로 분석됐다. 특히 4, 5월 렌터카는 2019년 대비 각각 140%, 123%의 증가율을 나타내며 렌터카 품귀현상을 빚기도 했다. 반면 전세버스, 2급 호텔, 관광여행사는 '2019년 소비 규모와 비교했을 때, 여전히 감소하고 있는 것으로 분석됐다. 코로나19 이후 단체여행을 꺼리는 현 상황이 당분간은 지속될 것으로 보이는 바, 체질 개선을 위해 적극적으로 고민해야 할 것으로 보인다. 제주관광공사 관계자는 "앞으로도 지속적인 빅데이터 분석과 다양한 조사를 통해 코로나19로 인한 피해를 모니터링하고 이를 기반으로 과학적인 지원 및 마케팅 방안 수립으로 대응할 것"이라고 밝혔다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 "제주 보전지역 정기조사 부실투성이...도의회, 재조사 요구하라" 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 7 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 참으로 무식한 시민단체라고 할 수 밖에... 공장도 없애야 하고 자동차도 다 없애자고 주장하고. 제주도행 비행기도 운항 중단해야 한다고 주장하는 거랑 뭐가 다른지... 누가 저렇게 하라고 시민단체에게 지시하는 사람이 있나요. 2 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 3 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 4 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 5 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 6 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 7 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 8 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 9 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 10 축하합니다. 대단하십니다. 부럽습니다~~~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>추석 때 관광객 몰려온다?… 제주도, 거리두기 4단계 ‘철벽방어’ - 머니S 본문영역 바로가기 2022.10.04 | 11:17:07 [★화보] 한효주, 도회적 분위기 물씬…페미닌 윈터룩 더보기 [★화보] 한효주, 도회적 분위기 물씬…페미닌 윈터룩2분전 [머니S포토] '무한상상' 공공 디자인 페스티벌 개최3분전 尹, 잇단 北미사일 도발에… "국제사회 결연한 대응 직면할 것"3분전 [인사] 지디넷코리아6분전 "드디어 일본 간다"… 무비자·엔저에 여행수요 '껑충'7분전 [머니S포토] '일상 속 공공디자인'9분전 에이비엘바이오, 파킨슨병 치료제 ABL301 美임상 신청10분전 "자영업자 빚 감면" 오늘 출범한 새출발기금 사전신청만 3410명11분전 요기요, 신입 개발자 공개 채용 시작12분전 [머니S포토] '공공디자인 페스티벌 2022'13분전 2022.10.04 기사표출기준 광고안내 독자의견 정기구독 MNB 머니바이크 하이하이 검색오픈 검색 검색 금융 은행 보험 증권섹션 재테크 정책일반 생활금융 증권 마켓 비즈니스 글로벌 재테크 가상화폐 산업 기업일반 IT 블록체인 자동차 항공물류 유통생활 정책일반 게임 의약/바이오 에너지/중공업 건설/부동산 업계일반 부동산시장동향 정책일반 재테크 생활문화 여행 맛집 출판 공연문화 교육,육아 건강 패션뷰티 이슈&amp; 창업현미경 브랜드소식 정책일반 핫이슈/트렌드 인물탐방 쇼핑몰뉴스 창업칼럼 연예 스타 드라마 예능 영화 뮤직 해외 일반 포토 스포츠 야구 해외야구 축구 해외축구 농구 배구 골프 일반 e스포츠&amp;게임 연재 정치/사회 정치 사회 지역 글로벌 인사 부고 전체 추석 때 관광객 몰려온다?… 제주도, 거리두기 4단계 ‘철벽방어’ 머니S 전민준 기자|조회수 : 3,410|입력 : 2021.09.04 09:04 기사공유 댓글남기기 폰트크게 폰트작게 프린트 제주특별자치도가 사회적 거리두기 4단계를 오는 22일까지 연장하며 코로나19 확산 차단에 나섰다.제주지역 사회적 거리두기가 4단계로 격상된 첫날인 18일 저녁 제주시 함덕해수욕장에 거리두기 안내문이 걸려 있다./사진=뉴스1 제주특별자치도가 사회적 거리두기 4단계를 오는 22일 자정까지 2주 더 연장하며 철벽방어 태세에 들어갔다. 제주도는 단계를 조정할 경우 풍선효과로 관광객과 귀성객이 몰릴 가능성 등을 고려해 추석연휴까지 4단계를 유지한다고 3일 밝혔다. 다만 정부의 예방접종 인센티브 확대 방침에 따라 제주 역시 오는 6일부터 식당·카페 및 가정에서 모일 수 있는 인원 제한을 다소 완화한다. 오후 6시이후에는 원칙적으로 2인까지만 사적모임이 가능하지만 예방접종 완료자 4명을 포함해 최대 6명까지 허용된다. 추석연휴를 포함한 17일부터 23일까지 1주일간은 직계가족이고 접종 완료자가 4명일 경우에 한해 가정 내 모임이 최대 8명까지 허용된다. 식당·카페의 매장 영업도 오후 9시에서 오후 10시까지 1시간 연장된다. 결혼식은 현재 49인까지만 허용하고 있지만 식사 제공이 없는 경우 최대 99명까지 허용(취식하는 경우 현행 49인 유지)한다. 제주도는 이와 함께 13일부터 26일까지 추석 특별방역대책을 추진한다. 백신접종 완료 또는 진단검사 후 최소인원으로 고향을 방문하고 부모가 백신 미접종인 경우 되도록 방문을 자제하거나 미뤄달라고 당부했다. 고향 방문 후에는 집에 머물며 증상을 관찰하고 증상이 있으면 진단검사를 독려할 예정이다. 요양병원 등의 보호시설의 경우 13일부터 26일까지 2주간 방문 면회를 허용한다. 면회객 분산을 위해 사전 예약을 해야 한다. 면회객이 예방접종 완료자인 경우 접촉 면회를 허용한다. 전민준 minjun84@mt.co.kr 안녕하세요 머니S 전민준 기자입니다. 이 기자의 다른기사 보기 &gt; 공유 : 공감 0% 비공감 0% &lt;저작권자 ⓒ ‘성공을 꿈꾸는 사람들의 경제 뉴스’ 머니S, 무단전재 및 재배포 금지&gt; &lt;보도자료 및 기사 제보 (moneys@mt.co.kr)&gt; 한 살 이하 손주에게 물려준 재산 '1000억'… 1년 새 3배 '쑥''대체공휴일' 개천절, 시급제 근로자 '유급휴일' 보장되나'금리의 역습'… 신용점수 1000점 육박해도 이자는 벌써 7%YG "제니 개인사진 최초 유포자 경찰수사 의뢰""윤 대통령 지켜내자"… 전광훈 등 보수단체 3만명 모여 서울 교통 대란 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 랭킹뉴스 최신뉴스 추천뉴스 한 살 이하 손주에게 물려준 재산 '1000억'… 1년 새 3배 '쑥''대체공휴일' 개천절, 시급제 근로자 '유급휴일' 보장되나'금리의 역습'… 신용점수 1000점 육박해도 이자는 벌써 7%YG "제니 개인사진 최초 유포자 경찰수사 의뢰""윤 대통령 지켜내자"… 전광훈 등 보수단체 3만명 모여 서울 교통 대란"둘째 가진 줄"… 홍현희, 김지민 놀라게 한 물건 정체는?쥐도 새도 모르게 인사이동 당했다… 법원 "인사권 남용""괴물 상대하려면 나도 괴물 되겠다"… 박연수, 딸 송지아에게 무슨 일?공무원 3000명, 월급 이외 연 '3400만원' 어떻게 벌었나 봤더니이번엔 'HUG'… 원희룡 국토 장관, 도로공사 이어 사장 사퇴 압박 [★화보] 한효주, 도회적 분위기 물씬…페미닌 윈터룩[머니S포토] '무한상상' 공공 디자인 페스티벌 개최尹, 잇단 北미사일 도발에… "국제사회 결연한 대응 직면할 것"[인사] 지디넷코리아"드디어 일본 간다"… 무비자·엔저에 여행수요 '껑충'[머니S포토] '일상 속 공공디자인'에이비엘바이오, 파킨슨병 치료제 ABL301 美임상 신청"자영업자 빚 감면" 오늘 출범한 새출발기금 사전신청만 3410명요기요, 신입 개발자 공개 채용 시작[머니S포토] '공공디자인 페스티벌 2022' '손담비 손절설' 진짜였나… 소이 "인생은 인생 그대로""술 좀 그만 먹어라"… '음주운전' 곽도원, 차기작 어쩌나"밀라노서 우연히" 아이유·유아인, 파리 목격담… 무슨 사이?"제조하는 것 같아"… 돈스파이크, 손놀림 수상쩍었다?한그루 이혼설 '솔솔'…7년 만에 파경?'온몸 타투'에 입 열었다… 나나 "개인적인 선택""어떡해 진짜같아"… '43세' 손호영, 결혼식장서 눈물 흘린 이유"키 크고 말라서 창피"… 이요원, 프로필 말이 돼? '헉'김민하, 파리지엔느 느낌 물씬… 우아+감각적인 공항패션'이상해 며느리' 김윤지, ♥남편과 결혼 1주년 '달달' 코스피 : 2207.63 52.1410:59 10/04 코스닥 : 691.75 19.110:59 10/04 원달러 : 1435.90 5.710:59 10/04 두바이유 : 88.28 1.2310:59 10/04 금 : 1702.00 3010:59 10/04 재테크 [고수칼럼] 건강보험료 만큼은 빅스텝을 밟지 않으려면 맛집로드 [맛집로드] 식탁 위에 펼쳐진 지속 가능한 미식, 비건 맛집 자동차 10월에 쌍용차 토레스 사면 이런 혜택이? BOOK [신간] 가구 스타일링, 홈꾸의 시작이자 완성이다 창업정보의 모든 것! [르포] 신반포15차 '2차전'… 대우건설 vs 롯데건설 또 만났다 "오늘 어머니 뵈러 갑니다"… 요양병원 대면면회 재개 불법건축물 벌금내는 게 '남는 장사'… 이행강제금 '100만원대' 이전 다음 이전 다음 이전 다음 이전 다음 SLIDE[머니S포토] 박해일 '훈훈한 가을남자'(춘사영화제) SLIDE[머니S포토] 박해일 '성동구 시선 싹쓸이~'(춘사국제영화제) SLIDE[머니S포토] 배종옥 '춘사국제영화제 나들이~' SLIDE[머니S포토] 김태훈 '춘사국제영화제 시상자로' SLIDE[머니S포토] 김동휘 '충무로 샛별의 하트' SLIDE[머니S포토] 박지환 '개성파 신스틸러'(춘사국제영화제) SLIDE[머니S포토] 허동원 '힘찬 파이팅!' SLIDE[머니S포토] 하준 '매력적인 미소'(춘사국제영화제) SLIDE[머니S포토] 최정운 '충무로 신예' SLIDE[머니S포토] 소유진 '제27회 춘사국제영화제 홍보대사' SLIDE[머니S포토] 이순재, 근엄한 미소(춘사국제영화제) SLIDE[머니S포토] 구혜선, 확 달라진 스타일링…'분위기 여신' SLIDE[머니S포토] 구혜선 '오늘은 심사위원으로' SLIDE[머니S포토] 이장호 감독 '환한 미소' SLIDE[머니S포토] 전봉석·임승현 '한국 영화 파이팅!' SLIDE[머니S포토] 지은호·김예은 '제27회 춘사국제영화제 진행 맡았어요' SLIDE[머니S포토] 문송희 '춘사국제영화제 나들이~' SLIDE[머니S포토] 유채련, 미소 살짝 SLIDE[머니S포토] 나예린 '우아하게~'(춘사국제영화제) SLIDE[머니S포토] 지대한 '해바라기 병진이 형' SLIDE[머니S포토] 버스터즈 '귀엽고 깜찍하게' SLIDE[머니S포토] 춘사국제영화제 참석한 한지일 SLIDE[머니S포토] 이순재, 춘사국제영화제 참석한 국민 할아버지 SLIDE[머니S포토] 전문대교협 '2023 수시 전문대 입학정보 박람회' 개최 SLIDE[머니S포토] 미래의 현장 전문 실무자를 꿈꾸다, 수시 전문대학 입학정보박람회 SLIDE[머니S포토] 맞춤형 청년인재 전문가를 양성한다, 2023 수시 전문대 입학정보 박람회 SLIDE[머니S포토] 2023학년도 전문대 수시 '15만6800여명' 모집 SLIDE[머니S포토] 펜데믹 후 더욱 어려운 취업난, 현장실습 교육 앞세운 전문대 리턴 입학 잦아져.. SLIDE[머니S포토] 전문가를 만드는 힘! 2023 수시 전문대 입학정보 박람회 SLIDE[머니S포토] 국가재정범죄 합동수사단 공식 출범 SLIDE[머니S포토] 국가재정범죄 합동수사단 현판 공개 SLIDE[머니S포토] 이원석 "재정비리 뿌리 뽑아 나라 곳간 지킬 것" SLIDE[머니S포토] 국가재정범죄 합동수사단 출범 축사하는 이원석 검찰총장 SLIDE[머니S포토] 국가재정범죄 합동수사단 출범식, 인사말 하는 유진승 단장 SLIDE[머니S포토] 이원석 총장, 순직 검찰 관계자 추모비 헌화 SLIDE[머니S포토] 이원석 검찰총장, 국가재정범죄 합동수사단 사무실 방문 SLIDE[머니S포토] 합동수사단 직원들 격려하는 이원석 검찰총장 SLIDE[머니S포토] 컴백 이주호, 9년만에 돌아온 MB정부 교과부 장관 SLIDE[머니S포토] 첫 출근 속 미소짓는 이주호 사회부총리 후보자 SLIDE[머니S포토] 컴백 이주호 "과거 교과부 장관 경험·교훈 자산삼아 잘 수행토록 최선노력 다해" SLIDE[머니S포토] 이주호 "교육부, 사회부총리 부서...사회적 난제 해결에 범부처적 노력 필요" SLIDE[머니S포토] 이주호 후보자 "교육부 폐지하자는 것 아니었다" SLIDE[머니S포토] 컴백 이주호 "교육주체의 자율·자유 최대 허용해야" SLIDE[머니S포토] 이주호 "팬데믹 후 기초학력 미달자↑창의적 정책개발 필요" [기자수첩] '기업인 때리기' 국감, 이제 그만 요즘 주요 기업의 대관업무 담당자들은 그 어느 때보다 바쁜 나날을 보내고 있다고 한다. 국회 국정감사를 앞두고 주요 기업 경영진이 대거 증인으로 채택됐기 때문이다. 글로벌 경제위기 속 성장 전략 구상에도 시간이 모자란 경영진이 국감장에 불려가 망신당하는 일이 발생하진 않을지 담당 직원들의 긴장감이 역력하다.기업의 "국감 스트레스"는 어제오늘의 일이 아니다. 국회는 매년 국감에서 기업인들을 줄소환하는 관행을 이어왔다. 윤석열 정부 들어 처음으로 열리는 올해 국감도 역대급 기업인 소환을 예고하고 있다. 국회 외교통일위원회는 미국의 인플레이션 감축법(IRA)과 반도체 공급망 협의체(칩4) 등 주요 현안에 대한 산업계의 대응과 관련해 이재용 삼성전자 부회장, 최태원 SK그룹 회장, 정의선 현대자동차그룹 회장, 구광모 LG그룹 회장 등 4대 그룹 총수를 부르는 방안을 논의 중인 것으로 알려졌다.산업통상자원중소벤처기업위원회는 이재승 삼성전자 생활가전사업부장(사장), 공영운 현대자동차 사.. [고수칼럼] 건강보험료 만큼은 빅스텝을 밟지 않으려면[오!머니] 주담대 금리 8% 간다… 변동금리 어찌하오리까[청계광장] 가치 공유가 무색한 한·미 기술전쟁[청계광장] '딴짓 하는 건 아니겠지'… 리모트워크 성공하려면 제769호재개발·재건축 변함없는 '복마전' [르포] 인천 숭의5구역 'SK vs 두산', 시공사 선정 난항 [르포] 신반포15차 '2차전'… 대우건설 vs 롯데건설 또 만났다 잠실 미성·크로바 벌금형 받은 '롯데건설'… 시공계약 유지할 수 있을까 제768호민간 주도 성장, 다시 뛰는 대한민국 '퍼펙트 스톰' 경고음… 돌파구는 '민간 주도 성장' 위기극복 팔 걷은 기업들… 한국 도약 이끈다 기업 끌고 정부 밀고… K-반도체, 공급망 주도권 쥔다 기업이 여는 '뉴 스페이스'… 민간 우주시대 활짝 "이번엔 K-원전"… 글로벌 시장 '정조준' 제767호브랜드만 717개… 대한민국은 '치킨공화국' 치킨을 둘러싼 진짜 '치킨게임'… "끝까지 간다" "치킨 한 마리 팔면 1000원 남아요" '치킨 전쟁'… 빅3에 대적하는 신흥 강자들 회사소개 정기구독 사이버몰이용약관 저작권규약 개인정보처리방침 광고안내 독자의견 머니앤밸류   서울시 종로구 청계천로 11(서린동, 청계한국빌딩)   제호: 머니에스   대표이사/발행인/편집인: 박정용등록번호:서울 아01082    등록일/발행일:2010.1.5    사업자등록번호 101-81-94590통신판매신고번호 제 01-1022호    호스팅사업자 주식회사 후이즈전자우편주소 moneys@mt.co.kr    Tel: 02-724-0959    청소년보호책임자: 강인귀 COPYRIGHT © MONEYS ALL RIGHTS RESERVED.</t>
-  </si>
-  <si>
-    <t>제주도관광협회, 제주여행 공모전 성황리 종료 &lt; 경제/관광 &lt; 기사본문 - 제주매일 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 전체기사 뉴스 정치/행정 사회/교육 경제/관광 스포츠 문화 방송/연예 생활에 필요한 법률상식만을 콕!…콕!…콕! 기획 오피니언 국제 기획특집 포토/동영상 포토 동영상 PDF 지면보기 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 로그인 회원가입 모바일웹 RSS 최종편집 2022-10-04 11:19 (화) 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 제주여행 공모전 성황리 종료 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제/관광 제주도관광협회, 제주여행 공모전 성황리 종료 기자명 임아라 기자 입력 2021.09.06 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도관광협회가 추진한 ‘제주 상생 프로젝트, 제주투게더 포스팅 공모전’이 성황리에 종료됐다. 올해 3년차를 맞이한 제주여행 공모전은 SNS 등을 통해 제주의 다양한 여행 콘텐츠를 알리는 행사이다. 올해는 건강한 여행문화·소상공인 알리기·겨울 제주 중 한 가지 주제를 선택해 건강한 제주를 알리고 친환경적 책임관광을 선도하는 ‘지속 가능한 제주여행’ 브랜딩을 목적으로 진행됐다. 온라인 참여자 수는 전년 대비 168% 대폭 증가했으며, 특히 팬데믹 시기에도 시도해볼 만한 새롭고 다양한 제주의 모습이 소개돼 의미를 더했다. 공모전은 1·2차 심사를 거쳐 총 43명(팀)을 선발하며, 수상결과는 9월 30일 공모전 홈페이지를 통해 발표할 예정이다. 임아라 기자 ara4908@daum.net 다른기사 보기 저작권자 © 제주매일 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 최신뉴스 제주특산식물 세포주은행 구축 산업화 연구 ‘성과’ 제주지식재산센터 10월 무료 변리상담 지원 JDC, 내국인면세점 감정노동자 힐링 교육 대신여성의용소방대, 소화전·호스릴 비상소화장치 점검 도내 미취업청년 8365명에 42억원 재난지원금 지급 포토뉴스 제주특산식물 세포주은행 구축 산업화 연구 ‘성과’ JDC, 내국인면세점 감정노동자 힐링 교육 대신여성의용소방대, 소화전·호스릴 비상소화장치 점검 도내 미취업청년 8365명에 42억원 재난지원금 지급 인기뉴스 1 서귀포예술의전당, ‘빛이 머무는 곶’전(展) 개최 2 막바지 국비예산 확보에 더욱 진력해야 3 제주도, 중증장애인아동 돌봄 지원 960시간으로 확대 4 “제주, 누구도 가보지 않은 새로운 길 도전한다” 5 삼매봉도서관 10월 5일 재개관 6 “토지세가 너무 많이 나왔어요” 7 제주 관광 전세 버스는 달리고 싶은데… “기사가 없어요” 8 제주 4일 최대 30㎜ 비…5일 찬바람 ‘주의’ 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 월광로 37 대표전화 : 064-747-8111 팩스 : 064-747-8116 청소년보호책임자 : 이기봉 법인명 : (주)엔디소프트 제호 : 제주매일 등록번호 : 제주 가 - 00011 등록일 : 2012-05-09 발행일 : 2012-05-09 발행·편집인 : 장동훈 제주매일 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주매일. All rights reserved. mail to news@jejumaeil.net 위로 전체메뉴 전체기사 제8회 지선 전체 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 정치/행정 전체 4·13 총선을 달린다 제주정치돋보기 제주도의회 제8회 지방선거 사회/교육 전체 사회일반 교육 기획 [긴급진단] 제주산돼지고기 청정 이미지 경고등 [진단] 오라동에 비친 제주 난개발의 그림자 원도심 들여다보기 경제/관광 문화 전체 Living &amp; Life 스포츠 전체 전도축구대회 전국체전 전국장애학생체육대회 전국소년체육대회 2018 평창 동계올림픽 2018 평창 동계패럴림픽 기획특집 전체 마을공동체 사업 상생과 경제활성화를 주도한다 -제주매일 ·JDC 공동기획 범도민 바다환경보전 의식제고 프로젝트- 제주도민 생존이 걸린 바다(2021) 제주바다사랑프로젝트- 제주愛 바다愛 - 제주바다를 어떻게 지킬것인가(2020) 제주형 예비 유니콘기업 발굴 육성 - 제주매일 ·JDC 공동기획 살고 싶은 제주 다문화시대, 다양성이 존중되는 제주 만들기 생활에 필요한 법률상식만을 콕!…콕!…콕! 방송/연예 국제 기자수첩 오피니언 종교 전체 제주 순례길 따라 피플 사건사고 설왕설래 포토 Times in English news 이웃소식 만화/만평 전체 시사만화 매일만평 제주매일 포커스 6.4 지방선거 전체 도지사 교육감 도의원 교육의원 브라질월드컵 마라톤 4·13 총선을 달린다 사설 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도관광협회, 소외계층 위한 손소독제 제주사회복지협의회에 기탁 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 11:19 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회, 소외계층 위한 손소독제 제주사회복지협의회에 기탁 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 사회 제주도관광협회, 소외계층 위한 손소독제 제주사회복지협의회에 기탁 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2021.09.03 14:43 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회(회장 부동석)는 지난 2일 제주특별자치도사회복지협의회(회장 고승화)를 방문, 300만원 상당의 손소독제(750개)를 전달했다. 이번 물품 기부는 제주도관광협회에서 추진하고 있는 사회공헌 활동의 일환으로 도내 소외계층의 안전한 코로나19 극복을 위해 이뤄졌다. 부동석 제주관광협회 회장은 "코로나19의 장기화로 보건 사각지대에 놓인 분들이 많아 기부를 하게 됐다”며 “앞으로도 협회의 다양한 활동을 통해 도움을 드릴 수 있도록 노력하겠다"고 전했다. 이 날 기부된 물품은 푸드뱅크·마켓을 통해 도내 저소득 취약계층에 전달될 예정이다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 "제주 보전지역 정기조사 부실투성이...도의회, 재조사 요구하라" 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 7 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 참으로 무식한 시민단체라고 할 수 밖에... 공장도 없애야 하고 자동차도 다 없애자고 주장하고. 제주도행 비행기도 운항 중단해야 한다고 주장하는 거랑 뭐가 다른지... 누가 저렇게 하라고 시민단체에게 지시하는 사람이 있나요. 2 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 3 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 4 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 5 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 6 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 7 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 8 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 9 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 10 축하합니다. 대단하십니다. 부럽습니다~~~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>오라관광단지 사업 변경안 제주도 제출 ::::: 기사 본문 바로가기 검색사이드메뉴바사이드메뉴바OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항 로그인 로그인검색 검색 로그인 로그인 사이드메뉴바 닫기OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항투데이오라관광단지 사업 변경안 제주도 제출 김항섭2021년 09월 02일 00시 00분 00초 글자 크기 인쇄 페이스북에 공유트위터에 공유 카카오톡에 공유 제주 최대 규모 관광개발사업인 오라관광단지 사업 변경안이 제주도에 제출됐습니다. 제주도는 최근 오라관광단지개발 사업자 측이 건축물 연면적과 객실수를 축소하고 전체부지 대비 63%의 녹지를 확보하는 복합리조트 건설 사업 계획서를 제출했다고 밝혔습니다. 이는 제주도 개발사업심의위원회가 지난해 7월 사업계획을 국내 여건에 맞게 수립하라며 재검토 결정을 내린 것에 따른 후속 조치로, 제주도는 수정 사업 계획서에 대한 재심의를 진행하게 됩니다. 김항섭khsb11@jejumbc.com 최신 뉴스 뉴스투데이2022년 10월 04일 08시 13분 24초 탐라문화제 3년 만에 대면행사...10월 6일~10일2022년 10월 04일 07시 20분 00초 동료 해녀 살린 제주의용소방대원 전국대회 1위2022년 10월 04일 07시 20분 00초 현병찬 선생 제41회 세종문화상 수상자 선정2022년 10월 04일 07시 20분 00초 국토부, JDC 정원 28명 감축 추진2022년 10월 04일 07시 20분 00초 오늘 낮까지 '가을비'‥내일부터 기온 내려가 선선2022년 10월 04일 07시 20분 00초TK신공항 밀어주는데.. 가덕도는 조용2022년 10월 04일 07시 20분 00초연중기획-주민들이 주인공으로 등장(리포트)2022년 10월 04일 07시 20분 00초'사상검증 논란' 4.3 수형인 68명 오늘 선고2022년 10월 04일 07시 20분 00초4.3길 사실상 방치?2022년 10월 04일 07시 20분 00초오라관광단지 사업 변경안 제주도 제출 방송편성규약게시판 운영원칙광고안내프로그램 구입 안내지상파DMB개인정보취급방침이용약관이메일무단수집거부 MBC Family MBC경남 대구MBC 대전MBC 목포MBC 부산MBC MBC강원영동 안동MBC여수MBC 울산MBC 광주MBC 원주MBC 전주MBC 제주MBC MBC충북 춘천MBC 포항MBC MBC C&amp;I MBC아카데미 MBC ARTS MBC PLUS MBC AMERICA MBC PlayBe 꿈나무축구재단 MBCNET MBC나눔 iMBC 회사명 : 제주문화방송(주) | 대표자 : 이정식 | 제주특별자치도 제주시 문연로 35 (연동) 064-740-2114 팩스번호 : 064-746-9020 | 뉴스제보 : 064-740-2000ㅣ광고문의 : 064-740-2400© 2019. Jeju Munhwa Broadcasting Corp. All rights reserved. Copyright © Jeju Munhwa Broadcasting Corp. All rights reserved. OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항로그인 로그인</t>
-  </si>
-  <si>
-    <t>오라관광단지 사업 변경안 제주도 제출 ::::: 기사 본문 바로가기 검색사이드메뉴바사이드메뉴바OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항 로그인 로그인검색 검색 로그인 로그인 사이드메뉴바 닫기OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항뉴스데스크오라관광단지 사업 변경안 제주도 제출 김항섭2021년 09월 01일 00시 00분 00초 글자 크기 인쇄 페이스북에 공유트위터에 공유 카카오톡에 공유 제주 최대 규모 관광개발사업인 오라관광단지 사업 변경안이 제주도에 제출됐습니다. 제주도는 최근 오라관광단지개발 사업자 측이 건축물 연면적과 객실수를 축소하고 전체부지 대비 63%의 녹지를 확보하는 복합리조트 건설 사업 계획서를 제출했다고 밝혔습니다. 이는 제주도 개발사업심의위원회가 지난해 7월 사업계획을 국내 여건에 맞게 수립하라며 재검토 결정을 내린 것에 따른 후속 조치로, 제주도는 수정 사업 계획서에 대한 재심의를 진행하게 됩니다. 김항섭khsb11@jejumbc.com 최신 뉴스 뉴스투데이2022년 10월 04일 08시 13분 24초 탐라문화제 3년 만에 대면행사...10월 6일~10일2022년 10월 04일 07시 20분 00초 동료 해녀 살린 제주의용소방대원 전국대회 1위2022년 10월 04일 07시 20분 00초 현병찬 선생 제41회 세종문화상 수상자 선정2022년 10월 04일 07시 20분 00초 국토부, JDC 정원 28명 감축 추진2022년 10월 04일 07시 20분 00초 오늘 낮까지 '가을비'‥내일부터 기온 내려가 선선2022년 10월 04일 07시 20분 00초TK신공항 밀어주는데.. 가덕도는 조용2022년 10월 04일 07시 20분 00초연중기획-주민들이 주인공으로 등장(리포트)2022년 10월 04일 07시 20분 00초'사상검증 논란' 4.3 수형인 68명 오늘 선고2022년 10월 04일 07시 20분 00초4.3길 사실상 방치?2022년 10월 04일 07시 20분 00초오라관광단지 사업 변경안 제주도 제출 방송편성규약게시판 운영원칙광고안내프로그램 구입 안내지상파DMB개인정보취급방침이용약관이메일무단수집거부 MBC Family MBC경남 대구MBC 대전MBC 목포MBC 부산MBC MBC강원영동 안동MBC여수MBC 울산MBC 광주MBC 원주MBC 전주MBC 제주MBC MBC충북 춘천MBC 포항MBC MBC C&amp;I MBC아카데미 MBC ARTS MBC PLUS MBC AMERICA MBC PlayBe 꿈나무축구재단 MBCNET MBC나눔 iMBC 회사명 : 제주문화방송(주) | 대표자 : 이정식 | 제주특별자치도 제주시 문연로 35 (연동) 064-740-2114 팩스번호 : 064-746-9020 | 뉴스제보 : 064-740-2000ㅣ광고문의 : 064-740-2400© 2019. Jeju Munhwa Broadcasting Corp. All rights reserved. Copyright © Jeju Munhwa Broadcasting Corp. All rights reserved. OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항로그인 로그인</t>
-  </si>
-  <si>
-    <t>제주도, 추석 맞아 도내 관광사업체 방역수칙 준수 여부 점검 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 11:15 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 제주도, 추석 맞아 도내 관광사업체 방역수칙 준수 여부 점검 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 제주도정 상단-서브1 제주도, 추석 맞아 도내 관광사업체 방역수칙 준수 여부 점검 현대성 기자 승인 2021.09.05 11:46 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도는 추석 연휴 코로나19 확산 방지를 위해 도내 관광사업체 방역수칙 준수 여부를 점검한다고 지난 3일 밝혔다. 제주도는 비대면 위주로 영업하고 있는 여행업과 기타 편의시설업을 점검 대상에 추가하고, 방역지침 홍보화 함께 현장지도에 나설 방침이다. 제주도는 지난해 1월부터 방역수칙 준수 주요시설인 관광호텔 등 숙박시설과 관광사업체를 대상으로 특별 방역 점검 및 방역 물품 지원을 실시해 왔다. 지난 2월부터는 관광협회·관광공사와 함께 민·관 합동 점검체계를 구축, 방역수칙 준수 여부에 대한 현장 점검을 강화하고 있다. 김승배 제주도 관광국장은 "앞으로도 다중이용시설인 관광사업체뿐만 아니라 기타 관광사업장에 대해서도 수시 점검을 벌여 안정 관광 이미지를 구축해 나가겠다"고 말했다. 현대성 기자  cannon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 현대성 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 64일부터 요양시설 접촉면회 재허용 7제주고·제주여상, 전도사격대회 고등부 단체전 정상 8깊어가는 가을, 코스모스 활짝 9기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 10김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+    <t>이재명 "제주도 관광객 1인당 1만원씩 걷겠다"… '입도세' 포퓰리즘</t>
+  </si>
+  <si>
+    <t>유승민, ‘제주도 관광객에 1만원씩’ 이재명 공약에 “서울 기본소득은 서울...</t>
+  </si>
+  <si>
+    <t>제주도의회, '제주관광미래성장 포럼' 제9차 토론회 개최 드론서비스 활용사례...</t>
+  </si>
+  <si>
+    <t>제주도, 여행업.관광숙박업등 15개 업종, 고용유지지원금 30일 추가연장</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 부산국제관광박람회서 최우수 인기부스상</t>
+  </si>
+  <si>
+    <t>제주도, 지속가능 관광 위한 '필환경' 마케팅 전개</t>
+  </si>
+  <si>
+    <t>제주도, 여행업·관광숙박업 등 고용유지지원금 30일 추가 연장 한다.</t>
+  </si>
+  <si>
+    <t>신라免 “면세품 쇼핑·제주도 무착륙 관광 동시 즐기세요”</t>
+  </si>
+  <si>
+    <t>추석 황금연휴 제주도로 떠나는 관광객들</t>
+  </si>
+  <si>
+    <t>제주도, 하반기 제주관광진흥기금 423억원 접수</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 제주도, 코로나19 대응 지원 관광진흥기금 423억원 접수 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 제주도의회 오영희 의원, 우도 문화․관광시설 및 폐교 활성화를 위한 현장 목소리 청취 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 제주도, 하반기 제주관광진흥기금 423억원 접수 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 제주도·제주관광공사, 제주 관광기업 체질 개선 컨설팅 '킥오프' </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 제주도, 제6회 대한민국 국제 관광박람회 인기상 수상 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 관광객은 줄었는데 쓴 돈은 늘었다?…제주도의 속사정 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 제주도, 추석연휴 관광사업장 방역수칙 특별점검 실시 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 제주도 관광객, 코로나19 이전보다 씀씀이 더 커졌다 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 추석 때 관광객 몰려온다?… 제주도, 거리두기 4단계 ‘철벽방어’ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 제주도관광협회, 제주여행 공모전 성황리 종료 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 제주도관광협회, 소외계층 위한 손소독제 제주사회복지협의회에 기탁 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 오라관광단지 사업 변경안 제주도 제출 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 제주도, 추석 맞아 도내 관광사업체 방역수칙 준수 여부 점검 </t>
+  </si>
+  <si>
+    <t>이재명 "제주도 관광객 1인당 1만원씩 걷겠다"… '입도세' 포퓰리즘 | Save Internet 뉴데일리 기사 공유하기 페이스북 트위터 카카오 블로그·카페 밴드 메일 https://www.newdaily.co.kr/site/data/html/2021/09/27/2021092700212.html 주소 복사 주소가 복사되었습니다. 원하는 곳에 붙여넣기 하세요. 검색 TV 경제 정치 사회 글로벌 북한 미디어 문화 연예 피플/인터뷰 포토 뉴스레터 뉴데일리 뉴데일리경제 뉴데일리TV 대구·경북 충청·세종·강원 시장경제신문 브랜드브리프 칸라이언즈 회사소개 광고 및 제휴 Copyright © Newdaily All rights reserved. 이재명 "제주도 관광객 1인당 1만원씩 걷겠다"… '입도세' 포퓰리즘 "일부는 신재생에너지에, 일부는 주민 주겠다"… 경선 앞두고 '제주형 기본소득' 꺼내 정치 추천뉴스 대장동 개발사업 언론중재법 논란 뉴데일리 여론조사 건국대통령 이승만 특종 이상무 기자 기자의 다른 기사 보기 입력 2021-09-27 17:10					｜ 수정 2021-09-27 17:59 ▲ 이재명 경기도지사가 27일 오전 제주상공회의소 5층 국제회의장에서 제주 발전 공약 발표 기자회견을 하고 있다. ⓒ뉴시스 더불어민주당 대권주자인 이재명 경기도지사가 환경보전기여금(제주 입도세) 등을 활용한 '제주형 기본소득'을 추진하겠다는 계획을 밝혔다. 이 지사는 27일 제주상공회의소 국제회의장에서 가진 기자회견에서 "제주 환경보전기여금을 적극 검토하고, 환경자원을 통해 얻은 수익을 기반으로 하는 제주형 기본소득 도입을 지원해 도민들의 경제적 기본권을 보장하겠다"고 말했다."(관광객) 1명당 8000원에서 1만원 정도 걷으면 연간 1500억원에서 2000억원가량의 재원이 생긴다"고 계산한 이 지사는 "스위스가 하듯 (환경보전기여금 중) 일부는 신재생에너지나 환경보전에 사용하고, 상당부분은 도민에게 환원할 수 있다"고 제시했다. 그러면서 "스위스는 탄소세를 걷어 35%는 신재생에너지 전환에, 65%는 국민들에게 똑같이 나눠 준다"고 덧붙였다."연간 2000억원가량 재원 생겨"이 지사는 관광객이 제주도에 입도할 때 걷는 돈을 환경보전기여금으로 표현한 것과 관련해 "원래는 입도세라고 표현했는데, 통행료를 뜯는 느낌, 갈취 느낌이 나서 환경보전기여금이라고 포지티브하게 이름을 다시 만들었다"고 설명했다.제주형 기본소득은 이미 이 지사가 밝힌 전 국민 대상 기본소득과는 별개로 추진할 것이라고 이 지사는 설명했다. "전 국민 기본소득은 중앙정부 차원에서 하고, 제주는 제주가 가지고 있는 공유자산을 기본소득으로 만들겠다는 것을 지원하겠다는 뜻"이라는 설명이다. 제주도 외부 관광객으로부터 세금을 징수하는 방안은 2013년 한국법제연구원이 '제주 세계환경수도 조성 지원특별법 연구용역'을 통해 처음 제안했다. 그러나 8년이 지난 현재까지도 관련 논의는 지지부진하다. 타지역과의 형평성, 관광객 수요가 떨어질 것으로 예상되는 관광업계의 반발 등 부작용이 만만치 않기 때문이다.제주관광협회 집계에 따르면, 올 상반기 제주도에 입도한 관광객은 551만3290명이다. 지난해 관광객은 1023만678명이다. 코로나19 사태가 불거지기 전인 2019년에는 1528만6136명, 2018년에는 1431만3961명이었다. "4·3 해결 위한 국가 지원 대폭 확대"이 지사는 또 이날 회견에서 "저는 4·3을 완전히 해결하기 위한 국가 지원을 대폭 확대하겠다"며 "희생자에 대한 치유와 제주공동체 회복을 지원하고 행방불명인의 유해 발굴과 명예회복에 적극 나서겠다"고 약속했다."국가폭력에는 공소시효가 없어야 한다"고 강조한 이 지사는 "정부가 주도해 제주 4·3을 평화와 인권의 상징이자 과거사 해결의 모범으로 만들겠다"고 자신했다.민주당 제주 지역 경선은 다음달 1일로 예정됐다. 이어 △2일 부산·울산·경남 △3일 인천 △9일 경기 △10일 서울을 돌면 전국 순회가 끝난다. 현재까지 이 지사의 누적 득표율은 53.01%로 1위를 기록 중이다. 남은 경선에서도 대세론을 이어가겠다는 것이 이 지사 캠프의 전략이다. 이상무 기자 kaede@newdailybiz.co.kr 기자의 다른 기사 보기 보도자료 및 기사제보 press@newdaily.co.kr [자유민주·시장경제의 파수꾼 – 뉴데일리 newdaily.co.kr] Copyrights ⓒ 2005 뉴데일리뉴스 - 무단전재, 재배포 금지 뉴데일리 댓글 운영정책 라이브리 댓글 작성을 위해 Javascript를 활성화 해주세요. 뉴데일리 경제 기준금리 3%시대 온다… 빅스텝 D-1 집 팔아도 빚 못 값는다… '고위험 가구' 부채 69조4000억원 'GTX-B' 급발진한 국토부… 계약방식 '패싱'당한 철도공단 '씁쓸' TSMC에 1위 내준 삼성… 반도체 승부수 '파운드리' '쌍둥이 적자' 위기 증폭…재정 -86.8兆·경상 -30.5억불 르노코리아, 빠른 출고·XM3 하이브리드로 '반격' 대전·충청·세종 충청권서 가을 축제 풍성…청원생명축제 60만명 '돌파' [충청날씨] 비 동반 강한바람·초겨울 날씨…“외출시 외투 입어야” 계룡軍문화엑스포, 9·10일 의장대·헬기탑승 등 행사 ‘풍성’ 충청권 9일 1028명 확진 코로나 큰 폭 ‘감소’…독감 ‘환자↑’ [충청브리핑] 하루 100도 안 타는 KTX 공주역…“정치적 결정 탓” 메인페이지가 로드됩니다. 추천뉴스 尹 "전술핵 보유, 입장 밝힐 문제 아니다… 여러 의견 경청하고 있다" 文 "직접 챙기겠다"던 새만금…풍력 이어 태양광도 중국 기업이 장악 문재인 전 대통령이 직접 챙기겠다고 강조한 '새만금 육상 태양광 발전' 사업권을 중국계 기업이 상당 부분 장악하고 있던 것으로 11일 확인됐다.박수영 국민의힘 의원이 한국중부발전으로부터 제출받은 자료에 따르면, 중부발전은 문재인정부 들어서 10개의 태양광 발전 사업에 .. 대통령실, 野 '반일 프레임' 겨냥 "한반도·동북아 안보 현실 인식하고 대비해야" 北, 전투기 150대 띄워 무력 시위… 군, F-35A 대응 비행 전술핵부대 훈련 지도한 김정은 "적과 대화 필요 無… 핵무력이 전쟁억제" 핫이슈[단독]서울시, 태양광시설 설치에 혈세 1300억원 투입… 文정부 5년간, 박근혜정부 4배 예산 문재인정부 5년간(2017~2021년) 서울시 공공·민간 시설에 태양광시설 설치를 위해 약 1300억원 이상의 예산을 투입한 것으로 드러났다. 실제 집행된 예산도 890억원으로 박근혜정부 서울시 때보다 4배 가까이 증가한 것으로 10일 확인됐다.박원순 전 서울시장 시절.. 尹 지지율 32%… 1주 만에 0.8%↑ 소폭 반등 김의겸 "한동훈 美 출장, 이재명 대북코인 수사 목적"… 韓 "내부고발 하나" 尹 "청년들에 현금 그냥 쥐여줄 게 아니라 자산 형성 도와야" 尹, 민주평통 수석부의장에 'TK 신망' 김관용 임명 문체부 장관 갔다면 2500만원 들었을 텐데…영부인 끼면서 예산 15배 증가 지난 2018년 문재인 전 대통령의 부인 김정숙 여사가 인도를 방문한 것이 최근 논란이 되고 있다. 이런 가운데 당시 인도 측의  당초 요청대로 '문화체육관광부 장관'을 대표로 했다면 2600만원 가량 소요될 출장 예산이 '영부인'을 대표로 하면서 3억4000.. 법무부, 사회적 약자 대상 범죄 수사 예산 증액… 전년比 14.7%↑ 지난 5년 간 中서 실종된 한국인 261명…올 상반기만 29명 공수처 신임 부장 김명석·김선규 취임… "검찰과 협조해야 상호 윈-윈" 검찰, '위례·대장동 분양대행' 이기성씨 참고인 신분 소환 푸틴, 최악 위기 직면했나… "권력과 목숨 잃을 수도" 분석까지 우크라이나 전황이 지금처럼 흘러가면 블라디미르 푸틴 러시아 대통령이 목숨을 잃는 상황까지 갈 수도 있다는 국제문제전문가 분석이 나왔다. 러시아군이 우크라이나 점령지에서 패전을 거듭하면서 푸틴 대통령이 최악의 위기에 내몰렸다는 지적이다.뉴질랜드 전문가 "현 상황 타개 못.. [부고] 이경자 전국학부모단체연합 상임고문 별세…향년 66세 [포토] 답변하는 이복현 금융감독원장 [포토] 역사교육정상화를위한시민연대 출범(전문) [오늘 날씨] 흐리다 차차 맑아져… 아침 최저 4도 미디어비평 "KBS 간부, 1000만원 주고 '대북 코인' 20만개 받아"… KBS노조 폭로 한 대북교류단체가 사실상 북한을 지원하기 위해 발행한 '대북 코인(APP427)' 20만개를 KBS의 고위급 간부가 받은 것으로 확인돼 파문이 일고 있다.7일 배포한 성명에서 이 같은 사실을 폭로한 KBS노동조합(위원장 허성권)은 해당 간부가 코인 발행 단체 측에 10.. 이승만 포럼 [134회]이승만이 대한민국이다 (이주영 건국대 사학과 명예교수) [133회]이승만의 미국 기독교 네트워크와 정치외교활동(유지윤 이승만연구원 박사) 칼럼 류근일 뉴데일리 논설고문 / 전 조선일보 주필 [류근일 칼럼] 권영세의 뚱단지 같은 북한방송 타령 이철영 [이철영 칼럼] &lt;노란봉투법&gt; 만들면 '노동자 세상' 오나? 류근일 뉴데일리 논설고문 / 전 조선일보 주필 [류근일 칼럼] 이재명+문재인+이준석·유승민의 난(亂) 특종 [단독] 협력업체 통장 빌려 수천만원, 유령 연구원 등록해 1억… '새만금 잭팟 교수' 횡령 의혹 [단독]'새만금 7200배' 교수 연구비 횡령 의혹… 대학원생들도 조직적 동원 정황 [단독] 민주당, 7월 "태양광 늘려야" 두 달 뒤… 태양광 피해만 78건 미디어비평 "'김어준 뉴스공장' 공정성·객관성 개선 노력 없어"… 서울시, TBS에 '기관·기관장 경고' 'TBS 간판' 신장식, 대통령에게 "정신과 치료 받으라" 막말 MBC노조 "소수노조 목소리에도 귀 기울여 달라"… 국제기자연맹에 호소 기준금리 3%시대 온다… 빅스텝 D-1 TSMC에 1위 내준 삼성… 반도체 승부수 '파운드리' TSMC, 삼성 꺾고 2조원 차 첫 1위메모리 지고, 파운드리 뜨고… 판도 바뀐 반도체 시장파운드리 급성장… 글로벌 최강 TSMC 따라잡을 '삼성의 전략' 관심 집중 [IT 발품러] 아이폰14 오프라인 매장... 프로·맥스 '품절', 가격 '천차만별’ LG전자, '빌트인·스마트홈' 등 차세대 가전 투자 집중 눈길 LG전자, 고성능 'AI엔진' 탑재 '휘센 상업용 시스템에어컨' 선봬 [국제유가] 中 수요 둔화 영향 '하락'… 'WTI 91.13弗' 르노코리아, 빠른 출고·XM3 하이브리드로 ‘반격’ 올해 4월 기점으로 내수 회복세 보여SM6·XM3 출고 대기기간 1개월에 불과 빠르면 이달 내 XM3 하이브리드 출시 삼성물산-제일모직 합병, "장기적 관점 시너지 기대" LG 임직원 직접 참여한 'LG시도쏭' 영상, 1천만뷰 돌파 [단독] KT&amp;G '릴' 신제품 11월 출시… 아이코스와 정면 승부 11월 초 공식 출시 발표 후 ‘릴 하이브리드’ 신제품 공급3세대 ‘릴 하이브리드’에는 스마트폰 연계 AI기능 탑재11월 출시되는 ‘아이코스 일루마’와 치열한 경쟁 예고 SPC 파리바게뜨, 국가브랜드경쟁력지수 3년 연속 1위 中 의존도 낮추는 아모레… 마몽드 오프라인 매장 철수 어른들의 품절템 '버터맥주' 카스 재쳤다… 매출 2위 등극 케이뱅크, 연내 상장 틀어지나… 카뱅 부진에 동반 속앓이 몸값 기대 10조→4조 곤두박질증시침체에 내년 상장 저울질카뱅 주가 10분의 1토막"기술주 아닌 은행주 인식시켜야" [生生국감] 車사고 분쟁조정 논란… "보험사 추천위원만 가득" 오비맥주 "'카스 0.0', 논알코올 음료 시장 점유율 1위" 세븐일레븐, 업무용 친환경 전기차 110대 추가 보급… ESG경영 실천 심판 앞둔 신라젠…17만 소액주주 눈물 그칠까 한국거래소 시장위, 12일까지 신라젠 상장폐지 여부 결정이르면 11일 상폐 여부 결론…거래재개 시 2년 5개월만신라젠, R&amp;D 역량 확보 등 개선 나서…소액주주 기대감 높아 유안타증권, 미국주식 소수점 거래 서비스 선봬 KB자산운용, 국내 최초 글로벌 원자력 ETF 선봬 韓 빅스텝·美 CPI·실적 부진까지…코스피 변동성 커진다 [生生국감]국세청 성고충전문상담관 '빛좋은 개살구'…비효율 운영 논란 온·오프라인 하나로 연결… GS리테일, 통합앱 '우리동네GS' 출시 코로나도 힘든데 수수료까지… 면세점, 中 보따리상에 4조원 썼다 中, 美 반도체 통제에 '희토류' 수출 규제 만지작 제약·의료·바이오 고대의료원, 자체 시스템 ‘PHIS’ 기반 맞춤형 정밀의료 가속화 국시원, 올해 하반기 간호조무사 국시 합격률 83% [生生국감] 국민연금, 마약 투여로 직위해제 직원 4명에 약 80% 임금 지급 [生生국감] 국민연금, 올 상반기 수익률 –8%… ‘죄악주’ 투자 논란도 전체기사 더보기 송강호·예지원, '에투알 뒤 시네마'상 수상… 한·프 영화 교류 공 '파친코' 김민하, '비욘드시네마상' '라이징스타상' 2관왕 영예 '신화' 신혜성, '도난 차' 음주운전… 음주측정 거부하다 '체포' [뉴데일리TV] 北 미사일, 美 항모 머리 위 넘어가…고도 너무 높아 요격 불가! 시도교육감들, 교육교부금 개편 반대 입장 고수… 정부와 입장차 여전 서울시, 사대문 안에서 '수소 충전' 가능해진다… 7일부터 시범운영 '미녀 골퍼 불륜설'에 불똥 튄 비·조정석‥ "허위사실 유포에 법적 대응" 與 "MBC, 조작 방송" vs 野 "언론 탄압"…국감서 '尹 발언' 공방 '필로폰 투약' 文정부 청와대 행정관, 1심서 징역10월에 집행유예 2년 대학 강사가 교수로 둔갑… '허위광고·불법' 코딩학원 86곳 적발 변호사는 음주운전해도 '경징계'… 변협, 5년간 '영구제명' 단 1건 [뉴데일리TV] 망조 든 러시아, 국민들 대탈출! 명분 없는 전쟁 7개월째, 민심 이반 "나만의 '반려 오브제'를 찾아서"… '크래프트 서울' '약자와의 동행' 서울시, 6개 의약단체와 '보건의료협의체' 구성 檢, '허리디스크' 정경심 형집행정지 4일 재심의 이종배 서울시의원 "MBC, 언론탄압 주장 전에 진실보도가 먼저다" [뉴데일리TV] 북한인권운동 평생 헌신 미국인 "고난의 행군 시절 또 온다" 구속된 돈스파이크, 알고보니 마약 전과 3범 톱스타 몸담았던 前 연예기획사 대표, '프로포폴 불법투약' 혐의 구속 포토뉴스 [포토] 농협 하나로마트 "가성비 뛰어난 '못난이 농산물' 맛보세요" [포토] 컴백한 드림캐쳐 [포토] 매니 파퀴아오·유대경 "12월 스페셜 매치합니다" 회사소개 오시는 길 인재채용 제휴안내 회원약관 저작권안내 이메일 무단수집거부 개인정보처리방침 청소년보호방침(책임자: 국승환) 광고문의 보도자료 : press@newdaily.co.kr 기사제보 제안마당 법인명: 뉴데일리(주) | 제호명: 뉴데일리 | 주소:（100-120） 서울시 중구 남대문로 5가 120 단암빌딩 3층 | 등록번호: 서울 아00115 | 등록일: 2005년 11월 9일 | 발행인: 이성복 · 편집인: 이진광 대표전화: 02-6919-7000 | 정치·사회 편집국: 02-6919-7002 | 경제 편집국: 02-6919-7003 | 광고국: 02-6919-7012 | 팩스: 02-702-2079 Copyright © Newdaily All rights reserved.</t>
+  </si>
+  <si>
+    <t>유승민, ‘제주도 관광객에 1만원씩’ 이재명 공약에 “서울 기본소득은 서울역서 거두나” | 세계일보 스포츠월드 세계비즈 세계로컬타임즈 종교신문 구독신청 mPaper RSS 로그인 회원가입 로그아웃 회원정보수정 회원탈퇴 세계일보 페이스북 네이버 포스트 트위터 유튜브 스포츠 선학평화상 환경 드론 전체메뉴 검색 뉴스 정치 일반 청와대 국회ㆍ정당 선거ㆍ선관위 외교ㆍ안보 국방 북한ㆍ통일 사회 일반 검찰·법원 노동·복지 환경·날씨 교통·항공 교육·학교 사건 해외 국제 일반 미국·캐나다 중국 일본 아태 유럽 중동·아프리카 특파원 러시아 중남미 문화 일반 미디어 종교·학술 공연 미술 건강 레저 문학 음식 위크엔드 패션·뷰티 결혼·육아 전국 일반 서울 경기 강원 충청 영남 호남 제주 피플 일반 부음 동정·인사 인터뷰 오피니언 사설 오늘의 칼럼 기자·데스크 논설위원칼럼 전문가칼럼 외부칼럼 기고·독자 월드 이슈 비즈 일반 금융·증권 보험 재테크 부동산 IT / 과학 산업·기업 자동차 쇼핑·유통 취업·창업 연예 일반 스타 TV·방송 영화 대중음악 해외연예 스포츠 일반 야구 축구 농구 배구 골프 포토/영상 핫갤러리 렌즈로보는세상 포토에세이 영상 부가서비스 환경 드론 inno북스 오늘의 운세 해커스톡 파고다 강남 시사일본어 시사중국어 mPaper RSS 뉴스 정치 일반 청와대 국회ㆍ정당 선거ㆍ선관위 외교ㆍ안보 국방 북한ㆍ통일 사회 일반 검찰·법원 노동·복지 환경·날씨 교통·항공 교육·학교 사건 해외 국제 일반 미국·캐나다 중국 일본 아태 유럽 중동·아프리카 특파원 러시아 중남미 문화 일반 미디어 종교·학술 공연 미술 건강 레저 문학 음식 위크엔드 패션·뷰티 결혼·육아 전국 일반 서울 경기 강원 충청 영남 호남 제주 피플 일반 부음 동정·인사 인터뷰 오피니언 사설 오늘의 칼럼 기자·데스크 논설위원칼럼 전문가칼럼 외부칼럼 기고·독자 월드 이슈 비즈 일반 금융·증권 보험 재테크 부동산 IT / 과학 산업 자동차 쇼핑·유통 취업·창업 연예 일반 스타 TV·방송 영화 대중음악 해외연예 스포츠 일반 야구 축구 농구 배구 골프 포토/영상 핫갤러리 렌즈로보는세상 포토에세이 영상 부가서비스 환경 드론 inno북스 오늘의 운세 해커스톡 파고다 강남 시사일본어 시사중국어 mPaper RSS 유승민, ‘제주도 관광객에 1만원씩’ 이재명 공약에 “서울 기본소득은 서울역서 거두나” 입력 : 2021-09-29 11:05:00 수정 : 2021-09-29 11:02:35 인쇄 메일 글씨 크기 선택 가장 작은 크기 글자 한 단계 작은 크기 글자 기본 크기 글자 한 단계 큰 크기 글자 가장 큰 크기 글자 “이번엔 ‘통행세’냐” 이재명 제주도민 기본소득 재원마련 공약 비판 국민의힘 유승민 대선 경선 후보(왼쪽), 더불어민주당 이재명 대선 경선 후보. 연합뉴스 국민의힘 대권주자인 유승민 전 의원은 이재명 더불어민주당 대선경선 후보가 공약으로 제시한 제주도민 기본소득 재원마련 방안을 두고 “황당하다”고 28일 비판했다. 유 전 의원은 이날 페이스북에 이 지사를 겨냥해 “기본소득 재원 마련을 두고 말도 안 되는 국토보유세 운운하더니, 이번에는 ‘통행세’냐”라며 “해외에 나가는 것도 아니고 같은 대한민국 안에서 뭐하자는 거냐”고 꼬집었다. 그는 “이재명 지사가 제주도를 방문하는 관광객들에게 1만원씩 거둬서 제주 기본소득으로 활용하겠다는 황당한 공약을 발표했다”며 “그러면 서울시민 기본소득은 서울 톨게이트나 서울역에서 1만원을 거두고 전국 광역시도마다 톨게이트나 역에서 1만원씩 징수해서 기본소득 재원 마련해야 하는 거냐”고 반문했다. 이어 “표를 얻기 위해서라면 뭐든 하는 ‘이재명’ 포퓰리즘의 끝은 어디냐”며 “내부에서조차 반대하는 기본소득, 퍼주기는 하고 싶은데 재원은 없고. 그냥 포기하면 깔끔하다”고 날을 세웠다. 앞서 이 지사는 지난 27일 제주상공회의소 국제회의장에서 기자회견 열고 “제주 환경보전기여금 도입을 적극 검토하겠다”고 밝혔다. 제주도를 찾는 관광객 1인당 8000~1만원의 입도세 개념인 환경보전기여금을 걷어 연간 1500억~2000억원가량 재원이 생기면 그중 일부를 제주도민을 위한 기본소득을 위해 활용하겠다는 공약이다. 이 지사는 “스위스가 하듯 (환경보전기여금의) 일부는 신재생에너지나 환경보전에 사용하고, 상당 부분은 도민에게 환원할 수 있다”고 설명했다. 정은나리 기자 jenr38@segye.com [ⓒ 세계일보 &amp; Segye.com, 무단전재 및 재배포 금지] 20210929505578 0101010100000 0 2021-09-29 11:5:0 2021-09-29 11:2:35 0 유승민, ‘제주도 관광객에 1만원씩’ 이재명 공약에 “서울 기본소득은 서울역서 거두나” Cube 정은나리 4ebcac8f-dbba-45d5-9fd3-05733df2e878 jenr38@segye.com 오피니언 [설왕설래] 개운치 않은 불꽃축제 9일 오전 한 지인이 보낸 SNS(사회관계망서비스)에 입을 다물지 못했다. 형형색색 불꽃 사진에 탄성이 절로 나왔다. 실제 현장에서의 감동은 어떨까 싶었다. 전날 불꽃놀이를 보러 남산으로 향한다는 한 후배는 “세계일보가 명당자리인데 아이들 데리고 구경 가지 않느냐”고 묻기까지 했다. 회사에서는 이미 직원 가족들과 지인들을 위한 초청행사를 성대히 준비했다. [박완규칼럼] 위기관리 컨트롤타워 바로 세워야 윤석열정부가 출범한 지 5개월이 지났다. ‘국익과 실용’, ‘공정과 상식’을 국정운영 원칙으로 내세웠지만 나라를 어떻게 이끌어나갈지에 대한 구체적인 청사진을 내놓지 않았다. 국정이 나아갈 방향을 가늠하기 어려울 정도다. 이런 상황에서 외교안보와 경제 등에 어두운 그림자가 짙게 드리워져 있다. 국가적 위기감은 날로 커진다. 어느 틈에 위기관리가 최우선 국정 [기자가만난세상] 런던의 ‘인종적 중국인’ 필자는 1년간 영국 런던에서 대학원 과정을 마치고 최근 복귀했다. ‘민주주의에서의 정치 커뮤니케이션’ 수업의 공공외교 분야 세미나 중 중국 친구와 홍콩 친구 사이 벌어진 논쟁이 잊혀지지 않는다. 백신 개발국들이 타국에 백신을 공급·기부하면서 ‘연성권력(soft power)’을 구축하는 행위에 대한 토론을 하던 중이었다. 홍콩 친구가 라틴아메리카와 동남아 지 [김중백의자유롭게세상보기] 포용적 다양성이 필요한 우리 정치 필자가 속한 대학에서 최근 신임교수 환영 간담회가 열렸다. 신종 코로나바이러스 감염증(코로나19)이 전 세계를 강타한 이후 신임교수들은 최근까지 면접부터 오리엔테이션, 그리고 교수회의 등을 온라인으로만 진행해야 했다. 그러다 보니 새롭게 부임한 학교에 소속감도 느끼기 어려웠고 교수 간 지적 교류에 한계를 절감했다. 이런 아쉬움을 떨어내고자 새로 부임하는 교 HOT뉴스 1 "바위야 호박이야?" 1.1t 넘는 초대형 호박 수확 2 23층 지붕 위 기인…양복 입고 활보, 왜? 3 머스크, 440억달러에 트위터 인수…계약파기 철회 4 허리케인 '이언' 지나간 자리 처참…최소 108명 사망 5 에펠탑 아래 숲, 하마터면 사라질뻔∼ 포토 회사소개 지면광고 온라인광고 전광판 광고 사업제휴 독자인권위원회 및 고충처리 정정보도신청 개인정보취급방침 청소년보호정책 이용자약관 디지털뉴스이용규칙 고객센터 제호 : 세계일보 서울특별시 용산구 서빙고로 17 등록번호 : 서울, 아03959 등록일(발행일) : 2015년 11월 2일 발행인 : 정희택 편집인 : 황정미 전화번호 : 02-2000-1234 청소년보호 책임자 : 박광재 Copyright ⓒ 세계일보 All rights reserved. 문화사업 세계농업기술상 세계문학상 신춘문예 음악콩쿠르 글로벌미디어 Washington Times Tiempos Del Mundo 일본 세계일보</t>
+  </si>
+  <si>
+    <t>제주도의회, '제주관광미래성장 포럼' 제9차 토론회 개최 드론서비스 활용사례와 향후 전망 주메뉴 바로가기 본문 바로가기 2022.10.10 (월) 카카오채널 RSS 모바일보기 구름많음서울 10.1℃ 구름많음제주 17.0℃ 구름조금고산 16.6℃ 흐림성산 16.1℃ 구름조금서귀포 15.7℃ 기상청 제공 기사제보 기사문의 회원가입 로그인 Korean English 中文 日本語 tiếng Việt Idioma español ру́сский язы́к 메뉴 전체기사 정치 경제 사회 교육 복지 라이프 문화·행사 오피니언 기고 만평 기사검색 검색어를 입력해주세요 검색하기 검색창 열기 닫기 전체기사 정치 경제 사회 교육 복지 라이프 문화·행사 오피니언 기고 만평 정치 홈 정치 제주도의회, '제주관광미래성장 포럼' 제9차 토론회 개최 드론서비스 활용사례와 향후 전망 서유주 기자 news@jejutwn.com 등록 2021.09.29 10:36:59 URL복사 목록 메일 프린트 스크랩 글씨크기 크게 글씨크기 작게 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 10월1일 오후2시, 제주특별자치도의회 소회의실 [제주교통복지신문 서유주 기자] 제주관광미래성장포럼 대표 오영희의원(국민의힘, 비례)은 10월 1일 오후 2시 제주도의회 의사당 1층 소회의실에서 제주관광미래성장포럼 9차 토론회를 개최한다고 밝혔다. 오영희 대표는“「드론서비스 활용사례와 향후 전망」이라는 주제로 9차 정책토론회를 통해 ‘드론관광의 새로운 길을 모색’하는 자리를 갖게 됐다. 제주의 경우 고층빌딩이나 밀집도가 높지 않은 점이 드론을 통한 다양한 서비스가 가능하다는 장점을 가지고 있으며, 관광객을 위한 레저, 관광지와 융합한 연계서비스 등의 새로운 독자 모델 개발 또한 무궁무진하다고 보여진다. 이러한 제주의 경쟁력을 강화시켜 나갈 수 있는 블루오션의 영역이라는 점도 드론산업의 향후 전망을 밝게 하는 점이다”라고 말했다. 또한 “ 위드코로나시대에 성공적인 드론 비즈니스 모델의 조건으로는 제주가 최적의 적합지임을 강조하면서, 금번 정책 토론회를 통해 관광분야의 새로운 패러다임 전환의 계기가 되었으면 하는 바람이다”라고 했다. 이날 한국항공대학교 장윤석 교수가 ‘드론서비스 활용사례와 향후 전망’으로 발표한다. 좌장은 (사)제주관광문화산업진흥원 김형길 원장이다. 이어서 제주대학교 강기춘 교수, 유니텍코리아 김홍규 대표, 제주대학교 홍성화 교수, 제주도 관광정책과 정순 팀장, 제주도 디지털융합과 박찬혁 팀장이 토론자로 나선다. 제주관광미래성장포럼은 오영희 대표(국민의힘, 비례)를 비롯해 양병우 부대표(무소속, 대정읍), 고태순(더불어민주당, 아라동), 강연호(국민의힘, 표선면), 김창식(교육위, 제주시 서부), 이경용(국민의힘, 서홍·대륜동), 한영진(민생당, 비례) 7명이 활동하고 있다. 서유주 기자 의 전체기사 보기 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 네이버카페 밴드 Copyright @2015 제주교통복지신문 Corp. All rights reserved. 랭킹뉴스 1 제주 서귀포 친환경 주거타운 ‘제주 레브카운티’, 대자연 풍경과 개발 수혜로 관심 2 제주 오션갤러리, 시행사 보유분 특별분양 3 연예인 입주로 화제…‘한일 베라체 인비디아’ 눈길 4 제주시 동부보건소, 청소년 대상 코로나우울·스마트폰 중독 예방 홍보관 운영 5 서귀포시, 코로나19 취약(소농) 전업농가 영농경영비 신청기간 연장 6 제주음협, 오는 22일 '창착오페라 「홍윤애」 하이라이트' 선보인다 7 제주시 서부보건소, 코로나 넘어 건강한 일상으로!『고고당 잡게 오몽하게 마씸』 8 서귀포시, 동절기 코로나19 추가접종 10월 11일부터 참여 가능 9 서귀포시, 2023년 FTA기금 감귤생산시설 현대화사업 신청·접수 10 제주특별자치도, 11일부터 코로나19 2가백신 동절기 추가접종 시작 실시간 뉴스 2022-10-07_FRI 창작오페라 「홍윤애」 제작발표회 19:15 제주특별자치도, 도심항공교통 상용화 시험대... 자율비행 드론 이용해 피자 배달 16:31 [TW포토] 제61회 탐라문화제 산지천 주변, 산지천갤러리 15:26 제주특별자치도의회, 참신한 정책 도민과 함께 만들어 갑니다 15:20 제주특별자치도, 40년만의 미국 인플레이션 살피는 까닭? 15:18 신문사소개 윤리강령 찾아오시는 길 개인정보처리방침 청소년보호정책 (책임자 : 이청) 이메일 무단수집거부 기사제보 문의하기 제주특별자치도 제주시 신대로7길 20, 301호 (연동, 새롬빌라) | 대표전화 : 010-8675-4517 발행인 : 이문호 | 편집인 : 이청 | 등록번호 : 제주, 아01068 | 등록일 : 2016.10.11 | 이메일 : news@jejutwn.com 제주교통복지신문의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2021 제주교통복지신문. All rights reserved. 최종편집일: 2022년 10월 10일 00시 34분 최상단으로</t>
+  </si>
+  <si>
+    <t>제주도, 여행업.관광숙박업등 15개 업종, 고용유지지원금 30일 추가연장 - 전국 &gt; 기사 - 더팩트 HOME &gt; NEWS &gt; 전국 &gt; 제주 제주도, 여행업.관광숙박업등 15개 업종, 고용유지지원금 30일 추가연장 입력: 2021.09.24 10:51 / 수정: 2021.09.26 13:54 고용노동부가 여행업·관광숙박업 등 15개 특별고용지원 업종의 유급 고용유지지원금 지원기간을 현행 270일에서 300일로 연장했다. 제주도청사 전경 /제주도 제공제주도청 여행업.관광숙박업등 15개 업종, 고용유지지원금 30일 추가연장[더팩트｜제주=문형필 기자]제주특별자치도는 고용노동부에서 여행업·관광숙박업 등 15개 특별고용지원 업종의 유급 고용유지지원금 지원기간을 현행 270일에서 30일 추가하는 연장(안)이 결정됐다고 24일 밝혔다.이에 따라 특별고용지원 업종은 유급 휴업·휴직수당의 2/3에서 9/10 수준으로, 1일 상한액이 6만 6,000원에서 7만원(우선지원대상기업)으로 상향된 지원 수준 및 지원한도로 지원받을 수 있게 됐다.특별고용지원 업종은 15개로 조선업, 여행업, 관광숙박업, 관광운송업, 공연업, 항공기취급업, 면세점, 전시･국제회의업, 공항버스, 영화업, 수련시설, 유원시설, 외국인전용카지노, 항공기부품제조업, 노선버스등이다.고용유지지원금은 경영이 일시적으로 악화되어 고용위기를 겪고 있는 사업주가 근로자 해고 등 구조조정 대신 휴업, 휴직을 실시하고 휴업수당을 지급한 경우 근로자에게 지급한 인건비의 최대 90%까지 지원해주는 제도다. 특히 특별고용지원 업종의 경우 유급 고용유지지원금 지원이 종료되더라도 무급휴업·휴직지원금 지원도 가능하다.제주도는 코로나19에 장기화에 따른 관광객 감소 등으로 지난해 고용유지지원금 신청업종이 관광 분야가 33.2%나 차지하는 만큼, 고용불안 해소를 위해 올 12월 말까지 추가 연장해 줄 것을 고용노동부에 지속적으로 건의해 왔다. 지난해 총 신청건수 7190건 중 관광분야인 여행사, 호텔업ㆍ휴양콘도, 전세버스ㆍ항공여객운송 등 2392건으로 33.2%나 됐다특별고용지원 업종의 고용유지지원금 지원기간 연장에 대한 구체적 내용은 9월 말까지 고용노동부의 특별고용지원 업종 지정 고시 개정으로 확정될 예정이다.최명동 도 일자리경제통상국장은 "코로나19로 영업 손실이 큰 관광 분야 특별고용지원 업종에 대한 고용유지지원금 지원기간 추가 연장이 도내 고용위기 극복과 지역경기 회복에 도움이 되길 바란다"고 말했다.hyejun@tf.co.kr 발로 뛰는 &lt;더팩트&gt;는 24시간 여러분의 제보를 기다립니다. ▶카카오톡: '더팩트제보' 검색 ▶이메일: jebo@tf.co.kr ▶뉴스 홈페이지: http://talk.tf.co.kr/bbs/report/write - 네이버 메인 더팩트 구독하고 [특종보자▶] - 그곳이 알고싶냐? [영상보기▶] AD 인기기사 실시간 TOP10 정치 경제 사회 연예</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 부산국제관광박람회서 최우수 인기부스상 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 15℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV 경찰, 대전 현대 아웃렛 참사 관련 현대백화점그룹 본사 압색 [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주도관광협회, 부산국제관광박람회서 최우수 인기부스상 등록 2021.09.23 11:04:37 작게 크게 ⓒ제주도관광협회 *재판매 및 DB 금지 [제주=뉴시스] 양영전 기자 = 제주도와 제주도관광협회는 부산 벡스코에서 개최된 2021 부산국제관광박람회에 참가해 ‘최우수 인기부스상’을 수상했다고 23일 밝혔다. 이번 수상의 영예를 안은 제주관광홍보관에선 최근 코로나19 백신 접종 확대와 위드코로나 전환 기대감에 따라 안전, 힐링 등에 초점을 맞춰 제주여행 테마를 선보였다. 또 영남권 제주 뱃길 거점지역인 부산과 사천을 중심으로 뱃길 인프라를 소개하고, UN기후변화협약 당사국총회(COP28) 제주 유치 서명 운동을 전개했다. 아울러 ‘탄소 없는 제주’ 이미지 홍보를 위한 바람개비 만들기 체험 이벤트 등을 운영해 관람객의 호응을 얻었다. 제주도관광협회 관계자는 “앞으로 내나라여행박람회 등 권역별 주요 관광 박람회와 지역축제 등에 참가해 잠재 관광객 유치를 위한 제주관광 홍보를 지속해서 해나갈 예정이다”고 밝혔다. ◎공감언론 뉴시스 0jeoni@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 피플인사이드 "화려한 무대 밖에선 저도 불안한 사람" 싱어송라이터 앤 마리 "BTS의 협업 제안?&amp;nbsp처음엔 못 믿었다" 라우브 뉴시스 PIC 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 '문자 논란' 유병호 "송구스럽다… 소통은 정상적인 것" 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 윤석열 대통령 출근길 문답 "북한, 핵으로 얻을 수 있는 것 없어" 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 고우석, 바람의 가문에 장가 간다…이종범 딸과 결혼 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 오늘의 헤드라인 "'학업성취도 평가' 5년만에 부활  기초학력 수준 정밀하게 가린다 5년 전 폐지됐던 학력 전수평가가 사실상 부활한다.기초학력 미달 학생이 늘어나는 현실을 타개하기 위한 고육책이다. 교육부는 11일 국무회의에서 제1차 기초학력 보장 종합계획을 보고했다고 밝혔다. 이번 계획은 올해 시행된 기초학력보장법에 따른 첫 종합 방안으로, 국가가 모든 학생의 기초학력을 보장해야 한다는 법적 책임을 담보하기 위해 마련됐 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 대전 아웃렛 화재 관련 현대百 본사 압수수색 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "코레일 운영 수도권 역사 절반이 외주…악순환 반복 "소상공인 과태료 최대 70% 감면 추진…법령 정비 "러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'YTN 최대 주주' 한전KDN 사장, 與의 지분 매각 요구에 "하겠다" 3'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 4尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 5尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3우크라전 229일, 러 키이우 등 전역 미사일 공습…최소 111명 사상(종합) 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5코스피, 1.78% 하락한 2193.02 출발 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 33분기 국내 주식시장 시총 630조 증발…카카오 '반토막' 4국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 5①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 3연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" 두산 베어스가 11일 올 시즌을 끝으로 계약 기간이 만료되는 김태형 감독과 재계약을 하지 않기로 결정했다고 밝혔다. 김 감독은 2015시즌부터 두산 베어스의 지휘봉을 잡아 2022시즌까지 정규시즌에서 645승 19무 485패를 거뒀다. 또한 2015년부터 2021년까지 7년 연속 한국시리즈 진출에 성공했고, 세 차례 한국시리즈 우승을 이끌었다. 두산 베어스 관계자는 "구단 전성기를 이끌어준 김태형 감독의 노고에 감사드린다. 팀의 장기적인 방향성 등을 고려해 이같은 결정을 했다"고 말했다. 두산은 마무리 훈련과 내 2이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 3'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 4진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 김해서부문화센터, '와야G 율하 가든파티' 개최 '오송역→청주오송역' 이번엔 바뀌나?…주민의견 적극 수렴 美 래퍼 더 게임, 국내 공연 앞두고 일방적 불참 통보 지어소프트, 8회차 CB 전환가액 하향 조정 英정보기관 수장 "러시아인들 푸틴 우크라 침공 비용 각성 시작" 금감원, 금융사 직원에 '프리패스 출입증' 발급 경북대병원 제왕절개, 강원대병원보다 100만원 이상 비싸 권익현 군수, '세계로 웅비하는 부안 대도식 비약' 최선 "다음에 또 만나요" 괴산군, 외국인 계절근로자 환송 [부고]박찬수(한국거래소 파생상품시장본부 상무)씨 부친상 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 금감원, 금융사 직원에 '프리패스 출입증' 발급 경북대병원 제왕절개, 강원대병원보다 100만원 이상 비싸 野 "대통령실 새 진입로? 尹, 도어스테핑 피하려는 꼼수" 구인모 거창군수 "더 큰 거창 힘찬도약 다짐" 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 민주당 광주시당, 10개 상설위 위원장 공모 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 박지원, 강대강 대치 여·야에 "북핵실험 5일 남아…이럴 때 아냐" "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" '초등 임용합격→발령' 광주 4.8개월·전남 4.6개월…서울 15.6개월 전재수 의원, 행정안전부 특별교부세 9억원 확보 英정보기관 수장 "러시아인들 푸틴 우크라 침공 비용 각성 시작" 러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 中, 대만 국경일에도 무력시위…臺국방부장 "中 도발" 9월 중국 승용차 판매량 194만대...전년비 21%↑ 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 우크라 외무 "푸틴, 우크라에 보복 테러…영토 수복 작전 계속"(종합) 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 금호석유화학 주가, '나홀로 질주' 비결은 금감원, 금융사 직원에 '프리패스 출입증' 발급 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 9월 중국 승용차 판매량 194만대...전년비 21%↑ 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 올해 태풍에 침수차 2만대…중고차 환불 특약사항 필수 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 지어소프트, 8회차 CB 전환가액 하향 조정 금감원, 금융사 직원에 '프리패스 출입증' 발급 브이원텍, LG전자와 33억 규모 공급계약 체결 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 에스엠, 12~13일 기업설명회 신한투자증권, 해외주식 실전투자대회 개최 현대카드, 인플루언서 대상 '인플카 현대카드' 출시 보험업계, 최근 10년 새 PF대출 10배 증가 한창, 2차전지 장비업체 셀틱 조건부 투자계약 체결 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 국내외 식품안전정보, 조건 제약 없이 검색한다 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 TSMC, 삼성전자 제치고 반도체 매출 '세계 1위' 오른다 롯데제과, 빵빠레 샌드 카스타드 아이스크림 전량 회수 인쇄·복사·스캔 한번에…한국엡손, 스마트 복합기 3종 출시 김대중컨벤션센터서 광주식품대전 개막…13~16일 한화디펜스 첨단 다목적무인차량, 美육군 성능시연 참가 롯데케미칼, 일진머티리얼즈 인수…2.7조원 본계약 체결 토요타 후원 소외계층 오케스트라 연주회 개최 선생님들의 교수법 토론의 장…구몬 '학습연구대회' 성료 "ESG 리스크, 인권·안전 등 이슈 대응에 달려" 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 국내외 식품안전정보, 조건 제약 없이 검색한다 카카오게임즈, '가디언 테일즈' 주제 오케스트라 예매 오픈 파수, 문서관리 플랫폼 ‘랩소디’에 저장소 통제 기능 추가 "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" 美 애브포인트, 에센셜 인수…韓 SaaS 시장 본격 진출 롤러코스터 탔다가 911 부재중전화 왜?…"아이폰14가 구조요청 보내" 팬데믹 기간 전세계 '수면 질' 감소…韓 수면시간 늘었지만 평균 이하 박원재 부원장 "NIA, 지능정보시대 도약 견인차 역할" 경북도, '포스텍 연구중심 의대 설립' 박차… 바이오·의료산업 전문인력 양성 울산대·KAIST, 친환경 초고내구성 아연-공기전지 개발 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" '오송역→청주오송역' 이번엔 바뀌나?…주민의견 적극 수렴 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 국내외 식품안전정보, 조건 제약 없이 검색한다 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 노상방뇨 지적한 노인 무차별 폭행한 50대 실형 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 연세대 K-NIBRT사업단, 싸이티바 코리아와 인력양성 등 업무협약 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 경남도교육청, 9급 건축직 경력자 15명 뽑는다 '한동훈 어록집' 출판사 "韓 장관, 말만 하면 확대 재생산...조회수 등 신드롬" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 의정부 행복로서 14일 뷰티 페스티벌 열린다 [포천소식] 시, 신재생에너지 융복합지원사업 공모 선정 등 파주시, 12월까지 긴급복지지원제도 확대 지원 고양시, 일산문화공원→'일산문화광장'으로 명칭 변경 ‘인천항 스마트 오토밸리 조성사업’ 운영사업자 선정 재공모 추진 이동환 고양시장 "국토부 1기 신도시 정비사업 로드맵 환영" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" [화성소식] 시, U-만성질환관리센터 무료 심전도검사 등 진행 등 돌아온 마포나루 새우젓축제…"김장·콘서트 즐겨요" "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 화성 반려문화 축제 15일 개최…시민 참여·체험형으로 김해서부문화센터, '와야G 율하 가든파티' 개최 '오송역→청주오송역' 이번엔 바뀌나?…주민의견 적극 수렴 경북대병원 제왕절개, 강원대병원보다 100만원 이상 비싸 "다음에 또 만나요" 괴산군, 외국인 계절근로자 환송 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 제9대 대구시의회 개원 100일…"선진 정책 의회 지향" 민주당 광주시당, 10개 상설위 위원장 공모 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 '행사 취소에 환불 않고 추가입장'…세계군문화엑스포 '물의' 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 해남군, 농식품부 '가루쌀 교육·컨설팅사업' 5개소 선정…전국 최다 창원대학교, 지역과 함께 '대동제' 12~13일 연다 "수계식·다비식때 왜 사진기 들이대냐 핀잔 들었는데...지금은 보물" 마산국화축제장에 국내 최장 200m 국화터널 만든다 3년 만에 돌아온 부산자갈치축제…13일 개막 2022경기국제웹툰페어 폐막, 관람객 2만2795명 방문 수원시 선정 아름다운 가을명소…광교산 수변 산책로 등 10곳 소개 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 김주형은 될성부른 나무…한국 무대서도 최연소 기록 KPGA 김한별, 골프채 부러뜨리고 캐디에 폭언…상벌위 회부 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 김승기 캐롯 감독, 가입비 미납에 "제가 말씀드릴 입장 아니다" 두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" [백보드]허웅 vs 두경민 등 새 시즌 라이벌 열전 "따라올 테면 따라와 봐"…프로농구 10개 구단 감독 출사표 '2년차' 스트라이더, 애틀랜타와 최대 7년 1320억원 계약 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" 美 래퍼 더 게임, 국내 공연 앞두고 일방적 불참 통보 조성하 "결혼할 때 쥐뿔도 없었다…母도 말려" 클라씨, 컴백 카운트다운…'데이 앤드 나이트' 일정 공개 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 케플러, 첫 팬미팅 성료..."더 많이 못해줘서 미안" 이지현, 이혼소송 두번으로 보낸 30대…"부모님께 나는 죄인" 박시은♥진태현, 아픔 딛고 일터 복귀…"오랜만에 광고 촬영" '진검승부' 도경수·김상호, 본격 라면 독대…아웅다웅 케미 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석(종합) '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 6울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 김진부 경남도의회 의장 "행정통합 공감하나 실현 힘들 것" 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 세상에 이런 일이 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>제주도, 지속가능 관광 위한 '필환경' 마케팅 전개 &lt; 관광/항공 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-11 (화) 14:38 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제주도, 지속가능 관광 위한 '필환경' 마케팅 전개 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 관광/항공 제주도, 지속가능 관광 위한 '필환경' 마케팅 전개 기자명 김봉철 기자 입력 2021.09.22 18:59 수정 2021.09.23 18:10 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도는 지속 가능한 관광을 위해 환경적 책임을 강화하는 '필(必)환경' 마케팅을 전개한다고 밝혔다. '필(必)환경'은 '반드시 필(必)'과 '환경'의 합성어로, 필수로 환경을 생각해야 한다는 뜻을 담고 있다. 도는 환경보호가 선택이 아닌 필수가 된 상황을 반영해 단순 소비성 관광에서 벗어나 환경과 관광의 접목을 통해 지속 가능한 관광을 선도한다는 목표다. 단순 여행에서 벗어나 '쓰레기 없는 관광', '재활용품 이용 관광', '환경을 우선하는 소신관광' 등의 필 환경 개념을 관광과 결합시켜 친환경 관광과 함께 자원순환사회를 도모하겠다는 전략이다. 도는 또 최근 필환경 제주여행 콘텐츠를 진행해 긍정적인 반응을 얻고 있다. 지난달부터 MZ세대를 겨냥해 진행하는 친환경 여행 '세상에 이-런트립(Eco-RUN)'에 기업과 단체가 참여해 쓰레기 줍기, 해양 정화 체험을 벌이고 있다. 또 SNS 마케팅으로 쓰레기 줍기 챌린지, 친환경 서약 캠페인 등을 진행하면서 친환경 관광도 병행하고 있다. 김승배 도 관광국장은 "제주를 찾는 관광객이 친환경적인 행동과 환경적 책임을 상징하는 여행 콘텐츠를 개발하겠다"며 "필 환경 관광 마케팅을 전개해 자원순환 사회에도 기여하도록 하겠다"고 말했다. 김봉철 기자 bckim@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 제주대병원 권역정신응급의료센터 개소 [본사내방] 2022년 10월 11일 한경농협, 취약계층 주택용 소방시설 기증 제주, 서울대 지역균형전형 비율 2.4%...전국 최하위 제주타요렌터카, 매월 국·내외 아동에 정기 후원 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 [제민포럼] 테슬라와 한라산소주 5 일본시장 활짝 제주관광 기대감속 우려도 6 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 7 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 8 장 발장 이야기 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 여행업·관광숙박업 등 고용유지지원금 30일 추가 연장 한다. &lt; 뉴스 &lt; 기사본문 - 디스커버리뉴스(DISCOVERYNEWS) 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 뉴스 여행/레저 국내 해외 골프 경제 숙박/교통 항공 열차 자동차 크루즈 호텔 리조트 사회 라이프 기획 문화 포토 포토 영상 기사검색 검색 로그인 회원가입 Updated2022-10-11 14:55 (화) 기사제보 독자투고 광고문의 본문영역 이전 기사보기 다음 기사보기 제주도, 여행업·관광숙박업 등 고용유지지원금 30일 추가 연장 한다. 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 뉴스 제주도, 여행업·관광숙박업 등 고용유지지원금 30일 추가 연장 한다. 기자명 정기환 기자 입력 2021.09.23 16:25 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 - 15개 특별고용지원 업종 지원기간 270→300일 확대 ▲ 여행업·관광숙박업 등 고용유지지원금 30일 추가 연장 [디스커버리뉴스=정기환 기자] 제주특별자치도는 고용노동부에서 여행업·관광숙박업 등 15개 특별고용지원 업종의 유급 고용유지지원금 지원기간을 현행 270일에서 30일 추가하는 연장이 결정됐다고 밝혔다. 이에 따라 특별고용지원 업종 사업장은 300일간 유급 휴업·휴직 지원을 받을 수 있게 됐다. 특별고용지원 업종은 유급 휴업·휴직수당의 2/3에서 9/10 수준으로 1일 상한액이 6만 6,000원에서 7만원으로 상향된 지원 수준 및 지원한도로 지원받을 수 있다. 경영이 일시적으로 악화되어 고용위기를 겪고 있는 사업주가 근로자 해고 등 구조조정 대신 휴업, 휴직을 실시하고 휴업수당을 지급한 경우 근로자에게 지급한 인건비의 최대 90%까지 지원해주는 제도. 특별고용지원 업종의 경우 유급 고용유지지원금 지원이 종료되더라도 무급휴업·휴직지원금 지원도 가능하다. 제주는 코로나19에 장기화에 따른 관광객 감소 등으로 지난해 고용유지지원금 신청은 관광 분야가 33.2%를 차지하는 만큼, 고용불안 해소를 위해 올 12월 말까지 추가 연장해 줄 것을 고용노동부에 지속 건의해 왔다. 올 8월 말 현재 3,336건, 연인원 3만5,808명의 근로자에 433억원을 지원했다. 신청 건 중 관광 분야가 차지하는 비중은 48.6%다. 특별고용지원 업종의 고용유지지원금 지원기간 연장에 대한 구체적 내용은 9월 말까지 고용노동부의 특별고용지원 업종 지정 고시 개정으로 확정될 예정이다. 최명동 도 일자리경제통상국장은 “코로나19로 영업 손실이 큰 관광 분야 특별고용지원 업종에 대한 고용유지지원금 지원기간 추가 연장이 도내 고용위기 극복과 지역경기 회복에 도움이 되길 바란다”고 말했다. 정기환 기자 jeong9200@gmail.com 다른기사 보기 저작권자 © 디스커버리뉴스(DISCOVERYNEWS) 무단전재 및 재배포 금지 개의 댓글 회원로그인 댓글 내용입력 0 / 400 등록 댓글 정렬 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 종로구 삼일대로 461 (운현궁 SK 허브) 102동 312호 대표전화 : ☎ 070-7706-9365 (주중18시까지/토,일휴무), 070-7706-9354 팩스 : 02-749-3207 법인명 : 미디어썬 제호 : 디스커버리뉴스(DISCOVERYNEWS) 등록번호 : 서울. 아02715 등록일 : 2013-07-02 발행일 : 2013-07-10 발행·편집인 : 강성덕 편집 부국장 : 정기환 부사장 : 이명수 청소년보호책임자 : 임영규 문의 및 보도자료 : jeong9200@discoverynews.kr 디스커버리뉴스(DISCOVERYNEWS) 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 디스커버리뉴스(DISCOVERYNEWS). All rights reserved. 위로 전체메뉴 전체기사 뉴스 여행/레저 전체 국내 해외 골프 경제 숙박/교통 전체 항공 열차 자동차 크루즈 호텔 리조트 사회 라이프 포토 전체 포토 영상 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>신라免 “면세품 쇼핑·제주도 무착륙 관광 동시 즐기세요” : 서울경제 주 메뉴 바로가기 본문내용 바로가기 시그널 디센터 라이프점프 서울경제TV 미주한국일보 서울경제골프 전종목시세 e-Paper 구독안내 마이페이지 로그인 이전 다음 전체메뉴 검색 전체메뉴 증권 지수정보 종목정보 국내증시 공시 종목·투자전략 정책 해외증시 채권 재테크 IB&amp;Deal 증권정보 증권일반 News봇 부동산 정책·제도 분양 주택 오피스·상가·토지 건설업계 간접투자 부동산일반 경제 · 금융 경제동향 정책 공기업 경제분석 금융정책 은행 카드 보험 제2금융 재테크 금융가 경제·금융일반 산업 기업 중기·벤처 생활 IT 바이오 산업일반 정치 대통령실 국회·정당·정책 총리실 통일·외교·안보 정치일반 사회 사회일반 전국 사회이슈 피플 국제 정치·사회 경제·마켓 기업 인물·화제 국제일반 오피니언 사설 사내칼럼 사외칼럼 문화 · 스포츠 라이프 문화 방송·연예 스포츠 자동차 영상 · 포토 영상 포토 서경 TV·방송 영화 가요 포토 검색 닫기 검색 #송현동 부지, 시민 품으로 #취득세 쇼크 #가장 쎈 독감 온다 #여가부 폐지 #벼랑 끝 이준석 #눈 먼 돈 된 태양광 대출 #실외 마스크 전면 해제 #노벨상 #김정은 딸 김주애 #어썸머니 닫기 전체서비스 증권 지수정보 종목정보 국내증시 공시 종목·투자전략 정책 해외증시 채권 재테크 IB&amp;Deal 증권정보 증권일반 News봇 부동산 정책·제도 분양 주택 오피스·상가·토지 건설업계 간접투자 부동산일반 경제 · 금융 경제동향 정책 공기업 경제분석 금융정책 은행 카드 보험 제2금융 재테크 금융가 경제·금융일반 산업 기업 중기·벤처 생활 IT 바이오 산업일반 정치 대통령실 국회·정당·정책 총리실 통일·외교·안보 정치일반 사회 사회일반 전국 사회이슈 피플 국제 정치·사회 경제·마켓 기업 인물·화제 국제일반 오피니언 사설 사내칼럼 사외칼럼 문화 · 스포츠 라이프 문화 방송·연예 스포츠 자동차 영상 · 포토 영상 포토 카드뉴스 서경스타 TV·방송 영화 가요 포토 회사소개 회사소개 CEO 인사말 서울경제가 걸어온 길 행사 및 시상 약도 및 연락처 업무문의 구독안내 광고안내 이용안내 개인정보취급방침 이용약관 청소년 보호정책 고충처리인 제보 이메일 뉴스레터 텔레그램 뉴스채널 소식 공지사항 이벤트 알립니다 스페셜 컨텐츠 All Headline Awesome Money 기자채널 이슈 연재 e-Paper 뉴스아카이브 전체기사 스타즈 클럽 백상경제연구원 아웃링크 서경골프 이달의과학기술인상 서울포럼 존경받는 기업·기업인 대상 구독 l Subscription 구독신청 이용약관과 개인정보취급방침을 읽었으며, 이에 동의합니다. (필수) 이메일을 통한 서울경제의 서비스 및 이벤트 정보 수신에 동의합니다. (선택) 팝업창 닫기 공유하기 facebook twitter kakao email 복사 이메일보내기 생활 urlhttps://www.sedaily.com/NewsView/22RHK21MB1 보내는 사람 받는 사람 ※ 여러명에게 보낼 경우 콤마(,)로 구분하세요. 확인 취소 홈 산업 생활 신라免 “면세품 쇼핑·제주도 무착륙 관광 동시 즐기세요” 입력2021-09-16 10:40:18 수정 2021.09.16 20:53:37 백주원 기자 facebook 공유 twitter kakao email 복사 뉴스듣기 가 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 기사저장 저장된기사목록 기사프린트 추석·개천절·한글날 연휴 맞춰 관광비행 항공권 증정 viewer 신라면세점이 추석 연휴와 개천절·한글날 연휴에 맞춰 면세점 고객들에게 무착륙 국제 관광비행 항공권을 증정하는 행사를 진행한다고 16일 밝혔다.증정 항공권은 다음 달 8일 김포에서 출발해 일본 대마도 상공을 지나 제주도로 가는 편도 노선으로 면세쇼핑과 제주여행을 동시에 즐길 수 있다. 지난 10일부터 다음 달 7일까지 신라면세점 서울점에서 당일 500달러 이상 네이버페이로 구매한 고객 96명에게 선착순으로 주어진다. 1,000달러 이상을 구매한 고객에게는 동행자 항공권도 준다. 단, 동행자도 면세점에 동반 방문해야 한다.한편 신라면세점은 무착륙 국제관광비행 고객들에게 다양한 추가혜택도 제공한다. 화장품·향수·패션·선글라스·시계 품목의 등 140여 개 브랜드가 참여해 진행하는 70% 할인 행사와 구매 금액별로 최대 84만 S리워즈 포인트 증정 행사를 마련했다. &lt; 저작권자 ⓒ 서울경제, 무단 전재 및 재배포 금지 &gt; ※ 본 사이트에 게재되는 정보는 오류 및 지연이 있을 수 있으며, 그 이용에 따르는 책임은 이용자 본인에게 있습니다. 구독 백주원 기자 생활산업부 jwpaik@sedaily.com 고환율 영향 최소화…11번가·몰테일, 아마존 프라임데이 이벤트 1분에 43개씩 팔렸다…CU 연세우유 크림빵 1500만개 돌파 기자채널로 이동 오늘의 핫토픽 # 송현동 부지, 시민 품으로 # 취득세 쇼크 # 가장 쎈 독감 온다 # 여가부 폐지 # 벼랑 끝 이준석 오늘의 이슈 #이준석 추가 징계 유승민 "정진석, 이재명 덫에 놀아나…비대위원장 사퇴해야" #국감 초점 "민간인 사찰"…국토위 국감장에서도 '감사원' 도마 위에 #감사원 '文 서면조사' 논란 박홍근 “감사원, 前정부인사 민간인 시절기록 사찰…공수처 고발할 것” #마약민국 묻지마 폭행하고 "마약 했다"는 남성…경찰이 돌려보냈다 #尹, 비속어 논란 "키스 5단계는" "치마 짧으면 좋다"…중학교 선생님이 건넨 농담 이시간 주요 뉴스 영상 뉴스 생방송 중 러 미사일 '쾅'…BBC 특파원 긴급 대피 '아찔' '컴백홈' 지금의 날 만들어 준 고향, 구수하고 정겹다 도로 위 '모세의 기적'…경찰·택시기사, 환자 생명 구했다 한미, 北 대응 사격중 미사일 오발…강릉서 '폭발 화재' 넷상 초밀착 웹드라마 '밈의 생활화', 손우민♥김도림 커플 싸움 직관…결말은? 코스피 코스닥 10.11 14:35:31 개인 외국인 기관 (억원) 10.11 14:35:31 개인 외국인 기관 (억원) 인기 포토 뉴진스 목격! 든든하軍 심장에 한 발! 양조위의 화양연화 샤넬♥제니 저항하라 부산 찾은 스타들 프로스트! 오늘의 연재 SE★시리즈 드림캐쳐 다미, 그룹의 중심이 바로 나야 [SE★포토] 한입뉴스 CU×미래에셋페이 ‘편털’ 이벤트 진짜 ‘편털’에 조기종료[한입뉴스] 주식 초고수는 지금 "지금 사면 손해 안 본다?"…삼성전자·NAVER 줍줍[주식 초고수는 지금] 뒷북비즈 4C 덫에 걸린 K반도체…“국가대항전서 낙오될 수도” [뒷북비즈] 서경 디지털 38개의 포토 든든하軍 23개의 포토 양조위의 화양연화 18개의 포토 저항하라 76개의 포토 샤넬♥제니 EBITDA 마진율 회계기준에 따른 차이를 제거한 현금기준 실질 수익성 판단 지표로, 매출을 통해 어느정도의 현금이익을 창출 했는가를 의미한다. 즉, EBITDA마진율은 매출액 대비 현금창출능력으로 볼 수 있으며, 일반적으로 마진율이 높을수록 기업의 수익성이 좋다고 판단할 수 있다. EBITDA마진율 = (EBITDA ÷ 매출액)*100% 1. 코주부 코인, 주식, 부동산 투자 정보만 쏙쏙! 코주부와 성투해요. 2. 지구 나랑 상관 있는 친환경 뉴스. 매주 화·목요일에 만나요. 3. Daily Brief 매일 아침, 데일리브리프가 핵심 경제 뉴스를 전해드립니다. 4. 연재기사 서울경제의 모든 연재기사를 메일함에서 받아보실 수 있습니다. 5. 스타기자 서울경제의 스타기자를 구독하세요. 기사가 출고되면 이메일로 알려드려요. 증권 지수정보 종목정보 국내증시 공시 종목·투자전략 정책 해외증시 채권 재테크 IB&amp;Deal 증권정보 증권일반 News봇 부동산 정책·제도 분양 주택 오피스·상가·토지 건설업계 간접투자 부동산일반 경제 · 금융 경제동향 정책 공기업 경제분석 금융정책 은행 카드 보험 제2금융 재테크 금융가 경제·금융일반 산업 기업 중기·벤처 생활 IT 바이오 산업일반 오피니언 사설 사내칼럼 사외칼럼 정치 대통령실 국회·정당·정책 총리실 통일·외교·안보 정치일반 문화 · 스포츠 라이프 문화 방송·연예 스포츠 자동차 사회 사회일반 전국 사회이슈 피플 영상 · 포토 영상 포토 국제 정치·사회 경제·마켓 기업 인물·화제 국제일반 서경스타 TV·방송 영화 가요 포토 공지 [알립니다] 서울경제 개인정보취급방침 변경 공지 회사소개 광고안내 개인정보취급방침 이용약관 청소년보호정책 제보 고충처리인 초판보기 전체기사 뉴스아카이브 관련사이트 미주한국일보 서울경제TV 시그널 레이디스클래식 디센터 라이프점프 더폴리틱스 서울경제골프 백상경제연구원 이달의 과학기술인상 서울포럼 주소 : 서울특별시 종로구 율곡로 6 트윈트리타워 B동 14~16층 대표전화 : 02) 724-8600 상호 : 서울경제신문사업자번호 : 208-81-10310대표자 : 이종환등록번호 : 서울 가 00224등록일자 : 1988.05.13발행 ·편집인 : 이종환 인터넷신문 등록번호 : 서울 아04065 등록일자 : 2016.04.26발행일자 : 2016.04.01 서울경제의 모든 콘텐트는 저작권법의 보호를 받는 바, 무단 전재·복사·배포 등은 법적 제재를 받을 수 있습니다. Copyright ⓒ Sedaily, All right reserved 서울경제를 팔로우하세요! 서울경제신문 텔레그램 뉴스채널 서울경제 어썸머니 모바일 버전 보기</t>
+  </si>
+  <si>
+    <t>추석 황금연휴 제주도로 떠나는 관광객들 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 최신포토인기포토해외포토분야별포토연예스포츠슬라이드펫카드그래픽뉴스 홈 &gt; 포토 &gt; 지방 &gt; 서울 최근 슬라이드 선택 이전 다음 추석 황금연휴 제주도로 떠나는 관광객들 2021/09/18 09:59 송고 이전 다음 정지 자동넘김 시작 자동넘김 멈춤 (서울=뉴스1) 정진욱 기자 = 추석 황금연휴 첫날인 18일 오전 서울시 강서구 김포공항에서 제주로 향하는 관광객들이 탑승수속을 하고 있다. 제주도관광협회에 따르면 17일부터 22일까지 추석연휴 엿새간 항공기와 선박 예약 건수를 기준으로 전망한 관광객은 21만5000여명이다. 2021.9.18/뉴스1		guts@news1.kr 기사원문보기 댓글보기 인기 화보 갤러리 [연예가화제] 3년 만에 관객 품으로 돌아온 BIFF [국회ㆍ정당] 윤석열 정부 첫 국감 시작..여야 전방위 격돌 [국방ㆍ외교] '바다 위 군사기지' 美 핵항모 로널드 레이건호, 부산 입항 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>제주도, 하반기 제주관광진흥기금 423억원 접수 닫기 전체기사 최신뉴스 GAM 라씨로 영상 영상 포토 포토 정치 대통령실 국회·정당 통일·외교 국방·안보 북한 한민족·다문화 경제 경제일반 경제정책 지표 공정거래 농림수산 공기업 과학기술 사회 사건·사고 법원·검찰 재난 교육 복지 노동 환경 교통 여성·아동 서울시 날씨 인사 부고 글로벌 특파원 글로벌정치 글로벌경제 미국·북미 중남미 일본 유럽 동남아·호주 베트남 인도 중동 아프리카 러시아 동구 기타 중국 정치 경제일반 정책 마켓·금융 산업 기업 신기술 뉴비즈 문화 피플 컬럼 한중동향 그래픽 韓流中心 산업 재계·경영 전기·전자 자동차 항공 물류 철강 조선 화학 중공업 에너지 상사 ICT 중기·벤처 생활경제 제약·바이오 증권·금융 은행 증권 보험 카드 시황 주식 펀드 채권·외환 가상통화 VC 저축은행·대부업 핀테크 부동산 정책 건설 분양 수익형부동산 전국 지자체 단체장 강원 경기남부 경기북부 부산·울산·경남 대구·경북 충북 광주·전남 대전·충남·세종 전북 인천 제주 문화·연예 문화일반 문화정책 공연 전시·아트 출판 종교 미디어 드라마·예능&amp;쇼 영화 가요 패션뷰티 국내 연예 해외 연예 스포츠 해외스포츠 국내스포츠 축구 야구 골프 오피니언 오피니언 회사소개 CEO 인사말 뉴스핌은 주요상품 가치·철학 발자취 조직도 윤리강령 찾아오시는 길 사업·광고문의 사업제휴 광고문의 유료서비스 유료안내 결제서비스 안내 환불정책 고객센터 이용약관 개인정보취급방침 청소년보호정책 이메일주소수집거부 저작권규약 고충처리제도 수용자권익보호위원회 회원 로그인 아이디·비밀번호찾기 회원가입 로그인 뉴스핌제보 닫기 검색 패밀리 사이트 뉴스핌통신 PLUS 월간 ANDA 中文 안다쇼핑 ANDA 뉴스 닫기 전체메뉴 영상 포토 정치 경제 사회 글로벌 중국 산업 증권·금융 부동산 전국 문화·연예 스포츠 오피니언 #GAM #라씨로 대통령실 국회·정당 통일·외교 국방·안보 북한 한민족·다문화 경제일반 경제정책 지표 공정거래 농림수산 공기업 과학기술 사건·사고 법원·검찰 로펌 재난 교육 복지 노동 환경 교통 여성·아동 서울시 날씨 인사 부고 특파원 글로벌정치 글로벌경제 미국·북미 중남미 일본 유럽 동남아·호주 베트남 인도 중동 아프리카 러시아 동구 기타 정치 경제일반 정책 마켓·금융 산업 기업 신기술 뉴비즈 문화 피플 컬럼 한중동향 그래픽 韓流中心 재계·경영 전기·전자 자동차 ESG 항공 물류 철강 조선 화학 중공업 에너지 상사 ICT 중기·벤처 생활경제 제약·바이오 은행 증권 보험 카드 시황 주식 펀드 채권·외환 가상통화 VC 저축은행·대부업 핀테크 정책 건설 분양 수익형부동산 지자체 단체장 강원 경기남부 경기북부 부산·울산·경남 대구·경북 충북 광주·전남 대전·충남·세종 전북 인천 제주 문화일반 문화정책 공연 전시·아트 출판 종교 미디어 드라마·예능&amp;쇼 영화 가요 패션뷰티 국내 연예 해외 연예 해외스포츠 국내스포츠 축구 야구 골프 홈 전국 지자체 속보 [영상] 이복현 금감원장 "도이치모터스 관련 경찰에 자료 요청 오지 않았다"큐브엔터, (여자)아이들 미니 5집 'I love' 선주문 70만장 돌파코웨이, KCSI 조사 침대·정수기 만족도 1위제주 도내 사회적경제기업 총 638개소…제주도 "맞춤형 지원"[부고] 지영흔(하나은행 홍보팀장)씨 부친상에이프로젠, 휴미라 바이오시밀러 특허 출원...생산성 증대삼성전자, 웰스토리 검찰 압수수색 불복 준항고 취하안실련ᐧ자살예방 시트백커버 1800세트 전국모범운전자연합회 기증 시티랩스, '그리고'에 국내 최초 운전면허 명의도용 방지 안면인증 솔루션 공급이엔플러스, 2차전지 양산 핵심설비 반입 완료…"내년 양산 준비 순항"안성 한 지역농협서 5억원 빼돌린 직원 자수...검찰 송치[국감] 송석준 "토스·카카오페이 등 선불충전 악용 보이스피싱 4년간 310배 폭증"3분기, 국내 기업 자금조달 250조9000억원…전년比 22.2%↓[국감] 정청래 "尹대통령, 디지털 키우겠다면서 예산은 삭감? 앞뒤 안맞아"[국감] 덕수궁 석조전 대한제국역사관, 국립박물관이지만 "유물 구입비 전무"신라젠, 내일 상폐여부 결정...17만 개미 운명은?[속보] 대전경찰청, '대전 화재' 관련 현대백화점그룹 본사 압수수색 [국감] 이복현 금감원장 "보험사 GA 설립 시 부당행위 면밀히 보겠다"금투협회 21일 차기 회장 선임 본격화... 서명석·전병조 등 5인 거론 김포-하네다 항공운항 30일부터 주 28회→56회로 늘린다 더보기 제주도, 하반기 제주관광진흥기금 423억원 접수 기사입력 : 2021년09월15일 14:12 최종수정 : 2021년09월15일 14:12 카카오톡 페이스북 트위터 카카오스토리 밴드 가 + 가 - 프린트 [제주=뉴스핌] 변준성 기자 = 제주도가 코로나19 장기화로 어려움에 처한 관광사업체의 경영위기 극복을 위해 지난 8월 23일부터 9월 10일까지 하반기 제주관광진흥기금 융자지원을 접수한 결과 총 199건에 423억 원으로 집계됐다고 15일 밝혔다. 업종별로 살펴보면 ▲여행업 48건·31억 원 ▲관광숙박업 20건·64억 원 ▲일반숙박업 10건·19억 원 ▲관광식당업 17건·42억 원 ▲전세버스업 12건·24억 원 ▲농어촌민박 16건·6억 ▲전기차 구입 31건·128억 원 ▲기타 29건·53억 원이고, 시설 개보수자금은 6건·54억 원이다. [제주=뉴스핌] 변준성 기자 = 제주 최고의 관광지역중 하나인 애월읍 한담해변 투명카약체험장 모습. 2021.09.15 tcnews@newspim.com 도는 10억 원 미만의 경영안정자금은 자체 심사, 10억 원 이상 및 시설 개보수자금은 기금심의위원회를 심사를 거쳐 이달 중 지원 대상자를 확정할 예정이다. 지난해는 전년도 매출액 범위 내에서 특별융자를 시행했지만, 올해는 코로나19로 인한 매출 감소 등을 고려해 최근 3년 중 유리한 연도 매출액 범위 내에서 지원받을 수 있도록 했다. 이와 함께 제도개선을 통해 행정처분 이력 및 융자금 중도 회수 이력과 관계없이 신청이 가능하도록 제한을 완화했으며, 전기버스 구입 시 1억 5000만 원까지 상향 조정하는 등 융자 추천 규모를 확대했다. 최종 지원 대상자로 확정되면 경영안정자금은 12월 31일까지, 시설 개보수자금은 내년 2월 28일까지 제주관광진흥기금 융자협약 금융기관을 방문해 대출을 실행하면 된다. tcnews@newspim.com GAM - 해외주식 투자 도우미 [김특의 뇩멍] 스벅보다 싸고 던킨보다 맛있는 커피를 먹다 5년 새 주가 10배, 외국인이 쓸어 담는 화장품 기대주 '프로야' 라씨로 - 국내주식 투자 도우미 범한퓨얼셀, 지상 모빌리티용 연료전지 사업 확장..."글로벌 시장 확대 수혜" 코난테크놀로지, 16년 투자한 SK커뮤니케이션즈…락업 물량 20% 풀린다 [뉴스핌 베스트 기사] 사진 北 리설주, 김정은과 군사훈련 '이례적' 동행…핵무력 자신감 표출 [서울=뉴스핌] 이영태 기자 = 북한 김정은 노동당 총비서 겸 국무위원장 부인 리설주 여사가 김 위원장이 직접 지휘했다는 지난 보름간의 북한의 탄도미사일 시험발사 현장에 모습을 드러낸 것으로 10일 확인됐다. 북한 관영 조선중앙통신과 조선노동당 기관지 노동신문은 노동당 창건 77주년 기념일인 이날 "경애하는 김정은 동지께서 조선인민군 전술 핵운용 부대들의 군사훈련을 지도했다"면서 김 위원장이 북한군 전술핵운용부대·장거리포병부대·공군비행대의 훈련을 직접 지휘했다고 보도했다. 북한 김정은 국무위원장 부인 리설주 여사가 지난달 29일부터 보름간 진행된 전술핵운용부대 군사훈련을 김 위원장과 함께 참관했다고 북한 노동신문과 조선중앙통신이 10일 보도했다. 리 여사는 지난 2013년 6월과 2016년 12월 김 위원장의 공군 부대 훈련 참관에 동행한 바 있다. 2022.10.10 [사진=노동신문] 북한 언론들은 기사와 함께 리 여사가 김 위원장과 둘이서 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 사진 한 장을 공개했다. 사진은 KN-25가 점화되는 순간에 촬영된 듯 김 위원장은 왼손에 담배 한 개비를 들고 얼굴을 살짝 일그러뜨린 채 엄지손가락으로 귀를 막고 있고, 리 여사 역시 바로 옆에서 표정을 한껏 찡그리고 귀를 막는 모습을 담았다. 북한 언론이 최고지도자 부부가 귀를 막는 사진을 특별히 선택해 실은 것은 초대형 방사포 등의 위력을 강조하려는 의도가 담긴 것으로 풀이된다. 리 여사는 북한이 3대 세습 정당화로 내세운 '백두혈통'의 상징인 백두산 백마 등정으로부터 '선대 수령'의 시신이 있는 금수산태양궁전 참배, 열병식 사열 등 주요 행사 때 남편과 동행했으나, 미사일을 발사하는 군사훈련 현장에 동행한 것은 이례적이다. 전문가들 사이에선 공직을 맡고 있지 않은 리 여사의 이례적 군사훈련 참관과 동행은 북한이 자신들의 핵능력에 대한 자신감을 표출함과 동시에, 이번 도발이 단순한 '시험발사' 수준을 넘어서는 군사행보임을 보여주기 위한 것이라는 평가가 나온다. 북한은 그에게 '여사' 또는 '동지'라는 호칭을 쓰며 퍼스트레이디의 지위를 확실히 했다. medialyt@newspim.com 2022-10-10 14:04 사진 "급매물도 아직 비싸"…내집마련 수요 아직 '머뭇' [서울=뉴스핌] 최현민 기자 = 부동산 시장 침체기로 집값이 하락세를 보이자 급매물이 쏟아지고 있지만 수요자들은 내집 마련에 선뜻 나서지 못하고 있다. 문재인 정부 기간 집값이 급등한 탓에 여전히 비정상적으로 높다는 인식이 많아서다. 최근 비교적 낮은 가격에 급매물이 나오고 있지만 이들 매물 역시 5년전 가격보다 70% 가량 높은 수준이다. 특히 당시 아파트를 살수 있었던 금액으론 현재 전세살이도 힘들다. 수천만원 호가를 내린 매물들이 외면받는 이유다. 내년까지 급매물은 지속적으로 늘어날 전망이 우세하다. 점차 시장에 급매물들이 쌓일 경우 집값이 더 낮아질 것이란 기대감에 매수 심리가 더욱 위축될 것으로 보인다. 10일 부동산업계에 따르면 시세보다 저렴하게 내놓는 급매물이 증가하고 있지만 정작 내집마련 수요를 비롯한 실수요들은 '버티기'를 지속하고 있는 중이다. [서울=뉴스핌] 김학선 기자 =서울 용산구 일대 아파트 모습. 2022.08.21 yooksa@newspim.com ◆ 5년전 아파트 매매 가능했던 금액, 올해는 전세살이도 어려워 최근 주택시장에는 가격을 비교적 큰 폭으로 낮춘 급매물이 나오고 있다. 집값의 바로미터가 되는 강남4구(강남·서초·송파·강동)도 예외는 아니다. 특히 1000세대 이상 대단지 아파트에서도 수억원이나 떨어진 급매물들이 속속 나오고 있다. 강남구 일원동 지역의 아파트 매매 매물은 294건으로 6개월 전 171건에 비해 71.9% 증가했다. 같은 기간 송파구 잠실동 지역의 매물 역시 557건에서 817건으로 46.6% 증가했다. 강동구 명일동(226건→323건)은 42.9%, 서초구 방배동(481건→641건)은 33.2% 증가했다. 하지만 정작 거래는 활발하게 이뤄지지 않고 있는 모양새다. 호가를 수천만원 내린 매물도 실수요자들에게 외면받고 있다. 문재인 정권이 출범한 2017년 이후 급등한 집값이 여전히 높기 때문이다. KB부동산에 따르면 지난달 기준 전국의 아파트 평균 매매가격은 5억5601만원이다. 이는 2017년 9월(3억2936만원) 대비 68.8% 높은 수치다. 올해 들어 집값이 하락세를 보이고 있지만 여전히 5년 전 가격과 비교하면 70% 가까이 높은 수준이다. 전세가격 역시 크게 올랐다. 전국의 아파트 평균 전세값은 2017년 9월 2억4063만원에서 지난달 3억3855만원으로 40.7% 증가했다. 당시 서울 아파트를 살 수 있던 금액으로는 5년이 지난 지금 전세살이도 어려워진 것이다. 같은기간 서울만 놓고 보면 아파트 평균 매매가격은 2배 가까이 올랐다. 2017년 6억3924만원이었던 서울 아파트 평균 매매가격은 5년만에 99.6% 증가한 12억7624만원으로 급등했다. 경기와 인천 역시 같은 기간 각각 87.2%, 74.9% 증가했다. 지방 5개 광역시(대전·대구·울산·부산·광주) 아파트 평균 매매가도 증가했다. 지난달 기준 매매가격은 3억9928만원으로 2017년(2억6522만원) 대비 50.5% 증가했다. [서울=뉴스핌] 윤창빈 기자 = 서울 송파구 공인중개사에 붙어있는 아파트 매매 시세표의 모습. 2022.02.11 pangbin@newspim.com ◆ "시세 대비 크게 낮은 급매물 거래…2017년 수준 하락 어려울 것" 자금 여력을 갖춘 실수요자의 경우 급매물 거래를 통해 내 집 마련에 나설 여지가 커진 상황이다. 다만 내년까지 금리인상 가능성이 있어 시세 대비해 크게 낮아진 매물만 간간히 거래될 가능성이 크다. 여경희 부동산R114 연구원은 "내 집 마련이 급한 실수요자들이 있어 시세 대비 10% 이상 하락한 매물들 가운데 굉장히 저렴한것 위주로만 꾸준히 거래가 될 것"이라며 "다만 내년 주택 경기도 어려울 것이라고 보는 시각이 있어 절대적으로 매수세가 크게 늘진 않을 것으로 전망된다"고 내다봤다. 여 연구원은 "그동안 집값이 많이 올랐지만 대출이 여의치 않은 부분이 있다"며 "수도권 같은 경우는 조정대상지역이나 투기과열지구로 묶여 있는 지역이 있다보니 지방보다 수요는 많은데 대출은 받기 어렵고, 가격은 더 높아 매수자들 진입장벽을 높이는 요인이 될 수 있다"고 설명했다. 그러면서 "금리 인상에 물가까지 오르는 상황에서 연소득을 한푼도 안쓰고 모아야 집한채를 살 수 있는 수준이 됐다"면서 "아직까지 매수하기에는 주택 가격이 심리적으로 높다고 인식될 수 있다"고 덧붙였다. 다만 2017년도 수준 정도까지 큰 폭으로 집값이 하락하긴 어려울 것이란 전망이 나온다. 여 연구원은 "우리나라 대부분 자산이 부동산 가운데서도 주택에 집중돼있다"면서 "2017년도 수준까지 하락한다면 대출 원리금 상환이 어려워진 하우스 푸어 등 사회적으로 문제가 되는 부분이 있을 것"이라고 말했다. min72@newspim.com 2022-10-10 06:01 尹대통령 지지율, '지지층 결집'에 0.8%p 소폭 반등 32% "美증시, 이번 어닝시즌에 더 떨어진다…애플 실적이 관건" [단독] 경찰 출석하는 박홍률 목포시장...공직선거법위반 혐의 피소 삼성전자 입주한 키이우 건물, 러 미사일에 피격 삼성바이오, 이르면 내일 4공장 가동…이재용 현장 방문 가능성 [주요포토] '하이서울패션쇼, '3년 만에 직관' 법제사법위원회의 감사원 국정감사 한글날 연휴 끝...쌀쌀한 출근길 코스피 2%대 급락, 원·달러 환율 20원대 급등 노동당 77주년 창건일, 고요한 북한 '서울을 달리다' 3년만에 열린 서울세계불꽃축제 안다 TV 영상 [영상] 유병호, '대통령실 문자 논란' 첫 해명..."송구하긴 하지만 정상적 의사소통" 투자직GAM 영상 [투자직감] ①쿠팡, 미국 공모주 물림의 법칙? 회사소개 주요상품 사업제휴 개인정보취급방침 청소년보호정책 고충처리제도 수용자권익보호위원회 이용약관 광고문의 페이스북 네이버 포스트 플립보드 카카오토픽 RSS 한국신문윤리위원회 서울시 영등포구 국제금융로 70, 미원빌딩 906호 편집국 : 02-761-4409 발행인 : 민병복 편집인 : 박승윤 뉴스핌통신등록번호 : 문화,나00032등록일자 및 발행일자 : 2018.3.22 뉴스핌등록번호 : 서울아00194등록일자 및 발행일자 : 2006.4.26 COPYRIGHT©NEWSPIM CO., LTD. ALL RIGHTS RESERVED. Top으로 이동</t>
+  </si>
+  <si>
+    <t>제주도, 코로나19 대응 지원 관광진흥기금 423억원 접수 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 코로나19 대응 지원 관광진흥기금 423억원 접수 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도, 코로나19 대응 지원 관광진흥기금 423억원 접수 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2021.09.15 14:24 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도는 코로나19 장기화로 어려움에 처한 관광사업체의 경영 위기 극복을 위해 8월 23일부터 9월 10일까지 하반기 제주관광진흥기금 융자 지원을 접수한 결과, 총 199건·423억 원으로 집계됐다고 15일 밝혔다. 경영안정자금은 총 193건·369억 원이다. 업종별로 보면 △여행업 48건·31억 원 △관광숙박업 20건·64억 원 △일반숙박업 10건·19억 원 △관광식당업 17건·42억 원 △전세버스업 12건·24억 원 △농어촌민박 16건 6억 △전기차 구입 31건·128억 원 △기타 29건 53억 원이다. 시설 개보수자금은 6건·54억 원이다. 제주도는 10억 원 미만의 경영안정자금은 자체 심사, 10억 원 이상 및 시설 개보수자금은 기금심의위원회를 심사를 거쳐 이달 중 지원 대상자를 확정할 예정이다. 특히, 지난해는 전년도 매출액 범위 내에서 특별융자를 시행했지만, 올해는 코로나19로 인한 매출 감소 등을 고려해 최근 3년 중 유리한 년도 매출액 범위 내에서 지원받을 수 있도록 했다. 이와 함께 제도개선을 통해 행정처분 이력 및 융자금 중도 회수 이력과 관계없이 신청이 가능하도록 제한을 완화했으며, 전기버스 구입 시 1억 5000만 원까지 상향 조정하는 등 융자 추천 규모를 확대했다. 최종 지원 대상자로 확정되면 경영안정자금은 12월 31일까지, 시설 개보수자금은 내년 2월 28일까지 제주관광진흥기금 융자협약 금융기관을 방문해 대출을 실행하면 된다. 김승배 제주도 관광국장은 “관광사업체 경영안정 도모와 함께 도민의 실절적 혜택으로 돌아갈 수 있도록 융자 지침을 지속적으로 보완해 나가겠다”고 말했다. 한편, 제주도는 올 상반기 383개 업체 675억 원을 신규 융자 추천했고, 기존 대출 실행자 1194건·2412억 원에 대해 1년간 상환 유예를 결정한 바 있다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도의회 오영희 의원, 우도 문화․관광시설 및 폐교 활성화를 위한 현장 목소리 청취 메뉴 검색 번역 Korean English 中文 日本語 tiếng Việt Idioma español ру́сский язы́к Search 검색어를 입력하세요. 검색 닫기 전체기사 정치 경제 사회 교육 복지 라이프 문화·행사 오피니언 홈 정치 공유하기 제주도의회 오영희 의원, 우도 문화․관광시설 및 폐교 활성화를 위한 현장 목소리 청취 2021.09.24 17:40:25 크게보기 페북 트윗 카톡 기타 지역주민 자생력 제고와 지역상생방안 모색할 터 [제주교통복지신문 서유주 기자] 제주도의회 문화관광체육위원회 오영희 의원(국민의힘, 비례대표)은 지난 24일 우도면 소재 문화관광시설과 폐교 현장을 방문하여 지역주민과 상생하는 섬 관광지 활성화 방안을 모색했다. 오영희 의원은 우도생활문화센터, 창작스튜디오, 남훈문학관 등 문화․관광시설을 둘러보았고, 아울러 폐교가 된 구) 연평초등학교를 활용한 북카페도 방문했다. 이들 시설운영에 있어 활성화 방안을 모색하기 위해 우도면 주민자치위원장, 이장협의회장 등 자생단체장들이 참석한 지역대표와의 간담회 자리도 마련했으며, 특히 우도면장(양철안)이 함께 참석하여 지역주민의 의견을 수렴하고 행정에서 지원할 수 있는 방안도 함께 모색하는 등 현장의 목소리를 청취하고 개선 방안 등을 논의하는 자리였다. 오영희 의원은 “우도지역에 산재한 문화관광자원을 적극 개발해 제주의 ‘섬 속의 섬’으로 관광객에게 인기를 끌고 있지만 정작 지역주민들의 자생력 제고와 지역상생방안 모색이 미흡했다. 앞으로 지속적으로 지역주민들의 애로사항 청취 등 현장의 목소리를 듣고 실질적으로 도움을 줄 수 있는 방안을 모색하겠다.“며 ”특히 섬 관광지로서 우도의 문화․관광시설의 경쟁력 제고와 폐교 활성화를 위해 의회 차원에서 다각적인 방안을 검토할 것”이라고 밝혔다. 서유주 기자 의 전체기사 보기 서유주 기자 news@jejutwn.com Copyright @2015 제주교통복지신문 Corp. All rights reserved. 인기기사 1 제주 서귀포 친환경 주거타운 ‘제주 레브카운티’, 대자연 풍경과 개발 수혜로 관심 2 [TW포토] 제3회 서귀포은갈치축제 현장 3 제주 오션갤러리, 시행사 보유분 특별분양 4 제주시, 10월 시정시책공유 간부회의 개최 5 제주음협, 오는 22일 '창착오페라 「홍윤애」 하이라이트' 선보인다 6 [TW포토] 2022 제주레저힐링축제 새별오름 공연 7 연예인 입주로 화제…‘한일 베라체 인비디아’ 눈길 8 제주 사회적기업 성장지원센터, 입주기업 설명회 및 간담회 성황리에 개최 9 제주시 동부보건소, 청소년 대상 코로나우울·스마트폰 중독 예방 홍보관 운영 10 서귀포시, 코로나19 취약(소농) 전업농가 영농경영비 신청기간 연장 맨 위로 홈 로그인 PC버전 제주특별자치도 제주시 신대로7길 20, 301호 (연동, 새롬빌라) | 대표전화 : 010-8675-4517 발행인 : 이문호| 편집인 : 이청 | 등록번호 : 제주, 아01068 등록일 : 2016.10.11 | 이메일 : news@jejutwn.com 제주교통복지신문의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. 창닫기 로그인 전체기사 정치 경제 사회 교육 복지 라이프 문화·행사 오피니언 오피니언 전체 기고 만평 로그인 PC버전 제주특별자치도 제주시 신대로7길 20, 301호 (연동, 새롬빌라) | 대표전화 : 010-8675-4517 발행인 : 이문호| 편집인 : 이청 | 등록번호 : 제주, 아01068 등록일 : 2016.10.11 | 이메일 : news@jejutwn.com 제주교통복지신문의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. 공유하기 Close 페북 트윗 카톡 카스 라인 네이버 블로그 네이버카페 밴드 https://www.jejutwn.com/news/article.html?no=91691 url복사</t>
+  </si>
+  <si>
+    <t>제주도, 하반기 제주관광진흥기금 423억원 접수 메뉴 검색 번역 Korean English 中文 日本語 tiếng Việt Idioma español ру́сский язы́к Search 검색어를 입력하세요. 검색 닫기 전체기사 정치 경제 사회 교육 복지 라이프 문화·행사 오피니언 홈 사회 공유하기 제주도, 하반기 제주관광진흥기금 423억원 접수 2021.09.15 14:10:49 크게보기 페북 트윗 카톡 기타 경영안정 193건·369억원, 시설개보수 6건·54억원 신청 [제주교통복지신문 김현석 기자] 제주도는 코로나19 장기화로 어려움에 처한 관광사업체의 경영 위기 극복을 위해 8월 23일부터 9월 10일까지 하반기 제주관광진흥기금 융자 지원을 접수한 결과, 총 199건·423억 원으로 집계됐다고 밝혔다. 경영안정자금은 총 193건·369억 원이다. 업종별로 보면 ▲여행업 48건·31억 원 ▲관광숙박업 20건·64억 원 ▲일반숙박업 10건·19억 원 ▲관광식당업 17건·42억 원 ▲전세버스업 12건·24억 원 ▲농어촌민박 16건 6억 ▲전기차 구입 31건·128억 원 ▲기타 29건 53억 원이다. 시설 개보수자금은 6건·54억 원이다. 도는 10억 원 미만의 경영안정자금은 자체 심사, 10억 원 이상 및 시설 개보수자금은 기금심의위원회를 심사를 거쳐 이달 중 지원 대상자를 확정할 예정이다. 특히, 지난해는 전년도 매출액 범위 내에서 특별융자를 시행했지만, 올해는 코로나19로 인한 매출 감소 등을 고려해 최근 3년 중 유리한 년도 매출액 범위 내에서 지원받을 수 있도록 했다. 이와 함께 제도개선을 통해 행정처분 이력 및 융자금 중도 회수 이력과 관계없이 신청이 가능하도록 제한을 완화했으며, 전기버스 구입 시 1억 5,000만 원까지 상향 조정하는 등 융자 추천 규모를 확대했다. 최종 지원 대상자로 확정되면 경영안정자금은 12월 31일까지, 시설 개보수자금은 내년 2월 28일까지 제주관광진흥기금 융자협약 금융기관을 방문해 대출을 실행하면 된다. 김승배 도 관광국장은 “관광사업체 경영안정 도모와 함께 도민의 실절적 혜택으로 돌아갈 수 있도록 융자 지침을 지속적으로 보완해 나가겠다”고 말했다. 한편, 제주도는 올 상반기 383개 업체 675억 원을 신규 융자 추천했고, 기존 대출 실행자 1,194건·2,412억 원에 대해 1년간 상환 유예를 결정한 바 있다. 김현석 기자 의 전체기사 보기 김현석 기자 kim@jejutwn.com Copyright @2015 제주교통복지신문 Corp. All rights reserved. 인기기사 1 연예인 입주로 화제…‘한일 베라체 인비디아’ 눈길 2 제주음협, 오는 22일 '창착오페라 「홍윤애」 하이라이트' 선보인다 3 서귀포시, 동절기 코로나19 추가접종 10월 11일부터 참여 가능 4 제주특별자치도, 11일부터 코로나19 2가백신 동절기 추가접종 시작 5 서귀포시, 2023년 FTA기금 감귤생산시설 현대화사업 신청·접수 6 서귀포시 동부보건소, 가을철 농작업 및 야외활동 시 진드기 조심하세요! 7 제주시, 6.25 참전유공자 유족 무성화랑 무공훈장 수여 8 제주시, 오는 11월 24일부터 '일회용' 종이컵·빨대 등 제공 및 사용 금지한다 9 한국미술협회 서귀포지부, 2022 회원 정기전 진행 10 제주시 한경도서관, '냅킨 아트 소품 클래스' 프로그램 참여자 선착순 모집 맨 위로 홈 로그인 PC버전 제주특별자치도 제주시 신대로7길 20, 301호 (연동, 새롬빌라) | 대표전화 : 010-8675-4517 발행인 : 이문호| 편집인 : 이청 | 등록번호 : 제주, 아01068 등록일 : 2016.10.11 | 이메일 : news@jejutwn.com 제주교통복지신문의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. 창닫기 로그인 전체기사 정치 경제 사회 교육 복지 라이프 문화·행사 오피니언 오피니언 전체 기고 만평 로그인 PC버전 제주특별자치도 제주시 신대로7길 20, 301호 (연동, 새롬빌라) | 대표전화 : 010-8675-4517 발행인 : 이문호| 편집인 : 이청 | 등록번호 : 제주, 아01068 등록일 : 2016.10.11 | 이메일 : news@jejutwn.com 제주교통복지신문의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. 공유하기 Close 페북 트윗 카톡 카스 라인 네이버 블로그 네이버카페 밴드 https://www.jejutwn.com/news/article.html?no=90563 url복사</t>
+  </si>
+  <si>
+    <t>제주도·제주관광공사, 제주 관광기업 체질 개선 컨설팅 '킥오프' &lt; 제주 &lt; 전국 &lt; 기사본문 - 시사매거진 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 시작페이지 즐겨찾기 홈 로그인 회원가입 English 中文 日本語 العربية Español Français 번역 제공 검색 기사검색 검색 UPDATED.2022-10-11 14:55 (화) 실시간 뉴스 결혼정보회사 가연, 좋은 인연 위한 미팅파티 마련 진아름 결혼소감, ♥남궁민과 "성숙하고 예쁘게 살 것" 바비모, ‘시카 리페어 부스트 크림’ 출시 답변하는 이복현 금융감독원장 ‘마리엔펠트’ 30주년 기념 비스포크 행사 성료 금융감독원 국정감사 실시하는 정무위 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 발언하는 양무진 북한대학원대학교 총장 광산구 "올겨울 함께 할 희망의 메시지를 찾습니다" 2022 광산아트페스티벌 ‘별무리 예술장터’ 개최 HOME 뉴스 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 보도자료 오피니언 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 포토 엔터테인먼트 연예 스포츠 방송 오늘의 날씨 책 여행·레저 제 292호(2022-10) 오세훈 서울시장이 말하는 ‘약자와의 동행, 매력 특별시’ 구독하기 본문영역 이전 기사보기 다음 기사보기 제주도·제주관광공사, 제주 관광기업 체질 개선 컨설팅 '킥오프' 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도·제주관광공사, 제주 관광기업 체질 개선 컨설팅 '킥오프' 기자명 오형석 기자 입력 2021.09.13 11:12 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도·제주관광공사, 오는 10월 초까지 총 4차례 컨설팅 여행업·숙박업·야영장업 등 총 9개 업체 대상 시행 제주 관광기업 체질 개선 컨설팅 시행 (사전컨설팅) [시사매거진/제주] 관광산업 변화 흐름에 맞춰 제주 관광기업의 경쟁력을 한층 업그레이드할 체질 개선 컨설팅이 본격 시행된다. 제주특별자치도와 제주관광공사(사장 고은숙)는 지난 8월 도내 관광사업체 체질 개선 컨설팅 희망 사업체에 대한 모집 절차를 거쳐 선정된 9개 사업체(여행업 3곳, 숙박업 3곳, 야영장업 3곳)를 대상으로 지난 9일부터 오는 10월 초까지 체질 개선 컨설팅을 진행하고 있다고 13일 밝혔다. 이번에 시행되는 체질 개선 컨설팅은 각 사업체마다 진단컨설팅 1회, 현장컨설팅 3회 등 총 4회에 걸쳐 진행되고 있다. 컨설팅은 △비대면 서비스 및 상품개발 △디지털 시스템 활용 △데이터 구축·분석·활용 △방역체계 진단 등 ‘디지털화’, ‘관광 안전’을 주제로 진행되고 있으며, 분야별 전문가 4명이 컨설턴트로 참여해 업체에 대한 집중적인 컨설팅을 시행하고 있다. 컨설턴트들은 지난 9일 제주웰컴센터에서 업체와의 사전 커뮤니케이션을 통해 현재 영업 상황에 대한 진단을 시행하고, 금주부터 본격적으로 현장 컨설팅에 들어갈 예정이다. 이번 컨설팅은 코로나19 팬데믹이 불러온 제주관광의 위기 상황 속에서 위드 코로나를 대비하고, 변화하는 과학기술 및 디지털 가속화라는 비즈니스의 환경변화에 맞서 관광산업 일선에 있는 사업체들의 실질적인 경쟁력을 배가하는 데 초점을 맞췄다. 이와 관련, 제주관광공사 관계자는 "코로나19 시대, 도내 관광 사업체에 실질적인 도움이 되고, 변화하는 환경 속에서 업체의 미래경쟁력을 증진시킬 수 있도록 컨설팅 사업에 내실을 기할 계획"이라고 밝혔다. 오형석 기자 yonsei6862@gmail.com 새시대 새언론 시사매거진 오형석 기자 yonsei6862@gmail.com 다른기사 보기 저작권자 © 시사매거진 무단전재 및 재배포 금지 당신만 안 본 뉴스 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 골프선수 유현주 프로, 인스타 속 여신 자태 '이종범 딸·이정후 여동생' 이가현 누구? 나이·직업·프로필 공개 송가인, 다음 콘서트는 천안...목포 인증샷 "흥겹고 즐거워" 오늘날씨 월요일, 강원도 "첫눈오나" 서울날씨 "8도 기온뚝" [2022 더팩트 뮤직 어워드] 8일 개막 '라인업·중계·시작시간은?' 로또1등당첨지역 1036회 "9명 28억씩" 대박 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 주요기사 국회, 감사원 국감 날 선 공방 예고 11일 코로나19 신규 확진자 1만 5476명 '위중증 313명·사망자 10명' 러시아, 우크라이나 미사일 공격... 유엔 긴급특별총회 소집 오늘날씨 화요일, 서울날씨 아침6도 기온뚝 '얼음, 눈오는 경기북부' 대통령실, 이재명 '친일 국방' 겨냥해 "말이 아닌 현실의 문제" 토트넘 손흥민, 케인과 43번째 합작골 '시즌 2호 도움' 팀은 승리 최신뉴스 결혼정보회사 가연, 좋은 인연 위한 미팅파티 마련 진아름 결혼소감, ♥남궁민과 "성숙하고 예쁘게 살 것" 바비모, ‘시카 리페어 부스트 크림’ 출시 답변하는 이복현 금융감독원장 ‘마리엔펠트’ 30주년 기념 비스포크 행사 성료 포토뉴스 결혼정보회사 가연, 좋은 인연 위한 미팅파티 마련 진아름 결혼소감, ♥남궁민과 "성숙하고 예쁘게 살 것" 바비모, ‘시카 리페어 부스트 크림’ 출시 답변하는 이복현 금융감독원장 인기뉴스 1 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 2 골프선수 유현주 프로, 인스타 속 여신 자태 3 '이종범 딸·이정후 여동생' 이가현 누구? 나이·직업·프로필 공개 4 송가인, 다음 콘서트는 천안...목포 인증샷 "흥겹고 즐거워" 5 오늘날씨 월요일, 강원도 "첫눈오나" 서울날씨 "8도 기온뚝" 6 [2022 더팩트 뮤직 어워드] 8일 개막 '라인업·중계·시작시간은?' 7 로또1등당첨지역 1036회 "9명 28억씩" 대박 8 선우은숙 재혼, 유영재 아나운서와 혼인신고... 나이·프로필 눈길 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 강남구 테헤란로25길 20, 8층 813호(역삼동,역삼현대벤쳐텔) 대표전화 : 02-790-5116 팩스 : 02-2086-7272 청소년보호책임자 : 김길수 법인명 : 시사매거진 제호 : 시사매거진 등록번호 : 강남 라 00906 등록일 : 1997-09-12 발행일 : 2017-05-01 발행인 : 김길수 편집인 : 김영규 사장 : 천진철 시사매거진 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 시사매거진. All rights reserved. mail to webmaster@sisamagazine.co.kr 위로 전체메뉴 전체기사 뉴스 전체 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 오피니언 전체 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 전체 포토 엔터테인먼트 전체 연예 스포츠 방송 책 여행·레저 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>미디어제주 × 전체기사 뉴스 전체 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 전체 생생스포츠현장 박물관, 그리고 제주 이야기 이사람 이주민, 그들을 말한다 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 기획특집 미디어누리 전체 어린이기자 시민기자 청소년기자 오피니언 전체 미디어窓 미디어칼럼 건강칼럼 기고 미디어TV 전체 영상뉴스 UCC동영상콘테스트 유치부축구대회 시정가이드 전체 제주시 서귀포시 최종편집 2022-10-11 14:45 (화) 로그인 회원가입 모바일웹 전체 뉴스 전체기사 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 박물관, 그리고 제주 이야기 이사람 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 미디어누리 어린이기자 시민기자 기사쓰기 오피니언 미디어窓 미디어칼럼 건강칼럼 기고 행사 유치부 축구대회 아름다운 동행 기사검색 검색 S2N2 이전 다음 제주도, 제6회 대한민국 국제 관광박람회 인기상 수상 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 뉴스 경제 관광 제주도, 제6회 대한민국 국제 관광박람회 인기상 수상 홍석준 기자 승인 2021.09.13 13:21 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × [미디어제주 홍석준 기자] 제주도가 제6회 대한민국 국제 관광박람회에서 인기상을 수상했다. 제주특별자치도관광협회는 지난 9일부터 12일까지 4일간 경기도 일산 킨텍스에서 열린 대한민국 국제 관광박람회에 참가, 제주도가 인기상을 받았다고 밝혔다. 이번 박람회는 국내 지자체 97곳과 180여곳의 관광 유관 기업‧단체가 참여, ‘코로나19 이후 국내 관광산업의 선제적 대응’이라는 주제로 침체된 관광업계에 활력을 불어넣기 위한 방안을 모색하기 위해 마련됐다. 제주관광홍보관에서는 관람객들을 대상으로 도내 언택트 관광지와 온라인 제주여행 공공플랫폼 탐나오를 집중 홍보하는 한편 제주 캐릭터 열쇠고리 만들기 체험과 UN기후변화협약 당사국 총회(COP28) 제주 유치 서명운동을 진행하기도 했다. 도관광협회는 앞으로도 9월 부산국제관광박람회와 11월 내나라여행박람회 등 권역별 개최 예정인 주요 관광박람회에 참가, 위드코로나 시대 안전 제주여행에 대한 홍보마케팅을 이어나갈 예정이다. 저작권자 © 미디어제주 무단전재 및 재배포 금지 홍석준 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 실시간 댓글 동굴 몇개 살리자구 하수처리장 이전하면 그돈은 니그들이 낼거냐 일본 후쿠시마 원전페수 방수하는데가서 아주 죽 욱 살면서 대모혀라 실제 월정리 주민들은 그간 동굴과 하수처리장 문제로 골머리를 앓고 있어 새로운 동굴이 발견되면 보호구역 확대에 의한 토지 수용이나 제한으로 재산상 손해가 생길까봐 동굴이 없는게 오히려 좋겠다는 분들도 계십니다. 월정리가 동굴마을로 지정되어 제한만 할께 아니라 하수처리장 철거로 완전한 동굴보호 마을의 역할을 하게해서 마을에 실질적 도움이 될 수 있는 조처도 취해져야 합니다 오늘 강순석 제주지질연구소장님의 새로운 본류 동굴 존재 할 수 있다는 기자회견은 다년간 지질연구하시면서 현장에서 느끼는 전문가의 촉이 있으신것 같습니다. 제주의회 정밀탐사 촉구도 있었으니 하수처리장 존재에 영향을 받지 않을 학술적 가치에 중점인 정밀 지질 탐사가 다시 이루어지기를 기대해 봅니다. 2009년 이후 탐사기법도 더욱 발전 했으니 더 정밀한 탐사가 가능할 것 입니다. 월정리는 만장굴. 사굴과도 마을 경계상에 위치해 있고 그 밑으로 용천굴. 당처물 동굴. 남지미 동굴이 계속 발견되었는데 올 6월에는 제주 의회에서도 정밀 탐사가 필요하다는 의견이 있었습니다만 구체적 탐사 움직임은 보이지 않는것 같습니다 2007년 탐사 ~2009년 보고서는 매우 과학적 동굴탐사인 지표투과 레이더 탐사도 했다지만 그 당시 현장을 지켜본 마을분 증언에 의하면 하수처리장 근처로는 탐사를 회피하는 듯 했다고도 합니다. 지금까지 과정을 보면 보호구역도 하수처리장 경계로 갑자기 2구역에서 4구역으로 완화되게 설정되어 있습니다. 문제의 하수처리장 보호를 위해 안간힘을 써 온것 같은데 하수처리장 철거가 되어야 동굴 탐사도 객관적으로 학술적으로 실제적으로 가능한게 아닌가 의구심을 가져 봅니다 가장 많이 읽은 기사 1제주시, 청년월세 월 20만원씩 최대 12개월 지원 2일상의 배려, 성숙된 시민의식 빛낸다. 3서귀포시, 올해 교통유발부담금 21억 원 부과 4‘2022 Trans Jeju 국제 트레일러닝대회’ 성황리에 폐막 5&lt;정정보도&gt; 해수부 규정 어긴 영상 공모전 입상 의혹, 사실 아닌 것으로 확인 6코로나19 이후 큰 폭 증가 제주 실업자수, 점차 회복세 7최고가 다투는 제주 휘발유 값, 제주도 2차 민간조사 돌입 SPONSORED 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 중앙로 270-1 5층(이도이동, 백두빌딩) 대표전화 : 064-725-3456 팩스 : 064-725-3458 명칭 : (주) 미디어제주 제호 : 미디어제주 등록번호 : 제주 아 01003 등록일 : 2005-10-17 발행인 : 고승영 편집인 : 고승영 청소년보호책임자 : 고승영 미디어제주 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 미디어제주. All rights reserved. mail to mediajeju@mediajeju.com 위로</t>
+  </si>
+  <si>
+    <t>제주도, 제6회 대한민국 국제 관광박람회 인기상 수상 &lt; 경제/관광 &lt; 기사본문 - 제주매일 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 전체기사 뉴스 정치/행정 사회/교육 경제/관광 스포츠 문화 방송/연예 생활에 필요한 법률상식만을 콕!…콕!…콕! 기획 오피니언 국제 기획특집 포토/동영상 포토 동영상 PDF 지면보기 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 로그인 회원가입 모바일웹 RSS 최종편집 2022-10-11 14:45 (화) 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 제6회 대한민국 국제 관광박람회 인기상 수상 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제/관광 제주도, 제6회 대한민국 국제 관광박람회 인기상 수상 기자명 임아라 기자 입력 2021.09.13 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도와 제주도관광협회는 9일부터 12일까지 4일간 경기도 일산 킨텍스에서 개최된 ‘제6회 대한민국 국제 관광박람회’에서 인기상을 수상했다. 이번 박람회는 ‘코로나19 이후 국내 관광산업의 선제적 대응’이라는 주제로, 국내 지자체 97개 및 관광 유관 기업·단체 180여개가 참가했다. 제주도와 협회가 운영한 제주관광홍보관에서는 사회적 거리두기 4단계가 지속되는 상황에서도 안전하게 여행할 수 있는 제주 언택트 관광지와 온라인 제주여행 공공플랫폼 탐나오를 집중 홍보했다. 또한 관람객이 참여할 수 있는 제주 캐릭터 열쇠고리 만들기 체험과 UN기후변화협약 당사국 총회(COP28) 제주 유치 서명운동을 진행해 큰 호응을 얻었다. 협회 관계자는 “앞으로도 부산국제관광박람회(9월), 내나라여행박람회(11월) 등 권역별 개최 예정인 주요 관광박람회에 참가해 위드코로나 시대 안전 제주여행 홍보마케팅을 이어나갈 예정”이라고 밝혔다. 임아라 기자 ara4908@daum.net 다른기사 보기 저작권자 © 제주매일 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 최신뉴스 "곶자왈 공유화 기금모금 참여합시다" 제주도개발공사 상임감사에 양진철 교수 임명 서귀포시, 사무관 8명 승진 임용 경제난 속 서귀포시 읍면동 청사 무분별 신축 논란 ‘건강한 서귀포시 만들기 프로젝트’ 재정비 포토뉴스 "곶자왈 공유화 기금모금 참여합시다" 제주도개발공사 상임감사에 양진철 교수 임명 경제난 속 서귀포시 읍면동 청사 무분별 신축 논란 ‘건강한 서귀포시 만들기 프로젝트’ 재정비 인기뉴스 1 “눈을 의심했다” 휘발유·실내등유 가격 차 고작 100원 2 3년 만의 '노마스크' 탐라문화제 '팡파르' 3 ‘천년의 숨결’ 제61회 탐라문화제 막내렸다 4 오영훈 제주도지사 “분산에너지 특구 지정해 달라” 5 “내가 소개하는 작은도서관” 영상공모전 7작 시상 6 다혼디배움학교 현장 여론 존중돼야 7 3년 만에 열리는 제주광어 대축제 8 한국전력 전기요금 인상에 제주 양식업계 반발 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 월광로 37 대표전화 : 064-747-8111 팩스 : 064-747-8116 청소년보호책임자 : 이기봉 법인명 : (주)엔디소프트 제호 : 제주매일 등록번호 : 제주 가 - 00011 등록일 : 2012-05-09 발행일 : 2012-05-09 발행·편집인 : 장동훈 제주매일 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주매일. All rights reserved. mail to news@jejumaeil.net 위로 전체메뉴 전체기사 제8회 지선 전체 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 정치/행정 전체 4·13 총선을 달린다 제주정치돋보기 제주도의회 제8회 지방선거 사회/교육 전체 사회일반 교육 기획 [긴급진단] 제주산돼지고기 청정 이미지 경고등 [진단] 오라동에 비친 제주 난개발의 그림자 원도심 들여다보기 경제/관광 문화 전체 Living &amp; Life 스포츠 전체 전도축구대회 전국체전 전국장애학생체육대회 전국소년체육대회 2018 평창 동계올림픽 2018 평창 동계패럴림픽 기획특집 전체 마을공동체 사업 상생과 경제활성화를 주도한다 -제주매일 ·JDC 공동기획 범도민 바다환경보전 의식제고 프로젝트- 제주도민 생존이 걸린 바다(2021) 제주바다사랑프로젝트- 제주愛 바다愛 - 제주바다를 어떻게 지킬것인가(2020) 제주형 예비 유니콘기업 발굴 육성 - 제주매일 ·JDC 공동기획 살고 싶은 제주 다문화시대, 다양성이 존중되는 제주 만들기 생활에 필요한 법률상식만을 콕!…콕!…콕! 방송/연예 국제 기자수첩 오피니언 종교 전체 제주 순례길 따라 피플 사건사고 설왕설래 포토 Times in English news 이웃소식 만화/만평 전체 시사만화 매일만평 제주매일 포커스 6.4 지방선거 전체 도지사 교육감 도의원 교육의원 브라질월드컵 마라톤 4·13 총선을 달린다 사설 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>관광객은 줄었는데 쓴 돈은 늘었다?…제주도의 속사정 본문 바로가기 이전 페이지 노컷뉴스 구독 언론사를 구독하면 메인에서 바로 볼 수 있어요! 메인 뉴스판에서 노컷뉴스 주요뉴스를 볼 수 있습니다. 보러가기 노컷뉴스 언론사 구독 해지되었습니다. 주요뉴스 생중계 정치 사회 경제 IT 세계 생활 사설/칼럼 랭킹 관광객은 줄었는데 쓴 돈은 늘었다?…제주도의 속사정 입력2021.09.01. 오후 2:36 기사원문 이인 기자 이인 기자 구독자 0 응원수 0 구독 구독중 공감 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 댓글 본문 요약봇 본문 요약봇도움말 자동 추출 기술로 요약된 내용입니다. 요약 기술의 특성상 본문의 주요 내용이 제외될 수 있어, 전체 맥락을 이해하기 위해서는 기사 본문 전체보기를 권장합니다. 닫기 텍스트 음성 변환 서비스 사용하기 성별 남성 여성 말하기 속도 느림 보통 빠름 이동 통신망을 이용하여 음성을 재생하면 별도의 데이터 통화료가 부과될 수 있습니다. 본문듣기 시작 닫기 글자 크기 변경하기 가1단계 작게 가2단계 보통 가3단계 크게 가4단계 아주크게 가5단계 최대크게 SNS 보내기 인쇄하기 단체관광 사라지고 개별여행 자리잡아…재방문율·체류일수·지출비용 늘어핵심요약제주를 찾은 관광객이 올해 상반기 1조 3천억원을 썼는데요. 코로나19 이전인 2019년 보다 20% 가까이 늘었다고 합니다. 관광객은 줄었는데도 소비는 늘어난 건데요. 개별관광객이 많아졌기 때문이라는 분석입니다. 제주올레 제공코로나19 영향이 2년 째 지속되고 있지만 제주에서 관광객의 소비는 코로나19 이전보다 훨씬 많았던 것으로 나타났다.단체로 제주를 찾는 것보다는 개별관광객이 많아지고 체류일수와 재방문률이 늘어나면서 질적 성장을 견인했기 때문으로 분석된다.제주관광공사는 올해 1월부터 6월까지 신한카드 제주 가맹점을 대상으로 매출자료 데이터를 분석해 1일 발표했다.우선 올해 상반기 제주도 전체 소비는 3조 2649억원으로, 지난해 같은 기간(2조 7345억원)보다 19.4% 증가했고 코로나19 이전인 2019년 상반기(3조 552억원)보다도 6.9% 늘었다.특히 관광객의 소비 증가가 두드러졌는데, 올해 상반기 제주를 찾은 관광객은 모두 1조 3093억원을 써 지난해 같은 기간 8434억원보다 55.2%나 급증했다.또 코로나19 이전인 2019년 상반기 관광객이 1조 955억원을 쓴 것 보다도 19.5%가 늘었다.지난해 2월 제주에서 코로나19 확진자가 처음 나온 이후 관광객이 급감했고 올해 상반기에는 회복세가 뚜렷해졌고 소비도 늘어난 것이다. 그런데 올해 상반기 소비가 오히려 코로나19 이전보다도 늘어난 점이 눈에 뛴다.실제로 올해 1월부터 6월까지 제주를 찾은 관광객은 548만 6861명으로 지난해 상반기 453만 1881명보다 21.1%가 증가했다.그러나 지난 2019년 상반기 733만 699명이 제주를 찾은 것과 비교하면 올해 상반기 관광객은 25.1%가 감소했다. 신용카드 사용으로 본 제주 관광 3년의 변화. 제주관광공사 제공코로나19 이전보다 관광객이 줄었는데도 소비가 늘어난 이유는 뭘까?제주관광공사는 단체관광객이 견인하는 양적 성장보다 개별관광객 위주의 질적 성장이 두드러졌기 때문으로 분석한다.고선영 제주관광공사 데이터 R&amp;D 그룹장은 "코로나19를 겪으며 개별여행 트렌드가 자리를 잡았고 재방문율과 체류일수, 지출비용이 늘어나는 등 질적 성장이 이뤄지면서 오히려 소비가 늘고 있다"고 말했다.제주관광공사가 지난해 제주를 방문한 내국인 관광객 3483명을 대상으로 실시해 올해 4월 발표한 '2020년 제주도 방문관광객 실태조사'에서도 그대로 드러난다.제주를 찾은 관광객의 재방문률을 보면 내국인 관광객의 80%가 2차례 이상 제주를 방문해 2019년 69.6%보다 10.4%P 증가했고 재방문 의향은 5점 만점 기준 4.27점으로 2019년에 비해 0.90점 상승했다.소비지출 조사에서는 제주 관광객 1인당 지출 경비가 50만 6344원으로 2019년 46만 9039원보다 3만 7305원 늘었다.체류기간 조사에선 평균 4.17일 제주에 머문 것으로 나타나 2019년보다 0.62일 늘었다. 스마트이미지 제공개별관광객이 소비를 주도하면서 렌터카와 특급호텔 등은 카드 소비가 급증한 반면 단체관광 시절 특수를 누렸던 전세버스와 2급호텔 등은 감소했다. 제주관광공사는 개별여행객이 주로 이용하는 렌터카와 특급호텔, 콘도미니엄은 올해 1월을 제외하면 2019년 상반기보다 두 자릿수 이상 성장률을 보였다고 밝혔다.특히 올해 4월과 5월 렌터카 소비는 2019년 보다 각각 140%, 123%의 증가율을 나타내며 렌터카 품귀현상을 빚기도 했다고 관광공사는 설명했다.반면 전세버스, 2급 호텔, 관광여행사는 2019년 소비 규모와 비교할 때 감소 추세가 뚜렷한 것으로 관광공사는 분석했다.이에 따라 단체관광객을 겨냥한 전세버스와 2급 호텔 등의 관광업계는 개별 여행 트렌드에 맞춘 체질 개선이 시급한 것으로 나타났고 제주도 역시 업계의 자구 노력을 뒷받침 할 수 있는 정책 결정이 이뤄져야 할 것으로 보인다. 제주CBS 이인 기자 twoman@cbs.co.kr 기자 프로필 구독 구독중 이인 기자 구독자 0 응원수 0 굿뉴스만 넘실대는 세상이 왔으면... 코로나19로 중단된 제주광어축제 3년만에 재개 오영훈 제주지사, 제2공항 갈등 대화 요구에 원희룡 외면 노컷뉴스의 구독 많은 기자 노컷뉴스 기사를 더 보고 싶다면? 구독 노컷뉴스 언론사 구독되었습니다. 메인 뉴스판에서 노컷뉴스 주요뉴스를 볼 수 있습니다. 보러가기 노컷뉴스 언론사 구독 해지되었습니다. 닫기 Copyright ⓒ 노컷뉴스. All rights reserved. 무단 전재 및 재배포 금지. 이 기사는 언론사에서 사회 섹션으로 분류했습니다. 기사 섹션 분류 안내 기사의 섹션 정보는 해당 언론사의 분류를 따르고 있습니다. 언론사는 개별 기사를 2개 이상 섹션으로 중복 분류할 수 있습니다. 닫기 구독 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 구독해보세요! 구독중 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 확인해보세요! 보러가기 거짓은 칼컷, 진실은 노컷으로! 네이버에서도 진실은 노컷으로! 주요뉴스해당 언론사에서 선정하며 언론사 페이지(아웃링크)로 이동해 볼 수 있습니다. 루마니아 '백신협력' 화이자·모더나 150만회분 도입 허경영의 ♡…"안상수 빼고 국회의원 전부 정신교육대"[이슈시개] 내년 공적개발원조 1조 원대 껑충…세계 보건위기 해결 동참 [영상]'1350만명 동시 투약할 양' 필로폰 적발…역대 최대 규모 코로나19 4차 대유행 정점 찍은 제주의 8월 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 이 기사를 추천합니다 안내 모두에게 보여주고 싶은 기사라면?beta 이 기사를 추천합니다 버튼을 눌러주세요. 집계 기간 동안 추천을 많이 받은 기사는 네이버 자동 기사배열 영역에 추천 요소로 활용됩니다. 레이어 닫기 노컷뉴스 언론사홈 바로가기 언론사 구독 후 기사보기 구독 없이 계속 보기 더 많은 콘텐츠를 만나는 방법 이 가을, 영화 콘텐츠 한 편 어떠세요? 영화 채널과 함께 문화 지식도 Up! 다양한 영화와 관련된 숨겨진 이야기들도 만나보세요! 노컷뉴스 헤드라인 안철수 "유승민·나경원 전당대회 나와라…국민에 묻자" 핵심요약 안철수 "서울시장 보궐 경선처럼 어려운 국면 바꿀 수 있어야" "尹정부 성공 위해 총선 승리 필수, 저는 헌신할 준비돼" 김기현 "전적으로 동감…총선 승리 바라는 安, 대선 불출마 선언 기대" 차기 당권주자 동료들 보는 앞에서 엉덩이 때려도…'정직 1개월' 부하 직원의 엉덩이를 때리고, 협박과 폭언 등을 한 한국전력거래소의 직장 내 괴롭힘 가해자가 정직 1개월의 솜방망이 처분을 받은 것으로 드러났다. 국회 산업통상자원중소벤처기업위원회(이하 산자위) 양향자 의원(무소속. 군 "北 저수지 탄도미사일, 한미 '킬 체인' 의식"…실효성은 글쎄? 군 당국은 북한이 지난 10일 관영매체를 통해 공개한, 9월 25일 저수지에서 발사한 단거리 탄도미사일(SRBM)에 대해 "한미의 '킬 체인(Kill Chain)'과 감시 능력을 상당히 의식한 것으로 보인다"고 평가 경찰, 텔레그램 성착취 '엘번방' 18명 검거…유포자 3명 구속 경찰이 디지털 성범죄인 '엘(L) 성착취 사건' 피의자 18명을 붙잡아 3명을 구속했다. 또 최근 증거인멸 교사·무고 혐의를 받는 이준석 전 국민의힘 대표를 소환 조사해 조만간 수사를 마무리할 예정이다. 서울경찰청 이재명 "종북몰이 공세, 친일파 같아…한미일 훈련, 尹 소명해야" 핵심요약 민주당 11일 국회서 긴급안보대책회의 개최 이재명 "해방 이후 친일파 행태와 다를 바 없어" "독도 인근 합동 훈련은 국방참사, 안보 자해" 박홍근 "정진석, 전형적인 식민사관 드러내" 한미일 합동군사훈련에 윤 대통령, '한일훈련' 친일 논란에 "핵위협에 어떤 우려가 정당화되나" 윤석열 대통령은 11일 야당이 동해 상에서 벌인 한미일 합동 훈련을 겨냥해 친일 논란을 제기하는 것과 관련해 "핵 위협 앞에서 어떠한 우려가 정당화될 수 있겠느냐"며 "현명한 국민들께서 잘 판단하실 걸로 생각한다"고 이전 뉴스들 보기 3 다음 뉴스들 보기 노컷뉴스가 이 기사의 댓글 정책을 결정합니다. 안내 댓글 정책 언론사별 선택제 섹션별로 기사의 댓글 제공여부와 정렬방식을 언론사가 직접 결정합니다. 기사 섹션 정보가정치를 포함해 중복 분류된 경우 정치섹션 정책이 적용됩니다. 단, 운영규정에 따른삭제나 이용제한 조치는 네이버가 직접수행합니다. 레이어 닫기 노컷뉴스 헤드라인 더보기 안철수 "유승민·나경원 전당대회 나와라…국민에 묻자" 4시간전 동료들 보는 앞에서 엉덩이 때려도…'정직 1개월' 1시간전 군 "北 저수지 탄도미사일, 한미 '킬 체인' 의식"…실효성은 글쎄? 2시간전 경찰, 텔레그램 성착취 '엘번방' 18명 검거…유포자 3명 구속 2시간전 이재명 "종북몰이 공세, 친일파 같아…한미일 훈련, 尹 소명해야" 3시간전 윤 대통령, '한일훈련' 친일 논란에 "핵위협에 어떤 우려가 정당화되나" 5시간전 노컷뉴스 랭킹 뉴스 오후 1시~2시까지 집계한 결과입니다. 오전 11시~오후 2시까지 집계한 결과입니다. 더보기 더보기 많이 본 댓글 많은 1 윤 대통령, '한일훈련' 친일 논란에 "핵위협에 어떤 우려가 정당화되나" 5시간전 2 안철수 "유승민·나경원 전당대회 나와라…국민에 묻자" 4시간전 3 이재명 "종북몰이 공세, 친일파 같아…한미일 훈련, 尹 소명해야" 3시간전 4 러, 우크라 폭격 '보복' 인정…"푸틴 자존심 상처 때문" 5시간전 5 "주가 폭락에 올 들어 국내 상장사 시가총액 633조원 증발" 3시간전 1 윤 대통령, '한일훈련' 친일 논란에 "핵위협에 어떤 우려가 정당화되나" 5시간전 2 안철수 "유승민·나경원 전당대회 나와라…국민에 묻자" 4시간전 3 이재명 "종북몰이 공세, 친일파 같아…한미일 훈련, 尹 소명해야" 3시간전 4 대통령실 "욱일기? 불났는데 이웃 힘 합치는 건 당연" 5시간전 5 "주가 폭락에 올 들어 국내 상장사 시가총액 633조원 증발" 3시간전 함께 볼만한 뉴스 안내 이 기사를 본 이용자들이 함께 많이 본 기사, 해당 기사와 유사한 기사, 관심 기사 등을 자동 추천합니다 닫기 '푸틴 동원령' 러시아 난민들…8명 탄 보트, 韓 동해에도 왔다 블라디미르 푸틴 러시아 대통령이 쏘아 올린 '예비군 30만명 동원령'에 국외 탈출 열풍이 지속되는 가운데 10일(현지시간) 최근 자전거, 요트 등 이색 수단으로 탈출한 사람들이 늘고 있어 화제가 되고 있다. 영국 공 고소득男 60% “결혼하고 싶다”…고소득女 70%는 “계획조차 없다” 1인 가구 고소득자 중 60% 이상의 남성이 결혼을 희망하는 반면, 70% 이상의 여성은 결혼계획이 없거나 ‘비혼주의자’인 것으로 드러났다. KB금융지주 경영연구소는 지난 3일 이 같은 내용을 담은 ‘2022 한국 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 오늘(11일) 오전 5시 33분쯤 서울 서초구 잠원동 신동근린공원 인근 도로에서 50대 남성 A 씨가 권총에 맞아 병원으로 이송됐습니다. A 씨는 인근 병원에서 수술을 받았으나 정확한 상태는 알려지지 않았습니다. 경 ‘전략 핵탄두’ 미국 3508개 vs 러 2565개… 러,우크라 핵타격땐 ‘아마겟돈’ ■ 10문10답-우크라 전쟁 230일째 美,푸틴 수뇌부 자산 동결하고 친러 외국기업인까지 제재확대 러가 우크라 외 나토국 공격땐 美 참전 불가피‘3차대전’우려 러,세계최대 규모 핵잠수함 보유 최대 120일 연속 작전 구미 원룸서 40대女 숨진 채 발견..함께 있던 술 취한 남성 "내가 때린듯" 경북 구미의 한 원룸에서 40대 여성이 사망한 채 발견됐다. 11일 경찰 등에 따르면 지난 10일 오후 2시쯤 경북 구미시 원평동의 한 원룸에서 40대 남성 A씨가 함께 있던 여성 B씨가 숨을 쉬지 않는다고 119에 "저 죽어요? 우리 애들은" 대낮 남편에 살해된 아내 뒤늦게 알려진 이유 지난 5월 7일 여수의 한 아파트 주차장에서 남편의 의처증과 폭력으로 고통을 호소해 온 여성이 이혼 통보 후 무참히 살해됐다. 여수 의처증 살인사건은 ‘어린 피해자의 자녀들이 상처 입을까’ 경찰이 보도 자제를 요청하 나물 캐다 찾은 백골 사체…10평 동거 지적장애인들의 최후 지적장애인을 폭행해 살해한 후 시신을 야산에 암매장한 혐의로 중형을 선고받은 20∼30대 남성 2명이 1심 판결에 불복해 항소했다. 11일 법조계에 따르면 살인 및 사체유기 혐의로 징역 20∼30년을 선고받은 A(2 아이폰 들고 놀이기구 탔을 뿐인데…부재중전화 잔뜩 왜? 미국의 30대 치과의사인 사라 화이트는 지난달 가족과 함께 오하이오주 신시내티에 있는 놀이공원 킹스 아일랜드를 방문했습니다. 화이트는 새로 산 아이폰14 프로를 허리에 매는 가방에 넣은 상태로 롤러코스터를 탔습니다. 정진석 “조선, 일본군 때문에 망한 것 아냐… 안에서 썩어 문드러져” 여당 대표가 ‘식민사관’ 기반 주장 펼쳐 파장 정 비대위원장, 이재명 겨냥 “경박한 역사 인식” 이재명, 한미일 군사훈련에 대해 “친일 국방”이라고 공세 野 “철학적으로 문제가 있는 것” 국민의힘 정진석 비상대책위원 신화 신혜성, 도난차량서 음주측정 거부하다 체포 신화의 신혜성이 음주측정을 거부하다가 체포됐다. 신씨는 도난 신고가 들어온 차량을 타고 있었다. 11일 서울 송파경찰서는 이날 오전 1시 40분께 송파구 탄천2교에서 신씨를 도로교통법상 음주측정거부, 절도 혐의로 체 "박민영 열애설 났을 때 팔 걸"…돈 물린 개미들 후회 [종토방 온에어] 암호화폐 거래소 '빗썸' 관계사들의 주가가 곤두박질치고 있다. 검찰이 이들 기업 경영진의 횡령 혐의를 포착해 강제수사에 착수한 영향으로 풀이된다. 11일 오전 10시 13분 현재 인바이오젠은 가격제한폭인 29.76% 추락 사고 잇따르는 ‘국내 최장’ 인천대교…“특단 대책 시급” 국내에서 가장 긴 다리인 인천대교에서 최근 5년간 40건이 넘는 투신 사고가 발생해 30명이 목숨을 잃은 것으로 나타났다. 특히 지난해부터 사고가 급증하고 있어 대책 마련이 시급하다. ● 끊이지 않는 인천대교 투신 집주인이 乙됐다… 서울 역전세난, 은마도 2년전보다 싼 매물 속출 서울 아파트 전셋값이 매물 증가와 거래 감소로 약세를 보이면서 전세 시세가 2년 전 실거래 가격보다 떨어진 단지들이 속출하고 있다. 이에 집주인이 전세 재계약을 하면서 기존 세입자에게 보증금을 돌려주는 데 어려움을 “만취한 신혜성, 본인 차 아닌지도 모르고 운전” 11일 새벽 서울 송파구 탄천2교에서 음주측정거부로 현행범 체포돼 물의를 빚은 그룹 신화 멤버 신혜성(정필교·43)이 혐의를 인정하고 사과했다. 라이브웍스컴퍼니는 이날 오전 공식 SNS를 통해 “신혜성은 전날 오후 "8억 넣었는데 반토막"…신불자 위기 카뱅 직원 '비명' ‘노란 메기가 피라미로 전락했나.’ 카카오뱅크·카카오페이가 혁신을 잃어버렸다는 비판에 직면했다. 두 회사 모두 3분기 호실적이 예상되지만 주가가 곤두박질치고 있는 것도 이 때문이라는 분석이다. 우리사주에 청약한 직원 '나 무시하는거야?' 라면 끓이다 폭발한 남편의 깨달음 [시력 잃고 알게 된 세상] 희망이 사라진다는 건 내가 지워진다는 것 오늘은 남과의 관계가 아닌 내 맘속 그러니까 나와의 관계, 그중에서도 희망이 사라져가던 한때의 경험을 이야기해 보려 한다. 희망은 꼭 대단한 걸 바라는 게 아니다. 성공하겠다 [단독] 김정숙 여사 인도 갈 때 靑요리사도 데려갔다… 방문단 명단 보니 김정숙 여사 인도 방문단 명단 보니 영부인 나흘 출장에 경호실 제외하고도 13명 동행 우리측 주최 공식 식사 없는데 대통령 요리사 대동시켜 문재인 대통령 부인 김정숙 여사의 2018년 11월 인도 방문이 ‘쓰지 않았 "우크라에 무더기 미사일 쏜 푸틴, 러 강경파 압력에 굴복" 크림대교 폭발로 불만 높아진 러 강경파, 보복 공격에 '환호성'"푸틴, 곧 전술핵 사용 시사해 위협 더 끌어올릴 수도"폭격당한 우크라이나 키이우[로이터=연합뉴스 자료사진. 재판매 및 DB 금지] (서울=연합우크라이나 키이우 등을 향한 러시아의 대규모 폭격을 두고 해석이 분분한 가운데, 블라디미르 푸... 배달사업자 연 9천만 원 버는데…"택시 연매출 3천만 원" 택시 기사의 연간 매출액이 3000만원 수준으로 퀵·배달대행 서비스업에 종사하는 소상공인과 비교해 3분의 1 수준인 것으로 나타났습니다. 오늘(11일) 국회 산업통상자원중소벤처기업위원회 소속 구자근 국민의힘 의원이 [속보] “러시아 서부 벨고로드에서도 큰 폭발음” 우크라이나 수도 키이우가 크림대교 폭발 이틀만인 10일(현지시간) 공습을 당한 가운데 러시아 서부 벨고로드에서도 큰 폭발음이 들렸다고 로이터통신이 목격자를 인용해 보도했다. 로이터는 “우크라이나 국경에서 가까운 벨고 "하룻밤에 13만원 써요"…'데이트하다 빚졌다'는 美 MZ세대 미국 MZ세대(밀레니얼+Z세대) 중 상당수가 데이트 비용 때문에 빚을 졌다는 설문조사 결과가 나왔다. CNBC방송은 10일(현지시간) 미국 온라인 대출업체 렌딩트리의 설문조사 결과를 인용해 미국 밀레니얼 세대(26~ 재생하기 재생시간02:37 당뇨약으로 나왔다 비만약으로 대박!...체중 20% 쏙 빠져 당뇨병 환자의 상당수는 과체중이나 비만인 경우가 많은 데요. 그런데 애초 당뇨약으로 개발됐지만, 체중 감량 효과가 커 비만 치료제로 크게 각광받는 약이 미국에서 잇달아 나오고 있습니다. 비만약으로 대박을 터뜨리게 된 도시 전체가 ‘노키즈존’…놀이터가 7만개인데 “놀 곳이 없어요”[투명장벽의 도시②] “이것 봐, 내가 만들었다!” 지난달 23일 경기 성남시의 한 도서관에서 만난 9세 예은이는 한껏 들떠 있었다. 나무 막대로 직접 만든 장난감을 자랑하며 실내를 누비는 발걸음이 가벼웠다. 예은이의 작품은 도서관 내에 “출근시간에 펑…” 미사일 폭격 속 질주하는 시민[영상] 러시아가 크림대교 폭발 사고 이후 이틀 만인 지난 10일(현지시간) 우크라이나 수도 키이우 등 주요 도시에 미사일 공격을 퍼부은 가운데 공습 당시 다리를 건너다 가까스로 목숨을 건진 시민의 모습이 포착됐다. 10일 오메가3, 비타민… 하루 중 언제 먹을까? 건강기능식품의 인기가 식지 않고 있다. 한국건강기능식품협의회에 따르면 지난 2021년 국내 건강기능식품 시장규모는 5조454억 원으로 전년 대비 2.4% 성장했다. 다만, 건강기능식품별로 먹으면 좋은 때와 주의사항이 “1억원 손실, 부부싸움까지 했어요” 15만원→5만 카카오, 말이 돼? “카카오 때문에 화병 나겠습니다. 부부싸움까지 했어요. 1억원 넘게 손실인데 와이프가 이제라도 팔라고 하네요. 조만간 오르겠지 기대하고 안 팔고 버텼는데 이 지경이 됐으니….”(카카오 투자자) “지하까지 내려온 줄 [집값 버블붕괴의 시작] ①세종·인천 와르르…서울 청약불패 옛말 부동산 시장이 얼어붙으면서 집값은 떨어지고 거래절벽 현상이 극심해지고 있다. 로또 분양은 옛말이 됐고 서울 청약 열기도 이미 가신 지 오래다. 집값 폭등 원인인 '저금리, 과잉 유동성'의 시대가 끝나고 '금리 인상, "손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 기사내용 요약 애플워치7, 해외서 과열·폭발 우려 제기돼…기기서 연기 '풀풀' 국내서도 애플워치 착용자 우려 계속…국표원 조사까지 받아 갤워치도 손목 화상 주장 나와…소송 지원 집단이 제보받기도 [서울=뉴시스]윤현성 [단독]새만금 풍력 7200배 수익올린 교수…애초부터 中에 지분넘길 계획이었다 한수원, ‘중국계 태국기업 100% 양도’ 공문 받고 “사전 협의없이 지분구조 변경 깊은 유감” 문재인 정부 시절 새만금 해상풍력발전사업(사진)에 앞장선 전북대 S 교수가 사업권을 중국계 회사에 넘기고 자본금의 72 서울서 50대 권총에 맞아…"극단적 선택 추정"(종합) 경찰 "총기번호 부여된 38구경 권총…소지 경위 조사" 11일 오전 5시 33분께 서울 서초구 잠원동 신동근린공원 인근 도로에서 50대 남성 A씨가 권총에 맞은 채로 발견돼 병원으로 이송됐다. A씨는 현재 수술 중으 이전 뉴스들 보기 5 다음 뉴스들 보기 함께 볼만한 프리미엄 안내 프리미엄콘텐츠는 네이버가 인터넷뉴스 서비스사업자로서 제공, 매개하는 기사가 아니고, 해당 콘텐츠 제공자가 프리미엄 회원을 대상으로 별도로 발행·제공하는 콘텐츠입니다. 닫기 유료 로스쿨 출신 검사의 출신 로스쿨과 학부 현황 에듀필통 유료 블룸에너지 위험하지만 상당한 잠재력 버핏2배랩 [221011 투자시나리오] 에어라인 국감에서 나온 기후 이슈들 (1) 기후보좌관입니다 유료 “느영나영 모다들엉 지꺼지게” 서귀포칠십리축제 14일 개막 제주여행 유료 사회 초년생을 위한 재테크 (7): 아무도 가르쳐주지 않는 저축의 기술 (2) RK의 글스토랑 유료 햄버거 전문점에 도전하는 편의점은 왜 생겨나는 걸까? 노준영의 트렌드로 요즘 세상 읽기 유료 [편지로 채우는 한 잔] 헤어질 준비 English Cafe 달아, 나 당신의 일기장 글쓰기와 보고서의 공통점 스크류 유료 [영어표현] glow up / suit yourself / piggyback ride 우야한 영어사전 유료 #중국 반도체 숨통 조이기 # 다시 나타난 김정은 #푸틴의 굴욕 #친일국방 vs 죽창가 업클 이전 콘텐츠들 보기 3 다음 콘텐츠들 보기 구독 본문 듣기를 종료하였습니다. 이 기사를 추천했습니다. 추천을 취소했습니다. 맨위로 로그인 전체서비스 서비스안내 뉴스도움말 오류신고 본 콘텐츠의 저작권은 제공처 또는 네이버에 있으며, 이를 무단이용하는 경우 저작권법 등에 따라 법적책임을 질 수 있습니다. ⓒ NAVER Corp. ⓒ 노컷뉴스 예 아니오</t>
+  </si>
+  <si>
+    <t>제주도, 추석연휴 관광사업장 방역수칙 특별점검 실시 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 추석연휴 관광사업장 방역수칙 특별점검 실시 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도, 추석연휴 관광사업장 방역수칙 특별점검 실시 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2021.09.03 13:48 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도는 추석 연휴 코로나19 확산 방지를 위해 관광사업체를 대상으로 방역수칙 준수 여부 등을 특별 점검한다고 3일 밝혔다. 제주도는 지난해 1월부터 방역수칙 준수 주요시설인 관광호텔 등 숙박시설과 관광사업체를 대상으로 특별 방역 점검 및 방역물품을 지원해 왔다. 올 2월부터 관광협회·관광공사와 함께 민·관 합동 점검체계를 구축해 방역수칙 준수 여부에 대한 현장 점검을 강화하고 있다. 특히, 비대면 위주로 영업하고 있는 여행업과 기타 편의시설업을 점검 대상에 추가하고, 방역지침 홍보와 함께 현장지도 에 나설 방침이다. 올 들어 8월말 현재 관광사업체 5363개소에 대해 점검을 벌인 것으로 집계됐다. 김승배 제주도 관광국장은 “앞으로도 다중이용시설인 관광사업체 뿐만 아니라 기타 관광사업장에 대해서도 수시 점검을 벌여 안정관광 이미지를 구축해 나가겠다”고 말했다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 6 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도 관광객, 코로나19 이전보다 씀씀이 더 커졌다 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 관광객, 코로나19 이전보다 씀씀이 더 커졌다 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 제주도 관광객, 코로나19 이전보다 씀씀이 더 커졌다 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2021.09.01 11:14 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주관광 신용카드 매출자료 분석 결과, 관광소비 크게 늘어고비용·개별여행 중심 전환...관광업종 간 양극화 여전 코로나19가 장기화되면서 제주도 방문 관광객 수는 줄었으나, 여행객들의 씀씀이는 코로나19 이전보다도 커진 것으로 나타났다. 제주특별자치도와 제주관광공사는 1일 신용카드 매출자료 데이터를 분석한 '올해 상반기 제주관광 소비 영향 분석' 결과를 발표했다. 분석 결과에 따르면, 올해 상반기 제주지역 소비 증가율은 지난해 같은 기간 대비 19.4% 증가했다. 또 코로나 발생 전인 2019년 상반기와 비교해서도 6.9% 늘어난 것으로 나타났다. 이는 올해 상반기 전국 평균 소비 증가율(2.1%) 및 2019년 상반기 소비 증가율(-3.7%)과 비교해서도 크게 높은 수준이다. 세부적으로 보면, 관광객들의 소비가 두드러지게 증가했다. 올해 상반기 제주도 전체 소비에서 제주를 방문한 내국인 관광객이 차지하는 비중은 38.7%로 나타났다. 전체 관광객의 소비 증가율은 지난해 대비 55.2%, 2019년 대비 19.5% 늘어난 것으로 분석됐다. 특히 내국인 관광객의 소비상승세가 코로나19 이전 수준을 크게 초과한 것으로 나타났다. 내국인 관광객은 올해 상반기 소비 증가율은 지난해 대비 무려 58.3% 증가한 것으로 나타났다. 2019년 상반기와 비교해서도 31% 늘었다. 그러나 코로나19의 4차 유행이 발생했던 5월 이후에는 증가세가 다소 주춤한 것으로 나타났으며, 외국인 관광객은 올해도 전혀 회복하지 못하고 있는 것으로 나타났다. 이러한 관광 소비 규모의 증가에도 불구하고, 관광객의 소비는 렌터카, 특급호텔, 콘도미니엄 등 고비용의 개별여행에 관련된 특정 업종에 편중된 경향을 보였다. 여행, 숙박 관련 업종 중 렌터카, 특급호텔, 콘도미니엄은 올해 1월을 제외하고는 2019년 상반기 대비 두 자릿수 이상 성장률을 보인 것으로 분석됐다. 특히 4, 5월 렌터카는 2019년 대비 각각 140%, 123%의 증가율을 나타내며 렌터카 품귀현상을 빚기도 했다. 반면 전세버스, 2급 호텔, 관광여행사는 '2019년 소비 규모와 비교했을 때, 여전히 감소하고 있는 것으로 분석됐다. 코로나19 이후 단체여행을 꺼리는 현 상황이 당분간은 지속될 것으로 보이는 바, 체질 개선을 위해 적극적으로 고민해야 할 것으로 보인다. 제주관광공사 관계자는 "앞으로도 지속적인 빅데이터 분석과 다양한 조사를 통해 코로나19로 인한 피해를 모니터링하고 이를 기반으로 과학적인 지원 및 마케팅 방안 수립으로 대응할 것"이라고 밝혔다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 6 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>추석 때 관광객 몰려온다?… 제주도, 거리두기 4단계 ‘철벽방어’ 본문 바로가기 이전 페이지 머니S 구독 언론사를 구독하면 메인에서 바로 볼 수 있어요! 메인 뉴스판에서 머니S 주요뉴스를 볼 수 있습니다. 보러가기 머니S 언론사 구독 해지되었습니다. 주요뉴스 정치 경제 사회 IT 세계 생활 랭킹 추석 때 관광객 몰려온다?… 제주도, 거리두기 4단계 ‘철벽방어’ 입력2021.09.04. 오전 9:04 수정2021.09.04. 오전 9:04 기사원문 전민준 기자 전민준 기자 구독자 0 응원수 0 구독 구독중 공감 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 댓글 본문 요약봇 본문 요약봇도움말 자동 추출 기술로 요약된 내용입니다. 요약 기술의 특성상 본문의 주요 내용이 제외될 수 있어, 전체 맥락을 이해하기 위해서는 기사 본문 전체보기를 권장합니다. 닫기 텍스트 음성 변환 서비스 사용하기 성별 남성 여성 말하기 속도 느림 보통 빠름 이동 통신망을 이용하여 음성을 재생하면 별도의 데이터 통화료가 부과될 수 있습니다. 본문듣기 시작 닫기 글자 크기 변경하기 가1단계 작게 가2단계 보통 가3단계 크게 가4단계 아주크게 가5단계 최대크게 SNS 보내기 인쇄하기 제주특별자치도가 사회적 거리두기 4단계를 오는 22일까지 연장하며 코로나19 확산 차단에 나섰다.제주지역 사회적 거리두기가 4단계로 격상된 첫날인 18일 저녁 제주시 함덕해수욕장에 거리두기 안내문이 걸려 있다./사진=뉴스1 제주특별자치도가 사회적 거리두기 4단계를 오는 22일 자정까지 2주 더 연장하며 철벽방어 태세에 들어갔다. 제주도는 단계를 조정할 경우 풍선효과로 관광객과 귀성객이 몰릴 가능성 등을 고려해 추석연휴까지 4단계를 유지한다고 3일 밝혔다. 다만 정부의 예방접종 인센티브 확대 방침에 따라 제주 역시 오는 6일부터 식당·카페 및 가정에서 모일 수 있는 인원 제한을 다소 완화한다. 오후 6시이후에는 원칙적으로 2인까지만 사적모임이 가능하지만 예방접종 완료자 4명을 포함해 최대 6명까지 허용된다. 추석연휴를 포함한 17일부터 23일까지 1주일간은 직계가족이고 접종 완료자가 4명일 경우에 한해 가정 내 모임이 최대 8명까지 허용된다. 식당·카페의 매장 영업도 오후 9시에서 오후 10시까지 1시간 연장된다. 결혼식은 현재 49인까지만 허용하고 있지만 식사 제공이 없는 경우 최대 99명까지 허용(취식하는 경우 현행 49인 유지)한다. 제주도는 이와 함께 13일부터 26일까지 추석 특별방역대책을 추진한다. 백신접종 완료 또는 진단검사 후 최소인원으로 고향을 방문하고 부모가 백신 미접종인 경우 되도록 방문을 자제하거나 미뤄달라고 당부했다. 고향 방문 후에는 집에 머물며 증상을 관찰하고 증상이 있으면 진단검사를 독려할 예정이다. 요양병원 등의 보호시설의 경우 13일부터 26일까지 2주간 방문 면회를 허용한다. 면회객 분산을 위해 사전 예약을 해야 한다. 면회객이 예방접종 완료자인 경우 접촉 면회를 허용한다. 전민준 기자 (minjun84@mt.co.kr) 기자 프로필 구독 구독중 전민준 기자 구독자 0 응원수 0 안녕하세요. 머니S 전민준 기자입니다. 전현무, 장윤정에 낚였다… "사랑의 자물쇠 걸어봤다" 고백 "저 죽어요? 우리 애들 어떡해"… 남편에 살해당한 아내의 마지막 절규 머니S의 구독 많은 기자 머니S 기사를 더 보고 싶다면? 구독 머니S 언론사 구독되었습니다. 메인 뉴스판에서 머니S 주요뉴스를 볼 수 있습니다. 보러가기 머니S 언론사 구독 해지되었습니다. 닫기 Copyright ⓒ 머니S. All rights reserved. 무단 전재 및 재배포 금지. 이 기사는 언론사에서 사회 섹션으로 분류했습니다. 기사 섹션 분류 안내 기사의 섹션 정보는 해당 언론사의 분류를 따르고 있습니다. 언론사는 개별 기사를 2개 이상 섹션으로 중복 분류할 수 있습니다. 닫기 구독 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 구독해보세요! 구독중 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 확인해보세요! 보러가기 여론확인 '머니S설문' 머니S, 네이버 메인에서 보세요 주요뉴스해당 언론사에서 선정하며 언론사 페이지(아웃링크)로 이동해 볼 수 있습니다. 제시, 입술도 몸매도 역대급 볼륨감 "단추가 힘겹게 버티는 중" '김태희♥' 비, "진정한 사랑? 홍어찜 먹고 키스" [★화보] 이영애, 패션 매거진 커버 장식… 치명적 고혹美 '치명적 유혹 '클라라… 어깨 드러낸 채 도발적 포즈 "핫바디 그녀"… 박슬기, 슬립 원피스 입고 '도발' 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 이 기사를 추천합니다 안내 모두에게 보여주고 싶은 기사라면?beta 이 기사를 추천합니다 버튼을 눌러주세요. 집계 기간 동안 추천을 많이 받은 기사는 네이버 자동 기사배열 영역에 추천 요소로 활용됩니다. 레이어 닫기 머니S 언론사홈 바로가기 언론사 구독 후 기사보기 구독 없이 계속 보기 더 많은 콘텐츠를 만나는 방법 이 가을, 영화 콘텐츠 한 편 어떠세요? 영화 채널과 함께 문화 지식도 Up! 다양한 영화와 관련된 숨겨진 이야기들도 만나보세요! 머니S 헤드라인 "공교육 지출 늘어도 사교육비 OECD 상위권"… 가계부담 여전 국내 초·중·고교생과 대학생의 교육비 가운데 민간 부담이 여전히 높은 것으로 나타났다. 정부의 공교육비 1인당 지출액이 늘었지만 이는 학령인구 감소로 나타난 현상이란 지적도 제기됐다. 11일 서동용 의원(더불어민주당 기아 노조, 총파업 임박… "2년마다 신차 30% 할인 양보 못해" 기아 노조가 총파업에 돌입할 태세다. 노조원의 퇴직 뒤 차량 구입 시 할인혜택을 담은 이른바 '평생사원증' 단체협약(단협) 논의에서 사측과 타협점을 찾지 못해서다. 11일 기아에 따르면 노조 지도부는 이날 오후 2시 유병호 감사원 사무총장 "문자 논란 송구스럽다" 유병호 감사원 사무총장이 최근 제기되고 있는 '문자 논란'과 관련해 사과했다. 문자 내용에 대해선 '정상적인 소통'이라고 주장했다. 유 사무총장은 11일 서울 여의도 국회에서 진행된 국회 법제사법사위원회 감사원 국정 동거녀 지적장애 딸 학대한 50대男… 집행유예 선고 이유 사실혼 관계인 동거녀의 지적장애 딸을 학대한 남성이 징역형의 집행유예를 선고받았다. 11일 뉴스1에 따르면 이날 인천지법 형사2단독(곽경평 판사)은 아동복지법상 아동학대 혐의로 기소된 A씨(남·59)에게 징역 6개월 [르포] '에너지 심장' SK 울산 CLX 가보니… 대규모 시설에 '휘둥그레' 2027년까지 5조원 투자… 친환경 소재·리사이클 리딩 플랜트로 거듭난다 SK 울산 콤플렉스(울산 CLX)는 1962년부터 지난 60년 동안 대한민국 에너지 공급을 선도해 왔다. 석유화학산업의 핵심 역할을 하는 SK 변함없는 이호진식 갑질… 흥국생명, 직원에 준 볼펜값도 월급 포함 태광그룹의 직원에 대한 갑질 문화가 계열사까지 팽배하다는 주장이 제기됐다. 국회 정무위원회 소속 국민의힘 최승재 의원은 태광그룹 보험계열사인 흥국생명이 판촉용 볼펜 한 개 대금까지 보험설계사들 급여에 반영하는 등 갑 이전 뉴스들 보기 3 다음 뉴스들 보기 머니S가 이 기사의 댓글 정책을 결정합니다. 안내 댓글 정책 언론사별 선택제 섹션별로 기사의 댓글 제공여부와 정렬방식을 언론사가 직접 결정합니다. 기사 섹션 정보가정치를 포함해 중복 분류된 경우 정치섹션 정책이 적용됩니다. 단, 운영규정에 따른삭제나 이용제한 조치는 네이버가 직접수행합니다. 레이어 닫기 머니S 헤드라인 더보기 "공교육 지출 늘어도 사교육비 OECD 상위권"… 가계부담 여전 56분전 기아 노조, 총파업 임박… "2년마다 신차 30% 할인 양보 못해" 1시간전 유병호 감사원 사무총장 "문자 논란 송구스럽다" 55분전 동거녀 지적장애 딸 학대한 50대男… 집행유예 선고 이유 1시간전 [르포] '에너지 심장' SK 울산 CLX 가보니… 대규모 시설에 '휘둥그레' 57분전 변함없는 이호진식 갑질… 흥국생명, 직원에 준 볼펜값도 월급 포함 3시간전 머니S 랭킹 뉴스 오후 1시~2시까지 집계한 결과입니다. 오전 11시~오후 2시까지 집계한 결과입니다. 더보기 더보기 많이 본 댓글 많은 1 한화, 대우조선 이어 KAI도 품을까 8시간전 2 美, 대중 반도체 규제에… 삼성전자·SK하이닉스, 일제히 '약세' 3시간전 3 변함없는 이호진식 갑질… 흥국생명, 직원에 준 볼펜값도 월급 포함 3시간전 4 새 판 짜는 한화, 중심엔 '김동관 리더십' 8시간전 5 기아 노조, 총파업 임박… "2년마다 신차 30% 할인 양보 못해" 1시간전 1 [머니S포토] 이복현 "공매도 국민 눈높이 맞춰 형평성 있게 보완" 1시간전 2 기아 노조, 총파업 임박… "2년마다 신차 30% 할인 양보 못해" 1시간전 3 변함없는 이호진식 갑질… 흥국생명, 직원에 준 볼펜값도 월급 포함 3시간전 4 주호영, 野 '욱일기' 공세에… "현실 인식에 문제있어" 4시간전 5 "주가 부양 목적" 카카오뱅크 임원진, 5만4685주 자사주 매입 4시간전 함께 볼만한 뉴스 안내 이 기사를 본 이용자들이 함께 많이 본 기사, 해당 기사와 유사한 기사, 관심 기사 등을 자동 추천합니다 닫기 배달사업자 연 9천만 원 버는데…"택시 연매출 3천만 원" 택시 기사의 연간 매출액이 3000만원 수준으로 퀵·배달대행 서비스업에 종사하는 소상공인과 비교해 3분의 1 수준인 것으로 나타났습니다. 오늘(11일) 국회 산업통상자원중소벤처기업위원회 소속 구자근 국민의힘 의원이 "저 죽어요? 우리애들 어떡해요" 남편에 살해당한 여성의 가슴저린 말 남편의 의처증과 폭력으로 고통을 호소해 온 여성이 이혼 통보를 하자마자 무참히 살해됐다. 여성은 숨지기 직전까지 아이들만 걱정했다. 지난 6일 MBC '실화탐사대'에서는 지난 5월 발생한 '여수 의처증 살인 사건'을 [단독] 김정숙 여사 인도 갈 때 靑요리사도 데려갔다… 방문단 명단 보니 김정숙 여사 인도 방문단 명단 보니 영부인 나흘 출장에 경호실 제외하고도 13명 동행 우리측 주최 공식 식사 없는데 대통령 요리사 대동시켜 문재인 대통령 부인 김정숙 여사의 2018년 11월 인도 방문이 ‘쓰지 않았 [단독]“어머니, 어머니…” 떨리는 112 전화, 경찰이 눈치챘다 “여보세요. 어머니, 어머니… 어머니, 저 모르겠어요. 여기가 어딘지 모르겠어요." 지난 9월 29일 새벽 4시를 훌쩍 넘긴 야심한 시각. 울산경찰청 112 신고로 한 소년이 전화해 대뜸 ‘어머니’를 연신 애타게 찾 아이폰 들고 놀이기구 탔을 뿐인데…부재중전화 잔뜩 왜? 미국의 30대 치과의사인 사라 화이트는 지난달 가족과 함께 오하이오주 신시내티에 있는 놀이공원 킹스 아일랜드를 방문했습니다. 화이트는 새로 산 아이폰14 프로를 허리에 매는 가방에 넣은 상태로 롤러코스터를 탔습니다. ‘일제고사’ 부활 선언…윤 대통령 “원하는 모든 학교 참여” 윤석열 대통령이 11일 “지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고, 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력안전망을 만들겠다”고 밝혔다. 윤 대통령은 이 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 11일 오전 5시 33분쯤 서울 서초구 잠원동 신동근린공원 인근 도로에서 50대 남성 A씨가 권총에 맞아 병원으로 이송됐다. A씨는 인근 병원에서 수술을 받았으나 정확한 상태는 알려지지 않았다. 경찰은 A씨가 극단적 추락 사고 잇따르는 ‘국내 최장’ 인천대교…“특단 대책 시급” 국내에서 가장 긴 다리인 인천대교에서 최근 5년간 40건이 넘는 투신 사고가 발생해 30명이 목숨을 잃은 것으로 나타났다. 특히 지난해부터 사고가 급증하고 있어 대책 마련이 시급하다. ● 끊이지 않는 인천대교 투신 집주인이 乙됐다… 서울 역전세난, 은마도 2년전보다 싼 매물 속출 서울 아파트 전셋값이 매물 증가와 거래 감소로 약세를 보이면서 전세 시세가 2년 전 실거래 가격보다 떨어진 단지들이 속출하고 있다. 이에 집주인이 전세 재계약을 하면서 기존 세입자에게 보증금을 돌려주는 데 어려움을 '나 무시하는거야?' 라면 끓이다 폭발한 남편의 깨달음 [시력 잃고 알게 된 세상] 희망이 사라진다는 건 내가 지워진다는 것 오늘은 남과의 관계가 아닌 내 맘속 그러니까 나와의 관계, 그중에서도 희망이 사라져가던 한때의 경험을 이야기해 보려 한다. 희망은 꼭 대단한 걸 바라는 게 아니다. 성공하겠다 "손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 기사내용 요약 애플워치7, 해외서 과열·폭발 우려 제기돼…기기서 연기 '풀풀' 국내서도 애플워치 착용자 우려 계속…국표원 조사까지 받아 갤워치도 손목 화상 주장 나와…소송 지원 집단이 제보받기도 [서울=뉴시스]윤현성 "우크라에 무더기 미사일 쏜 푸틴, 러 강경파 압력에 굴복" 크림대교 폭발로 불만 높아진 러 강경파, 보복 공격에 '환호성'"푸틴, 곧 전술핵 사용 시사해 위협 더 끌어올릴 수도"폭격당한 우크라이나 키이우[로이터=연합뉴스 자료사진. 재판매 및 DB 금지] (서울=연합우크라이나 키이우 등을 향한 러시아의 대규모 폭격을 두고 해석이 분분한 가운데, 블라디미르 푸... ‘尹 멘토’ 신평, 주어 없는 저격글 ‘파장’…“A씨, 직책 내정에 유력 인사 도움 받아” 尹대통령 ‘정권교체’ 함께 도운 A씨 겨냥 “부적절한 직책 내정” 직격 “그 직책에 당신의 직무적합성을 아무리 찾으려고 해도 찾을 수 없어” “자신의 힘으로는 벅찬지, 다른 유력 인사의 도움 받았다는 소문이 파다하더 “만취한 신혜성, 본인 차 아닌지도 모르고 운전” 11일 새벽 서울 송파구 탄천2교에서 음주측정거부로 현행범 체포돼 물의를 빚은 그룹 신화 멤버 신혜성(정필교·43)이 혐의를 인정하고 사과했다. 라이브웍스컴퍼니는 이날 오전 공식 SNS를 통해 “신혜성은 전날 오후 [집값 버블붕괴의 시작] ①세종·인천 와르르…서울 청약불패 옛말 부동산 시장이 얼어붙으면서 집값은 떨어지고 거래절벽 현상이 극심해지고 있다. 로또 분양은 옛말이 됐고 서울 청약 열기도 이미 가신 지 오래다. 집값 폭등 원인인 '저금리, 과잉 유동성'의 시대가 끝나고 '금리 인상, 정진석 “조선은 안에서 썩어 망해…일본, 조선과 전쟁 안해” 정진석 국민의힘 비상대책위원장은 11일 “조선은 안에서 썩어 문드러졌고, 그래서 망했다. 일본은 조선왕조와 전쟁을 한 적이 없다”고 말했다. 민주당에선 “일본 제국주의 침략을 정당화했던 이완용 같은 친일 앞잡이들이 “40% 하락한 실거래가 더 떨어진다"…서울 거주자, 인천·경기 투자 발길 '뚝' 수도권 아파트값 하락세가 가팔라지면서 서울 거주자의 인천·경기 투자 발길도 뚝 떨어졌다. 지난해 한때 20%에 육박했던 서울 거주자 매입 비중은 최근 12% 수준까지 하락한 것으로 나타났다. 11일 한국부동산원에 따 尹 “청년에 임대주택 줄 게 아니라 내 집 마련 도와야” 윤석열 대통령은 11일 “청년들이 임대주택과 현금을 그냥 쥐여줄 것이 아니라 내 집 마련과 자산형성을 할 수 있도록 도와야 한다”고 말했다. 윤 대통령은 이날 오전 용산 대통령실 청사에서 열린 제45회 국무회의 모두 성일종 “인공기는 괜찮은가” vs 이재명 “해방 후 친일파 행태” 여야가 동해에서 이뤄진 한미일 연합훈련을 두고 정면충돌하고 있다. 더불어민주당은 이재명 대표가 직접 나서 윤석열 대통령이 직접 소명해야 한다며 공세 수위를 높였고, 국민의힘도 정진석 비대위원장이 전면에 나서 안보를 정진석 “조선, 일본군 때문에 망한 것 아냐… 안에서 썩어 문드러져” 여당 대표가 ‘식민사관’ 기반 주장 펼쳐 파장 정 비대위원장, 이재명 겨냥 “경박한 역사 인식” 이재명, 한미일 군사훈련에 대해 “친일 국방”이라고 공세 野 “철학적으로 문제가 있는 것” 국민의힘 정진석 비상대책위원 "하룻밤 데이트에 13만원"…연애하려 빚졌다는 MZ세대 최근 고물가·고금리로 청년층의 경제적 부담이 커진 미국에서 ‘MZ세대’ 상당수가 데이트 비용을 마련하기 위해 부채를 경험했다는 통계가 나왔다. 미국 CNBC방송은 10일(현지시간) 미국 온라인 대출업체 렌딩트리의 설 윤 대통령 "청년 꿈 좌절되지 않게 해야" 윤석열 대통령은 오늘 국무회의에서 청년 정책을 주제로 토론하면서 "청년들의 꿈이 좌절되지 않도록 할 책임이 저와 국무위원, 우리 정부에 있다"며 "청년들이 공정한 출발선에 선 채 미래를 설계할 수 있도록 희망의 사다 김용민 민주당 의원 "윤석열 정부 5년 못 채우게 해야"...현역 의원 중 처음 김용민 더불어민주당 의원이 지난 8일 서울 청계광장에서 열린 ‘윤석열 퇴진’ 촛불집회에 참석했다. 김 의원은 “윤석열 정부가 끝까지 5년을 채우지 못하게 하고 국민의 뜻에 따라 빨리 퇴진할 수 있도록 만들어야 하지 30층 아파트 외벽 청소 10분 만에 밧줄 끊어져…30대 추락사 인천의 한 고층 아파트에서 외벽 청소를 하던 30대 일용직 근로자가 작업 10여분 만에 지지하던 밧줄이 끊어져 숨졌다. 11일 인천경찰청에 따르면 전날 오전 11시 40분쯤 인천시 연수구 송도국제도시의 30층짜리 아 서울서 50대 권총에 맞아…"극단적 선택 추정"(종합) 경찰 "총기번호 부여된 38구경 권총…소지 경위 조사" 11일 오전 5시 33분께 서울 서초구 잠원동 신동근린공원 인근 도로에서 50대 남성 A씨가 권총에 맞은 채로 발견돼 병원으로 이송됐다. A씨는 현재 수술 중으 "하룻밤에 13만원 써요"…'데이트하다 빚졌다'는 美 MZ세대 미국 MZ세대(밀레니얼+Z세대) 중 상당수가 데이트 비용 때문에 빚을 졌다는 설문조사 결과가 나왔다. CNBC방송은 10일(현지시간) 미국 온라인 대출업체 렌딩트리의 설문조사 결과를 인용해 미국 밀레니얼 세대(26~ 재생하기 재생시간02:37 당뇨약으로 나왔다 비만약으로 대박!...체중 20% 쏙 빠져 당뇨병 환자의 상당수는 과체중이나 비만인 경우가 많은 데요. 그런데 애초 당뇨약으로 개발됐지만, 체중 감량 효과가 커 비만 치료제로 크게 각광받는 약이 미국에서 잇달아 나오고 있습니다. 비만약으로 대박을 터뜨리게 된 등골휘는 세입자들…10명중 9.4명 전세대출 변동금리 부담↑ 20·30대 전세대출 100조원 육박 전세자금 대출 약 94%가 변동금리형으로 이뤄진 것으로 나타났다. 특히, 차주 절반 이상을 20∼30대 청년층이 차지해 상환 부담이 커질 것이란 지적이다. 11일 국회 진선미 의 정진석 “조선은 썩어서 망해”…野 “친일 앞잡이, 천박” 맹비난(종합) 이재명 더불어민주당 대표의 ‘친일 국방’ 발언에 대한 정진석 국민의힘 비상대책위원장의 반박 발언을 두고 민주당 의원들이 “친일 앞잡이” 등 강도 높은 표현으로 일제히 비판의 목소리를 높였다. 더불어민주당 이재명 대표 신화 신혜성, 도난차량서 음주측정 거부하다 체포 신화의 신혜성이 음주측정을 거부하다가 체포됐다. 신씨는 도난 신고가 들어온 차량을 타고 있었다. 11일 서울 송파경찰서는 이날 오전 1시 40분께 송파구 탄천2교에서 신씨를 도로교통법상 음주측정거부, 절도 혐의로 체 이전 뉴스들 보기 5 다음 뉴스들 보기 함께 볼만한 프리미엄 안내 프리미엄콘텐츠는 네이버가 인터넷뉴스 서비스사업자로서 제공, 매개하는 기사가 아니고, 해당 콘텐츠 제공자가 프리미엄 회원을 대상으로 별도로 발행·제공하는 콘텐츠입니다. 닫기 유료 [인사이트 나우] 새벽 4시 미국은 지금? "영국의 또 다른 보이지 않는 위협 '계속'...미국 holiday season은 환율을 무시하는 대박 쇼핑의 기회" 유목민의 시그널리포트 유료 미국시장 상승/하락 테마(10월 5일 아침): 연준의 피봇 기대감이 가져다준 랠리 바바리안의 미국주식 정복기 유료 [매우 중요] 자기평가서 작성하기! 학종 전공별 탐구 주제 동영상 기사 유료 사례 중심으로 보는 사기죄의 구체적인 양형 LAW 파트너스 유료 만원의행복! 한종목투자 48차 (10월7일)로 월천벌기, 십억벌기에 도전하자~ 수익투자 원칙에 따라 투자하세요~ 두배로 주식투자 아카데미 유료 OPEC+ 200만 배럴 감산, 9월소비자물가, 미 항모 회항 리치언니 투자노트 유료 [투자 웹소설_프롤로그] 뉴스를 보면 52주 최고가가 보인다 직관적인 주식이야기 (직관주식) [스포츠심리학자 인생사례집] 2022 제네시스 챔피언쉽을 다녀와서 스포츠심리학자의 인생사례집ing 유료 신당역 스토킹 살인 사건, 막을 수 있던 죽음은 아니었나? 메이커스저널 유료 폰트 전문 기업 산돌 수요예측 (10/12~13) 공모주 청약일정 공모가 기업분석 청약정보 경제적자유로 파닭거리기 행복의 '빈익빈부익부', 불공평한 세상에서 행복자산의 '레버리지'를 최대한 활용하기 사랑, 사람, 관계 유료 현대차 주식 매수 완료 버핏2배랩 이전 콘텐츠들 보기 3 다음 콘텐츠들 보기 구독 본문 듣기를 종료하였습니다. 이 기사를 추천했습니다. 추천을 취소했습니다. 맨위로 로그인 전체서비스 서비스안내 뉴스도움말 오류신고 본 콘텐츠의 저작권은 제공처 또는 네이버에 있으며, 이를 무단이용하는 경우 저작권법 등에 따라 법적책임을 질 수 있습니다. ⓒ NAVER Corp. ⓒ 머니S 예 아니오</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 제주여행 공모전 성황리 종료 &lt; 경제/관광 &lt; 기사본문 - 제주매일 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 전체기사 뉴스 정치/행정 사회/교육 경제/관광 스포츠 문화 방송/연예 생활에 필요한 법률상식만을 콕!…콕!…콕! 기획 오피니언 국제 기획특집 포토/동영상 포토 동영상 PDF 지면보기 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 로그인 회원가입 모바일웹 RSS 최종편집 2022-10-11 14:45 (화) 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 제주여행 공모전 성황리 종료 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제/관광 제주도관광협회, 제주여행 공모전 성황리 종료 기자명 임아라 기자 입력 2021.09.06 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도관광협회가 추진한 ‘제주 상생 프로젝트, 제주투게더 포스팅 공모전’이 성황리에 종료됐다. 올해 3년차를 맞이한 제주여행 공모전은 SNS 등을 통해 제주의 다양한 여행 콘텐츠를 알리는 행사이다. 올해는 건강한 여행문화·소상공인 알리기·겨울 제주 중 한 가지 주제를 선택해 건강한 제주를 알리고 친환경적 책임관광을 선도하는 ‘지속 가능한 제주여행’ 브랜딩을 목적으로 진행됐다. 온라인 참여자 수는 전년 대비 168% 대폭 증가했으며, 특히 팬데믹 시기에도 시도해볼 만한 새롭고 다양한 제주의 모습이 소개돼 의미를 더했다. 공모전은 1·2차 심사를 거쳐 총 43명(팀)을 선발하며, 수상결과는 9월 30일 공모전 홈페이지를 통해 발표할 예정이다. 임아라 기자 ara4908@daum.net 다른기사 보기 저작권자 © 제주매일 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 최신뉴스 "곶자왈 공유화 기금모금 참여합시다" 제주도개발공사 상임감사에 양진철 교수 임명 서귀포시, 사무관 8명 승진 임용 경제난 속 서귀포시 읍면동 청사 무분별 신축 논란 ‘건강한 서귀포시 만들기 프로젝트’ 재정비 포토뉴스 "곶자왈 공유화 기금모금 참여합시다" 제주도개발공사 상임감사에 양진철 교수 임명 경제난 속 서귀포시 읍면동 청사 무분별 신축 논란 ‘건강한 서귀포시 만들기 프로젝트’ 재정비 인기뉴스 1 “눈을 의심했다” 휘발유·실내등유 가격 차 고작 100원 2 3년 만의 '노마스크' 탐라문화제 '팡파르' 3 ‘천년의 숨결’ 제61회 탐라문화제 막내렸다 4 오영훈 제주도지사 “분산에너지 특구 지정해 달라” 5 “내가 소개하는 작은도서관” 영상공모전 7작 시상 6 다혼디배움학교 현장 여론 존중돼야 7 3년 만에 열리는 제주광어 대축제 8 한국전력 전기요금 인상에 제주 양식업계 반발 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 월광로 37 대표전화 : 064-747-8111 팩스 : 064-747-8116 청소년보호책임자 : 이기봉 법인명 : (주)엔디소프트 제호 : 제주매일 등록번호 : 제주 가 - 00011 등록일 : 2012-05-09 발행일 : 2012-05-09 발행·편집인 : 장동훈 제주매일 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주매일. All rights reserved. mail to news@jejumaeil.net 위로 전체메뉴 전체기사 제8회 지선 전체 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 정치/행정 전체 4·13 총선을 달린다 제주정치돋보기 제주도의회 제8회 지방선거 사회/교육 전체 사회일반 교육 기획 [긴급진단] 제주산돼지고기 청정 이미지 경고등 [진단] 오라동에 비친 제주 난개발의 그림자 원도심 들여다보기 경제/관광 문화 전체 Living &amp; Life 스포츠 전체 전도축구대회 전국체전 전국장애학생체육대회 전국소년체육대회 2018 평창 동계올림픽 2018 평창 동계패럴림픽 기획특집 전체 마을공동체 사업 상생과 경제활성화를 주도한다 -제주매일 ·JDC 공동기획 범도민 바다환경보전 의식제고 프로젝트- 제주도민 생존이 걸린 바다(2021) 제주바다사랑프로젝트- 제주愛 바다愛 - 제주바다를 어떻게 지킬것인가(2020) 제주형 예비 유니콘기업 발굴 육성 - 제주매일 ·JDC 공동기획 살고 싶은 제주 다문화시대, 다양성이 존중되는 제주 만들기 생활에 필요한 법률상식만을 콕!…콕!…콕! 방송/연예 국제 기자수첩 오피니언 종교 전체 제주 순례길 따라 피플 사건사고 설왕설래 포토 Times in English news 이웃소식 만화/만평 전체 시사만화 매일만평 제주매일 포커스 6.4 지방선거 전체 도지사 교육감 도의원 교육의원 브라질월드컵 마라톤 4·13 총선을 달린다 사설 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 소외계층 위한 손소독제 제주사회복지협의회에 기탁 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회, 소외계층 위한 손소독제 제주사회복지협의회에 기탁 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 사회 제주도관광협회, 소외계층 위한 손소독제 제주사회복지협의회에 기탁 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2021.09.03 14:43 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회(회장 부동석)는 지난 2일 제주특별자치도사회복지협의회(회장 고승화)를 방문, 300만원 상당의 손소독제(750개)를 전달했다. 이번 물품 기부는 제주도관광협회에서 추진하고 있는 사회공헌 활동의 일환으로 도내 소외계층의 안전한 코로나19 극복을 위해 이뤄졌다. 부동석 제주관광협회 회장은 "코로나19의 장기화로 보건 사각지대에 놓인 분들이 많아 기부를 하게 됐다”며 “앞으로도 협회의 다양한 활동을 통해 도움을 드릴 수 있도록 노력하겠다"고 전했다. 이 날 기부된 물품은 푸드뱅크·마켓을 통해 도내 저소득 취약계층에 전달될 예정이다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 6 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>오라관광단지 사업 변경안 제주도 제출 ::::: 기사 본문 바로가기 검색사이드메뉴바사이드메뉴바OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항 로그인 로그인검색 검색 로그인 로그인 사이드메뉴바 닫기OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항투데이오라관광단지 사업 변경안 제주도 제출 김항섭2021년 09월 02일 00시 00분 00초 글자 크기 인쇄 페이스북에 공유트위터에 공유 카카오톡에 공유 제주 최대 규모 관광개발사업인 오라관광단지 사업 변경안이 제주도에 제출됐습니다. 제주도는 최근 오라관광단지개발 사업자 측이 건축물 연면적과 객실수를 축소하고 전체부지 대비 63%의 녹지를 확보하는 복합리조트 건설 사업 계획서를 제출했다고 밝혔습니다. 이는 제주도 개발사업심의위원회가 지난해 7월 사업계획을 국내 여건에 맞게 수립하라며 재검토 결정을 내린 것에 따른 후속 조치로, 제주도는 수정 사업 계획서에 대한 재심의를 진행하게 됩니다. 김항섭khsb11@jejumbc.com 최신 뉴스 뉴스투데이2022년 10월 11일 08시 31분 35초개교 100년 넘은 학교도 저출산으로 학생수 급감2022년 10월 11일 07시 20분 00초 고질체납차량·비과세 감면차량 일제 조사2022년 10월 11일 07시 20분 00초 홍해삼·전복 수산종자 91만 마리 방류2022년 10월 11일 07시 20분 00초휘발류보다 비싼 경유..디젤 차량 등록 첫 감소2022년 10월 11일 07시 20분 00초제주 해녀 10년 동안 1천200여 명 감소2022년 10월 11일 07시 20분 00초 오늘 맑고 찬바람 강해 쌀쌀‥내일 아침기온 뚝2022년 10월 11일 07시 20분 00초강원영동) 고향사랑기부금제 내년 도입2022년 10월 11일 07시 20분 00초(인터뷰)재일제주인 연구에 평생2022년 10월 11일 07시 20분 00초연중기획-마을공동체가 여행사업에 참여(리포트)2022년 10월 11일 07시 20분 00초오라관광단지 사업 변경안 제주도 제출 방송편성규약게시판 운영원칙광고안내프로그램 구입 안내지상파DMB개인정보취급방침이용약관이메일무단수집거부 MBC Family MBC경남 대구MBC 대전MBC 목포MBC 부산MBC MBC강원영동 안동MBC여수MBC 울산MBC 광주MBC 원주MBC 전주MBC 제주MBC MBC충북 춘천MBC 포항MBC MBC C&amp;I MBC아카데미 MBC ARTS MBC PLUS MBC AMERICA MBC PlayBe 꿈나무축구재단 MBCNET MBC나눔 iMBC 회사명 : 제주문화방송(주) | 대표자 : 이정식 | 제주특별자치도 제주시 문연로 35 (연동) 064-740-2114 팩스번호 : 064-746-9020 | 뉴스제보 : 064-740-2000ㅣ광고문의 : 064-740-2400© 2019. Jeju Munhwa Broadcasting Corp. All rights reserved. Copyright © Jeju Munhwa Broadcasting Corp. All rights reserved. OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항로그인 로그인</t>
+  </si>
+  <si>
+    <t>오라관광단지 사업 변경안 제주도 제출 ::::: 기사 본문 바로가기 검색사이드메뉴바사이드메뉴바OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항 로그인 로그인검색 검색 로그인 로그인 사이드메뉴바 닫기OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항뉴스데스크오라관광단지 사업 변경안 제주도 제출 김항섭2021년 09월 01일 00시 00분 00초 글자 크기 인쇄 페이스북에 공유트위터에 공유 카카오톡에 공유 제주 최대 규모 관광개발사업인 오라관광단지 사업 변경안이 제주도에 제출됐습니다. 제주도는 최근 오라관광단지개발 사업자 측이 건축물 연면적과 객실수를 축소하고 전체부지 대비 63%의 녹지를 확보하는 복합리조트 건설 사업 계획서를 제출했다고 밝혔습니다. 이는 제주도 개발사업심의위원회가 지난해 7월 사업계획을 국내 여건에 맞게 수립하라며 재검토 결정을 내린 것에 따른 후속 조치로, 제주도는 수정 사업 계획서에 대한 재심의를 진행하게 됩니다. 김항섭khsb11@jejumbc.com 최신 뉴스 뉴스투데이2022년 10월 11일 08시 31분 35초개교 100년 넘은 학교도 저출산으로 학생수 급감2022년 10월 11일 07시 20분 00초 고질체납차량·비과세 감면차량 일제 조사2022년 10월 11일 07시 20분 00초 홍해삼·전복 수산종자 91만 마리 방류2022년 10월 11일 07시 20분 00초휘발류보다 비싼 경유..디젤 차량 등록 첫 감소2022년 10월 11일 07시 20분 00초제주 해녀 10년 동안 1천200여 명 감소2022년 10월 11일 07시 20분 00초 오늘 맑고 찬바람 강해 쌀쌀‥내일 아침기온 뚝2022년 10월 11일 07시 20분 00초강원영동) 고향사랑기부금제 내년 도입2022년 10월 11일 07시 20분 00초(인터뷰)재일제주인 연구에 평생2022년 10월 11일 07시 20분 00초연중기획-마을공동체가 여행사업에 참여(리포트)2022년 10월 11일 07시 20분 00초오라관광단지 사업 변경안 제주도 제출 방송편성규약게시판 운영원칙광고안내프로그램 구입 안내지상파DMB개인정보취급방침이용약관이메일무단수집거부 MBC Family MBC경남 대구MBC 대전MBC 목포MBC 부산MBC MBC강원영동 안동MBC여수MBC 울산MBC 광주MBC 원주MBC 전주MBC 제주MBC MBC충북 춘천MBC 포항MBC MBC C&amp;I MBC아카데미 MBC ARTS MBC PLUS MBC AMERICA MBC PlayBe 꿈나무축구재단 MBCNET MBC나눔 iMBC 회사명 : 제주문화방송(주) | 대표자 : 이정식 | 제주특별자치도 제주시 문연로 35 (연동) 064-740-2114 팩스번호 : 064-746-9020 | 뉴스제보 : 064-740-2000ㅣ광고문의 : 064-740-2400© 2019. Jeju Munhwa Broadcasting Corp. All rights reserved. Copyright © Jeju Munhwa Broadcasting Corp. All rights reserved. OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항로그인 로그인</t>
+  </si>
+  <si>
+    <t>제주도, 추석 맞아 도내 관광사업체 방역수칙 준수 여부 점검 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 14:55 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰청(청장 이상률)은 11일부터 '찾아가는 가해자 교화 프로그램'을 운영한다.찾아가는 가해자 교화 프로그램은 경찰서 유치장에 유치된 '고위험군 여성폭력 ... SNS P  D  F 지면보기 이전 다음 제주도, 추석 맞아 도내 관광사업체 방역수칙 준수 여부 점검 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 제주도정 상단-서브1 제주도, 추석 맞아 도내 관광사업체 방역수칙 준수 여부 점검 현대성 기자 승인 2021.09.05 11:46 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도는 추석 연휴 코로나19 확산 방지를 위해 도내 관광사업체 방역수칙 준수 여부를 점검한다고 지난 3일 밝혔다. 제주도는 비대면 위주로 영업하고 있는 여행업과 기타 편의시설업을 점검 대상에 추가하고, 방역지침 홍보화 함께 현장지도에 나설 방침이다. 제주도는 지난해 1월부터 방역수칙 준수 주요시설인 관광호텔 등 숙박시설과 관광사업체를 대상으로 특별 방역 점검 및 방역 물품 지원을 실시해 왔다. 지난 2월부터는 관광협회·관광공사와 함께 민·관 합동 점검체계를 구축, 방역수칙 준수 여부에 대한 현장 점검을 강화하고 있다. 김승배 제주도 관광국장은 "앞으로도 다중이용시설인 관광사업체뿐만 아니라 기타 관광사업장에 대해서도 수시 점검을 벌여 안정 관광 이미지를 구축해 나가겠다"고 말했다. 현대성 기자  cannon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 현대성 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주선수단, 전국체육대회 메달 목표 달성 3제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 10제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
   </si>
 </sst>
 </file>
@@ -434,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,7 +543,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -467,7 +554,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -478,7 +565,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -489,7 +576,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -500,7 +587,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -511,7 +598,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -522,7 +609,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -533,7 +620,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -541,10 +628,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -552,10 +639,175 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
         <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
